--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F34132-6173-46CA-9DDE-6A4F33A6C2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F1C88D-75C5-4BA2-8142-476C47774457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,18 +659,18 @@
     <t>solar resource -- CF class spv-ITA_13 -- cost class 3</t>
   </si>
   <si>
+    <t>e_spv-ITA_13_c4</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-ITA_13 -- cost class 4</t>
+  </si>
+  <si>
     <t>e_spv-ITA_13_c2</t>
   </si>
   <si>
     <t>solar resource -- CF class spv-ITA_13 -- cost class 2</t>
   </si>
   <si>
-    <t>e_spv-ITA_13_c4</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-ITA_13 -- cost class 4</t>
-  </si>
-  <si>
     <t>comm-out</t>
   </si>
   <si>
@@ -707,18 +707,18 @@
     <t>wind resource -- CF class won-ITA_33 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_32_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_32 -- cost class 1</t>
+  </si>
+  <si>
     <t>e_won-ITA_32_c3</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_32 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_32_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_32 -- cost class 1</t>
-  </si>
-  <si>
     <t>e_won-ITA_32_c2</t>
   </si>
   <si>
@@ -749,6 +749,12 @@
     <t>wind resource -- CF class won-ITA_29 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_29_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_29 -- cost class 5</t>
+  </si>
+  <si>
     <t>e_won-ITA_29_c4</t>
   </si>
   <si>
@@ -761,12 +767,6 @@
     <t>wind resource -- CF class won-ITA_29 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_29_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_29 -- cost class 5</t>
-  </si>
-  <si>
     <t>e_won-ITA_28_c1</t>
   </si>
   <si>
@@ -809,16 +809,22 @@
     <t>wind resource -- CF class won-ITA_26 -- cost class 2</t>
   </si>
   <si>
+    <t>e_won-ITA_25_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 1</t>
+  </si>
+  <si>
     <t>e_won-ITA_25_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-ITA_25_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 1</t>
+    <t>e_won-ITA_25_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 4</t>
   </si>
   <si>
     <t>e_won-ITA_25_c3</t>
@@ -827,12 +833,6 @@
     <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_25_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-ITA_24_c2</t>
   </si>
   <si>
@@ -1229,16 +1229,16 @@
     <t>wind resource -- CF class won-ITA_11 -- cost class 4</t>
   </si>
   <si>
+    <t>e_won-ITA_11_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_11 -- cost class 5</t>
+  </si>
+  <si>
     <t>e_won-ITA_11_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_11 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-ITA_11_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_11 -- cost class 5</t>
   </si>
   <si>
     <t>e_won-ITA_11_c1</t>
@@ -1716,7 +1716,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363C5D19-1A34-8E23-92BC-5FE51C6D2245}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D75B61-55FA-7CB1-2501-07930C271B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1771,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85ABB0C-A352-3EC4-F7DE-AB6B8C70193D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB9E5E6-ACD8-7602-B490-C69DEBF4A3C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +1826,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B081CCB-FE8C-4422-7871-E77341C2A8A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A768599-C843-259D-0AAF-F03B1F9C6C5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1881,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A220F3AA-C458-EF4F-B2C9-9C6549FDA84D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA8D9C3-0ACE-AE16-3394-D96BAF3E0B96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4384,7 +4384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BD5C17-765F-4762-9FDF-3E72750F6FB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80F2E5B-C34F-4424-A045-657A0604909E}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5612,7 +5612,7 @@
         <v>64.217124244118722</v>
       </c>
       <c r="P31" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -5653,7 +5653,7 @@
         <v>64.217124244118722</v>
       </c>
       <c r="P32" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +5666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7E9413-9295-4F18-B584-4C919CF49340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C06F97F-EEFD-4BB2-9466-BDC4D6419756}">
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5901,16 +5901,16 @@
         <v>386</v>
       </c>
       <c r="M7" s="33">
-        <v>2.4990000000000001</v>
+        <v>1.5E-3</v>
       </c>
       <c r="N7" s="36">
         <v>0.32200000000000001</v>
       </c>
       <c r="O7" s="37">
-        <v>39.630069093581724</v>
+        <v>31.372355844942916</v>
       </c>
       <c r="P7" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5942,16 +5942,16 @@
         <v>386</v>
       </c>
       <c r="M8" s="32">
-        <v>1.5E-3</v>
+        <v>2.4990000000000001</v>
       </c>
       <c r="N8" s="34">
         <v>0.32200000000000001</v>
       </c>
       <c r="O8" s="35">
-        <v>31.372355844942916</v>
+        <v>39.630069093581724</v>
       </c>
       <c r="P8" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -6197,7 +6197,7 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P14" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6238,7 +6238,7 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P15" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6279,7 +6279,7 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P16" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -6607,7 +6607,7 @@
         <v>39.368264706413946</v>
       </c>
       <c r="P24" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -6648,7 +6648,7 @@
         <v>39.368264706413946</v>
       </c>
       <c r="P25" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:16">
@@ -6680,16 +6680,16 @@
         <v>386</v>
       </c>
       <c r="M26" s="32">
-        <v>3.2032500000000002</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="N26" s="34">
         <v>0.245</v>
       </c>
       <c r="O26" s="35">
-        <v>42.969340484621256</v>
+        <v>107.03467623779731</v>
       </c>
       <c r="P26" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -6721,16 +6721,16 @@
         <v>386</v>
       </c>
       <c r="M27" s="33">
-        <v>4.4999999999999997E-3</v>
+        <v>3.2032500000000002</v>
       </c>
       <c r="N27" s="36">
         <v>0.245</v>
       </c>
       <c r="O27" s="37">
-        <v>107.03467623779731</v>
+        <v>42.969340484621256</v>
       </c>
       <c r="P27" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -9468,16 +9468,16 @@
         <v>386</v>
       </c>
       <c r="M94" s="32">
-        <v>0.03</v>
+        <v>0.43575000000000003</v>
       </c>
       <c r="N94" s="34">
         <v>0.113</v>
       </c>
       <c r="O94" s="35">
-        <v>94.983314628615091</v>
+        <v>120.30091898433189</v>
       </c>
       <c r="P94" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="2:16">
@@ -9509,16 +9509,16 @@
         <v>386</v>
       </c>
       <c r="M95" s="33">
-        <v>0.43575000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="N95" s="36">
         <v>0.113</v>
       </c>
       <c r="O95" s="37">
-        <v>120.30091898433189</v>
+        <v>94.983314628615091</v>
       </c>
       <c r="P95" s="33">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="2:16">
@@ -9695,7 +9695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A3FD47-160C-4CB6-A572-3CBAA7658062}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCE5DC1-4B84-4578-A88E-EC514FD6AE6C}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F1C88D-75C5-4BA2-8142-476C47774457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC395E2-BF1E-4472-9490-7F579D28DAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="misc" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="EV Battery" sheetId="10" r:id="rId4"/>
     <sheet name="solar" sheetId="11" r:id="rId5"/>
     <sheet name="wind" sheetId="12" r:id="rId6"/>
-    <sheet name="conventional" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="387">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -707,18 +706,18 @@
     <t>wind resource -- CF class won-ITA_33 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_32_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_32 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-ITA_32_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_32 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-ITA_32_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_32 -- cost class 3</t>
-  </si>
-  <si>
     <t>e_won-ITA_32_c2</t>
   </si>
   <si>
@@ -755,18 +754,18 @@
     <t>wind resource -- CF class won-ITA_29 -- cost class 5</t>
   </si>
   <si>
+    <t>e_won-ITA_29_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_29 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-ITA_29_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_29 -- cost class 4</t>
   </si>
   <si>
-    <t>e_won-ITA_29_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_29 -- cost class 3</t>
-  </si>
-  <si>
     <t>e_won-ITA_28_c1</t>
   </si>
   <si>
@@ -821,18 +820,18 @@
     <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
   </si>
   <si>
+    <t>e_won-ITA_25_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-ITA_25_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_25 -- cost class 4</t>
   </si>
   <si>
-    <t>e_won-ITA_25_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
-  </si>
-  <si>
     <t>e_won-ITA_24_c2</t>
   </si>
   <si>
@@ -1266,81 +1265,6 @@
   </si>
   <si>
     <t>elc_won-ITA</t>
-  </si>
-  <si>
-    <t>comm-in</t>
-  </si>
-  <si>
-    <t>Bioenergy + CCUS</t>
-  </si>
-  <si>
-    <t>efficiency</t>
-  </si>
-  <si>
-    <t>ncap_af</t>
-  </si>
-  <si>
-    <t>ncap_cost</t>
-  </si>
-  <si>
-    <t>ncap_fom</t>
-  </si>
-  <si>
-    <t>ncap_iled</t>
-  </si>
-  <si>
-    <t>Bioenergy - Large scale unit</t>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>CCGT + CCS</t>
-  </si>
-  <si>
-    <t>Coal + CCS</t>
-  </si>
-  <si>
-    <t>Gas turbine</t>
-  </si>
-  <si>
-    <t>Hydropower - large-scale unit</t>
-  </si>
-  <si>
-    <t>IGCC</t>
-  </si>
-  <si>
-    <t>IGCC + CCS</t>
-  </si>
-  <si>
-    <t>Nuclear large</t>
-  </si>
-  <si>
-    <t>Oxyfuel + CCS</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Large scale unit</t>
-  </si>
-  <si>
-    <t>Steam Coal - SUBCRITICAL</t>
-  </si>
-  <si>
-    <t>Steam Coal - SUPERCRITICAL</t>
-  </si>
-  <si>
-    <t>Steam Coal - ULTRASUPERCRITICAL</t>
-  </si>
-  <si>
-    <t>Wind offshore</t>
-  </si>
-  <si>
-    <t>Wind onshore</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1640,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D75B61-55FA-7CB1-2501-07930C271B0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947D673D-527F-ECF8-871B-AB13FFADE98E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1695,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB9E5E6-ACD8-7602-B490-C69DEBF4A3C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92309C50-36CB-8BDF-D63F-7FB9C9B46F59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,62 +1750,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A768599-C843-259D-0AAF-F03B1F9C6C5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA8D9C3-0ACE-AE16-3394-D96BAF3E0B96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0BB5EB-2EEB-83C7-8CF5-418DE115C921}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4384,7 +4253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80F2E5B-C34F-4424-A045-657A0604909E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF7AD31-B357-46C8-9C76-4151F605503E}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5666,12 +5535,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C06F97F-EEFD-4BB2-9466-BDC4D6419756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545F1935-CE42-48CD-BA45-6BE709CADD20}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -5901,16 +5768,16 @@
         <v>386</v>
       </c>
       <c r="M7" s="33">
-        <v>1.5E-3</v>
+        <v>2.4990000000000001</v>
       </c>
       <c r="N7" s="36">
         <v>0.32200000000000001</v>
       </c>
       <c r="O7" s="37">
-        <v>31.372355844942916</v>
+        <v>39.630069093581724</v>
       </c>
       <c r="P7" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5942,16 +5809,16 @@
         <v>386</v>
       </c>
       <c r="M8" s="32">
-        <v>2.4990000000000001</v>
+        <v>1.5E-3</v>
       </c>
       <c r="N8" s="34">
         <v>0.32200000000000001</v>
       </c>
       <c r="O8" s="35">
-        <v>39.630069093581724</v>
+        <v>31.372355844942916</v>
       </c>
       <c r="P8" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -6238,7 +6105,7 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P15" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6279,7 +6146,7 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P16" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -6680,16 +6547,16 @@
         <v>386</v>
       </c>
       <c r="M26" s="32">
-        <v>4.4999999999999997E-3</v>
+        <v>3.2032500000000002</v>
       </c>
       <c r="N26" s="34">
         <v>0.245</v>
       </c>
       <c r="O26" s="35">
-        <v>107.03467623779731</v>
+        <v>42.969340484621256</v>
       </c>
       <c r="P26" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -6721,16 +6588,16 @@
         <v>386</v>
       </c>
       <c r="M27" s="33">
-        <v>3.2032500000000002</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="N27" s="36">
         <v>0.245</v>
       </c>
       <c r="O27" s="37">
-        <v>42.969340484621256</v>
+        <v>107.03467623779731</v>
       </c>
       <c r="P27" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -9683,1870 +9550,6 @@
       </c>
       <c r="P99" s="33">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCE5DC1-4B84-4578-A88E-EC514FD6AE6C}">
-  <dimension ref="A1:Q66"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="27.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="27.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="22.05" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.65" thickBot="1">
-      <c r="B2" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B3" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="29">
-        <v>2023</v>
-      </c>
-      <c r="F3" s="29">
-        <v>2030</v>
-      </c>
-      <c r="G3" s="29">
-        <v>2050</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="B4" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="35">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F4" s="35">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G4" s="35">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="B5" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="37">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F5" s="37">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G5" s="37">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="B6" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="35">
-        <v>5750</v>
-      </c>
-      <c r="F6" s="35">
-        <v>5700</v>
-      </c>
-      <c r="G6" s="35">
-        <v>5100</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="B7" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="37">
-        <v>200</v>
-      </c>
-      <c r="F7" s="37">
-        <v>200</v>
-      </c>
-      <c r="G7" s="37">
-        <v>175</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="B8" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="35">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35">
-        <v>3</v>
-      </c>
-      <c r="G8" s="35">
-        <v>3</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="B9" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="37">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="F9" s="37">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G9" s="37">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="B10" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="35">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F10" s="35">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G10" s="35">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q10" s="30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="B11" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="37">
-        <v>2400</v>
-      </c>
-      <c r="F11" s="37">
-        <v>2350</v>
-      </c>
-      <c r="G11" s="37">
-        <v>2300</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q11" s="31" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="B12" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="35">
-        <v>85</v>
-      </c>
-      <c r="F12" s="35">
-        <v>85</v>
-      </c>
-      <c r="G12" s="35">
-        <v>80</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q12" s="30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="B13" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="37">
-        <v>3</v>
-      </c>
-      <c r="F13" s="37">
-        <v>3</v>
-      </c>
-      <c r="G13" s="37">
-        <v>3</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q13" s="31" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="B14" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="35">
-        <v>0.59</v>
-      </c>
-      <c r="F14" s="35">
-        <v>0.6</v>
-      </c>
-      <c r="G14" s="35">
-        <v>0.61</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q14" s="30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="B15" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="37">
-        <v>1000</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q15" s="31" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="B16" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="35">
-        <v>25</v>
-      </c>
-      <c r="F16" s="35">
-        <v>25</v>
-      </c>
-      <c r="G16" s="35">
-        <v>25</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q16" s="30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0.51</v>
-      </c>
-      <c r="F17" s="37">
-        <v>0.52</v>
-      </c>
-      <c r="G17" s="37">
-        <v>0.54</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q17" s="31" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="35">
-        <v>3100</v>
-      </c>
-      <c r="F18" s="35">
-        <v>3100</v>
-      </c>
-      <c r="G18" s="35">
-        <v>2400</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q18" s="30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="37">
-        <v>75</v>
-      </c>
-      <c r="F19" s="37">
-        <v>75</v>
-      </c>
-      <c r="G19" s="37">
-        <v>60</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="K19" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q19" s="31" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17">
-      <c r="B20" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="35">
-        <v>0.37</v>
-      </c>
-      <c r="F20" s="35">
-        <v>0.38</v>
-      </c>
-      <c r="G20" s="35">
-        <v>0.39</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q20" s="30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17">
-      <c r="B21" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="37">
-        <v>5500</v>
-      </c>
-      <c r="F21" s="37">
-        <v>5500</v>
-      </c>
-      <c r="G21" s="37">
-        <v>4350</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17">
-      <c r="B22" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="35">
-        <v>165</v>
-      </c>
-      <c r="F22" s="35">
-        <v>165</v>
-      </c>
-      <c r="G22" s="35">
-        <v>130</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17">
-      <c r="B23" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="F23" s="37">
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="G23" s="37">
-        <v>0.42</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="35">
-        <v>500</v>
-      </c>
-      <c r="F24" s="35">
-        <v>500</v>
-      </c>
-      <c r="G24" s="35">
-        <v>500</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="37">
-        <v>20</v>
-      </c>
-      <c r="F25" s="37">
-        <v>20</v>
-      </c>
-      <c r="G25" s="37">
-        <v>20</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17">
-      <c r="B26" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="35">
-        <v>1</v>
-      </c>
-      <c r="F26" s="35">
-        <v>1</v>
-      </c>
-      <c r="G26" s="35">
-        <v>1</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17">
-      <c r="B27" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="37">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="F27" s="37">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G27" s="37">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17">
-      <c r="B28" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="35">
-        <v>2650</v>
-      </c>
-      <c r="F28" s="35">
-        <v>2650</v>
-      </c>
-      <c r="G28" s="35">
-        <v>2650</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17">
-      <c r="B29" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="37">
-        <v>65</v>
-      </c>
-      <c r="F29" s="37">
-        <v>65</v>
-      </c>
-      <c r="G29" s="37">
-        <v>65</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17">
-      <c r="B30" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="35">
-        <v>4</v>
-      </c>
-      <c r="F30" s="35">
-        <v>4</v>
-      </c>
-      <c r="G30" s="35">
-        <v>4</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17">
-      <c r="B31" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="37">
-        <v>0.45</v>
-      </c>
-      <c r="F31" s="37">
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="G31" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17">
-      <c r="B32" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="35">
-        <v>2500</v>
-      </c>
-      <c r="F32" s="35">
-        <v>2350</v>
-      </c>
-      <c r="G32" s="35">
-        <v>2300</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="37">
-        <v>95</v>
-      </c>
-      <c r="F33" s="37">
-        <v>85</v>
-      </c>
-      <c r="G33" s="37">
-        <v>80</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="35">
-        <v>0.36</v>
-      </c>
-      <c r="F34" s="35">
-        <v>0.38</v>
-      </c>
-      <c r="G34" s="35">
-        <v>0.43</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="37">
-        <v>5850</v>
-      </c>
-      <c r="F35" s="37">
-        <v>5700</v>
-      </c>
-      <c r="G35" s="37">
-        <v>5100</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="35">
-        <v>205</v>
-      </c>
-      <c r="F36" s="35">
-        <v>200</v>
-      </c>
-      <c r="G36" s="35">
-        <v>180</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="37">
-        <v>0.33</v>
-      </c>
-      <c r="F37" s="37">
-        <v>0.33</v>
-      </c>
-      <c r="G37" s="37">
-        <v>0.33</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="35">
-        <v>6600</v>
-      </c>
-      <c r="F38" s="35">
-        <v>5100</v>
-      </c>
-      <c r="G38" s="35">
-        <v>4500</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="37">
-        <v>165</v>
-      </c>
-      <c r="F39" s="37">
-        <v>165</v>
-      </c>
-      <c r="G39" s="37">
-        <v>160</v>
-      </c>
-      <c r="H39" s="31" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="35">
-        <v>0.37</v>
-      </c>
-      <c r="F40" s="35">
-        <v>0.38</v>
-      </c>
-      <c r="G40" s="35">
-        <v>0.39</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="37">
-        <v>5700</v>
-      </c>
-      <c r="F41" s="37">
-        <v>5700</v>
-      </c>
-      <c r="G41" s="37">
-        <v>5100</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="35">
-        <v>170</v>
-      </c>
-      <c r="F42" s="35">
-        <v>170</v>
-      </c>
-      <c r="G42" s="35">
-        <v>155</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="37">
-        <v>1</v>
-      </c>
-      <c r="F43" s="37">
-        <v>1</v>
-      </c>
-      <c r="G43" s="37">
-        <v>1</v>
-      </c>
-      <c r="H43" s="31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="35">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F44" s="35">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G44" s="35">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="37">
-        <v>750</v>
-      </c>
-      <c r="F45" s="37">
-        <v>480</v>
-      </c>
-      <c r="G45" s="37">
-        <v>340</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="35">
-        <v>12</v>
-      </c>
-      <c r="F46" s="35">
-        <v>10</v>
-      </c>
-      <c r="G46" s="35">
-        <v>10</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="F47" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="G47" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="H47" s="31" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="35">
-        <v>0.39</v>
-      </c>
-      <c r="F48" s="35">
-        <v>0.39</v>
-      </c>
-      <c r="G48" s="35">
-        <v>0.39</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="37">
-        <v>1700</v>
-      </c>
-      <c r="F49" s="37">
-        <v>1700</v>
-      </c>
-      <c r="G49" s="37">
-        <v>1700</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="35">
-        <v>45</v>
-      </c>
-      <c r="F50" s="35">
-        <v>45</v>
-      </c>
-      <c r="G50" s="35">
-        <v>45</v>
-      </c>
-      <c r="H50" s="30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="37">
-        <v>0.43</v>
-      </c>
-      <c r="F51" s="37">
-        <v>0.43</v>
-      </c>
-      <c r="G51" s="37">
-        <v>0.43</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="35">
-        <v>2000</v>
-      </c>
-      <c r="F52" s="35">
-        <v>2000</v>
-      </c>
-      <c r="G52" s="35">
-        <v>2000</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="37">
-        <v>60</v>
-      </c>
-      <c r="F53" s="37">
-        <v>60</v>
-      </c>
-      <c r="G53" s="37">
-        <v>60</v>
-      </c>
-      <c r="H53" s="31" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="35">
-        <v>0.46</v>
-      </c>
-      <c r="F54" s="35">
-        <v>0.46</v>
-      </c>
-      <c r="G54" s="35">
-        <v>0.48</v>
-      </c>
-      <c r="H54" s="30" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="37">
-        <v>2200</v>
-      </c>
-      <c r="F55" s="37">
-        <v>2200</v>
-      </c>
-      <c r="G55" s="37">
-        <v>2200</v>
-      </c>
-      <c r="H55" s="31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="35">
-        <v>65</v>
-      </c>
-      <c r="F56" s="35">
-        <v>65</v>
-      </c>
-      <c r="G56" s="35">
-        <v>65</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="37">
-        <v>1</v>
-      </c>
-      <c r="F57" s="37">
-        <v>1</v>
-      </c>
-      <c r="G57" s="37">
-        <v>1</v>
-      </c>
-      <c r="H57" s="31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="F58" s="35">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G58" s="35">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="37">
-        <v>3120</v>
-      </c>
-      <c r="F59" s="37">
-        <v>2280</v>
-      </c>
-      <c r="G59" s="37">
-        <v>1660</v>
-      </c>
-      <c r="H59" s="31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="35">
-        <v>60</v>
-      </c>
-      <c r="F60" s="35">
-        <v>50</v>
-      </c>
-      <c r="G60" s="35">
-        <v>40</v>
-      </c>
-      <c r="H60" s="30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="37">
-        <v>3</v>
-      </c>
-      <c r="F61" s="37">
-        <v>3</v>
-      </c>
-      <c r="G61" s="37">
-        <v>3</v>
-      </c>
-      <c r="H61" s="31" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="35">
-        <v>1</v>
-      </c>
-      <c r="F62" s="35">
-        <v>1</v>
-      </c>
-      <c r="G62" s="35">
-        <v>1</v>
-      </c>
-      <c r="H62" s="30" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="37">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F63" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="G63" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="H63" s="31" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="35">
-        <v>1630</v>
-      </c>
-      <c r="F64" s="35">
-        <v>1550</v>
-      </c>
-      <c r="G64" s="35">
-        <v>1490</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="37">
-        <v>42</v>
-      </c>
-      <c r="F65" s="37">
-        <v>40</v>
-      </c>
-      <c r="G65" s="37">
-        <v>38</v>
-      </c>
-      <c r="H65" s="31" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="35">
-        <v>1.5</v>
-      </c>
-      <c r="F66" s="35">
-        <v>1.5</v>
-      </c>
-      <c r="G66" s="35">
-        <v>1.5</v>
-      </c>
-      <c r="H66" s="30" t="s">
-        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC395E2-BF1E-4472-9490-7F579D28DAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDF15E7-6FEE-4882-B48A-96B6FA9502E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="misc" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="EV Battery" sheetId="10" r:id="rId4"/>
     <sheet name="solar" sheetId="11" r:id="rId5"/>
     <sheet name="wind" sheetId="12" r:id="rId6"/>
+    <sheet name="conventional" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="412">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -658,18 +659,18 @@
     <t>solar resource -- CF class spv-ITA_13 -- cost class 3</t>
   </si>
   <si>
+    <t>e_spv-ITA_13_c2</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-ITA_13 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_spv-ITA_13_c4</t>
   </si>
   <si>
     <t>solar resource -- CF class spv-ITA_13 -- cost class 4</t>
   </si>
   <si>
-    <t>e_spv-ITA_13_c2</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-ITA_13 -- cost class 2</t>
-  </si>
-  <si>
     <t>comm-out</t>
   </si>
   <si>
@@ -748,6 +749,12 @@
     <t>wind resource -- CF class won-ITA_29 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_29_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_29 -- cost class 4</t>
+  </si>
+  <si>
     <t>e_won-ITA_29_c5</t>
   </si>
   <si>
@@ -760,12 +767,6 @@
     <t>wind resource -- CF class won-ITA_29 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_29_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_29 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-ITA_28_c1</t>
   </si>
   <si>
@@ -808,16 +809,22 @@
     <t>wind resource -- CF class won-ITA_26 -- cost class 2</t>
   </si>
   <si>
+    <t>e_won-ITA_25_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-ITA_25_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_25 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-ITA_25_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
+    <t>e_won-ITA_25_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 4</t>
   </si>
   <si>
     <t>e_won-ITA_25_c3</t>
@@ -826,12 +833,6 @@
     <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_25_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-ITA_24_c2</t>
   </si>
   <si>
@@ -1222,6 +1223,12 @@
     <t>wind resource -- CF class won-ITA_12 -- cost class 2</t>
   </si>
   <si>
+    <t>e_won-ITA_11_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_11 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-ITA_11_c4</t>
   </si>
   <si>
@@ -1234,12 +1241,6 @@
     <t>wind resource -- CF class won-ITA_11 -- cost class 5</t>
   </si>
   <si>
-    <t>e_won-ITA_11_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_11 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-ITA_11_c1</t>
   </si>
   <si>
@@ -1252,19 +1253,94 @@
     <t>wind resource -- CF class won-ITA_11 -- cost class 3</t>
   </si>
   <si>
+    <t>e_won-ITA_10_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_10 -- cost class 1</t>
+  </si>
+  <si>
     <t>e_won-ITA_10_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_10 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-ITA_10_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_10 -- cost class 1</t>
-  </si>
-  <si>
     <t>elc_won-ITA</t>
+  </si>
+  <si>
+    <t>comm-in</t>
+  </si>
+  <si>
+    <t>Bioenergy + CCUS</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>ncap_af</t>
+  </si>
+  <si>
+    <t>ncap_cost</t>
+  </si>
+  <si>
+    <t>ncap_fom</t>
+  </si>
+  <si>
+    <t>ncap_iled</t>
+  </si>
+  <si>
+    <t>Bioenergy - Large scale unit</t>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>CCGT + CCS</t>
+  </si>
+  <si>
+    <t>Coal + CCS</t>
+  </si>
+  <si>
+    <t>Gas turbine</t>
+  </si>
+  <si>
+    <t>Hydropower - large-scale unit</t>
+  </si>
+  <si>
+    <t>IGCC</t>
+  </si>
+  <si>
+    <t>IGCC + CCS</t>
+  </si>
+  <si>
+    <t>Nuclear large</t>
+  </si>
+  <si>
+    <t>Oxyfuel + CCS</t>
+  </si>
+  <si>
+    <t>Solar photovoltaics - Large scale unit</t>
+  </si>
+  <si>
+    <t>Steam Coal - SUBCRITICAL</t>
+  </si>
+  <si>
+    <t>Steam Coal - SUPERCRITICAL</t>
+  </si>
+  <si>
+    <t>Steam Coal - ULTRASUPERCRITICAL</t>
+  </si>
+  <si>
+    <t>Wind offshore</t>
+  </si>
+  <si>
+    <t>Wind onshore</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1716,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947D673D-527F-ECF8-871B-AB13FFADE98E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CB1E2D-16D1-7F5C-3E8D-2FEC70133023}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1771,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92309C50-36CB-8BDF-D63F-7FB9C9B46F59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA2F103-5300-E3E9-4AAD-9D6B32B94D3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1826,62 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0BB5EB-2EEB-83C7-8CF5-418DE115C921}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749D1D58-13AF-C87E-7884-9F8B02BE9EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D9B3EE-63E2-2708-AA79-3947C8DA3A5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4253,7 +4384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF7AD31-B357-46C8-9C76-4151F605503E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBD5B3D-799E-4002-8504-3F575121DCEA}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5481,7 +5612,7 @@
         <v>64.217124244118722</v>
       </c>
       <c r="P31" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -5522,7 +5653,7 @@
         <v>64.217124244118722</v>
       </c>
       <c r="P32" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5535,10 +5666,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545F1935-CE42-48CD-BA45-6BE709CADD20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBE7B01-01BC-424A-8D05-7B9FCD15ABB5}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -6064,7 +6197,7 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P14" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6105,7 +6238,7 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P15" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6146,7 +6279,7 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P16" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -6474,7 +6607,7 @@
         <v>39.368264706413946</v>
       </c>
       <c r="P24" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -6515,7 +6648,7 @@
         <v>39.368264706413946</v>
       </c>
       <c r="P25" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:16">
@@ -6547,16 +6680,16 @@
         <v>386</v>
       </c>
       <c r="M26" s="32">
-        <v>3.2032500000000002</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="N26" s="34">
         <v>0.245</v>
       </c>
       <c r="O26" s="35">
-        <v>42.969340484621256</v>
+        <v>107.03467623779731</v>
       </c>
       <c r="P26" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -6588,16 +6721,16 @@
         <v>386</v>
       </c>
       <c r="M27" s="33">
-        <v>4.4999999999999997E-3</v>
+        <v>3.2032500000000002</v>
       </c>
       <c r="N27" s="36">
         <v>0.245</v>
       </c>
       <c r="O27" s="37">
-        <v>107.03467623779731</v>
+        <v>42.969340484621256</v>
       </c>
       <c r="P27" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -9294,16 +9427,16 @@
         <v>386</v>
       </c>
       <c r="M93" s="33">
-        <v>0.43575000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="N93" s="36">
         <v>0.113</v>
       </c>
       <c r="O93" s="37">
-        <v>120.30091898433189</v>
+        <v>94.983314628615091</v>
       </c>
       <c r="P93" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="2:16">
@@ -9344,7 +9477,7 @@
         <v>120.30091898433189</v>
       </c>
       <c r="P94" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="2:16">
@@ -9376,16 +9509,16 @@
         <v>386</v>
       </c>
       <c r="M95" s="33">
-        <v>0.03</v>
+        <v>0.43575000000000003</v>
       </c>
       <c r="N95" s="36">
         <v>0.113</v>
       </c>
       <c r="O95" s="37">
-        <v>94.983314628615091</v>
+        <v>120.30091898433189</v>
       </c>
       <c r="P95" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="2:16">
@@ -9508,7 +9641,7 @@
         <v>74.16840218346799</v>
       </c>
       <c r="P98" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="2:16">
@@ -9549,7 +9682,1871 @@
         <v>74.16840218346799</v>
       </c>
       <c r="P99" s="33">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A6DFD6-0928-458F-89A1-5F6D45A6FEA1}">
+  <dimension ref="A1:Q66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="22.05" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.65" thickBot="1">
+      <c r="B2" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B3" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="29">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="29">
+        <v>2030</v>
+      </c>
+      <c r="G3" s="29">
+        <v>2050</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="35">
+        <v>5750</v>
+      </c>
+      <c r="F6" s="35">
+        <v>5700</v>
+      </c>
+      <c r="G6" s="35">
+        <v>5100</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="37">
+        <v>200</v>
+      </c>
+      <c r="F7" s="37">
+        <v>200</v>
+      </c>
+      <c r="G7" s="37">
+        <v>175</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="35">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35">
+        <v>3</v>
+      </c>
+      <c r="G8" s="35">
+        <v>3</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="35">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F10" s="35">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G10" s="35">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="37">
+        <v>2400</v>
+      </c>
+      <c r="F11" s="37">
+        <v>2350</v>
+      </c>
+      <c r="G11" s="37">
+        <v>2300</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="35">
+        <v>85</v>
+      </c>
+      <c r="F12" s="35">
+        <v>85</v>
+      </c>
+      <c r="G12" s="35">
+        <v>80</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="37">
+        <v>3</v>
+      </c>
+      <c r="F13" s="37">
+        <v>3</v>
+      </c>
+      <c r="G13" s="37">
+        <v>3</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0.59</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0.61</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="37">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="37">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="35">
+        <v>25</v>
+      </c>
+      <c r="F16" s="35">
+        <v>25</v>
+      </c>
+      <c r="G16" s="35">
+        <v>25</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0.51</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.52</v>
+      </c>
+      <c r="G17" s="37">
+        <v>0.54</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="35">
+        <v>3100</v>
+      </c>
+      <c r="F18" s="35">
+        <v>3100</v>
+      </c>
+      <c r="G18" s="35">
+        <v>2400</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="37">
+        <v>75</v>
+      </c>
+      <c r="F19" s="37">
+        <v>75</v>
+      </c>
+      <c r="G19" s="37">
+        <v>60</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0.37</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0.38</v>
+      </c>
+      <c r="G20" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q20" s="30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="37">
+        <v>5500</v>
+      </c>
+      <c r="F21" s="37">
+        <v>5500</v>
+      </c>
+      <c r="G21" s="37">
+        <v>4350</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="35">
+        <v>165</v>
+      </c>
+      <c r="F22" s="35">
+        <v>165</v>
+      </c>
+      <c r="G22" s="35">
+        <v>130</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="G23" s="37">
+        <v>0.42</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="35">
+        <v>500</v>
+      </c>
+      <c r="F24" s="35">
+        <v>500</v>
+      </c>
+      <c r="G24" s="35">
+        <v>500</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="37">
+        <v>20</v>
+      </c>
+      <c r="F25" s="37">
+        <v>20</v>
+      </c>
+      <c r="G25" s="37">
+        <v>20</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="35">
         <v>1</v>
+      </c>
+      <c r="F26" s="35">
+        <v>1</v>
+      </c>
+      <c r="G26" s="35">
+        <v>1</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="37">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="F27" s="37">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="G27" s="37">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="35">
+        <v>2650</v>
+      </c>
+      <c r="F28" s="35">
+        <v>2650</v>
+      </c>
+      <c r="G28" s="35">
+        <v>2650</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="37">
+        <v>65</v>
+      </c>
+      <c r="F29" s="37">
+        <v>65</v>
+      </c>
+      <c r="G29" s="37">
+        <v>65</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="35">
+        <v>4</v>
+      </c>
+      <c r="F30" s="35">
+        <v>4</v>
+      </c>
+      <c r="G30" s="35">
+        <v>4</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="37">
+        <v>0.45</v>
+      </c>
+      <c r="F31" s="37">
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="G31" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="35">
+        <v>2500</v>
+      </c>
+      <c r="F32" s="35">
+        <v>2350</v>
+      </c>
+      <c r="G32" s="35">
+        <v>2300</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="37">
+        <v>95</v>
+      </c>
+      <c r="F33" s="37">
+        <v>85</v>
+      </c>
+      <c r="G33" s="37">
+        <v>80</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="35">
+        <v>0.36</v>
+      </c>
+      <c r="F34" s="35">
+        <v>0.38</v>
+      </c>
+      <c r="G34" s="35">
+        <v>0.43</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="37">
+        <v>5850</v>
+      </c>
+      <c r="F35" s="37">
+        <v>5700</v>
+      </c>
+      <c r="G35" s="37">
+        <v>5100</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="35">
+        <v>205</v>
+      </c>
+      <c r="F36" s="35">
+        <v>200</v>
+      </c>
+      <c r="G36" s="35">
+        <v>180</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="37">
+        <v>0.33</v>
+      </c>
+      <c r="F37" s="37">
+        <v>0.33</v>
+      </c>
+      <c r="G37" s="37">
+        <v>0.33</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="35">
+        <v>6600</v>
+      </c>
+      <c r="F38" s="35">
+        <v>5100</v>
+      </c>
+      <c r="G38" s="35">
+        <v>4500</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="37">
+        <v>165</v>
+      </c>
+      <c r="F39" s="37">
+        <v>165</v>
+      </c>
+      <c r="G39" s="37">
+        <v>160</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="35">
+        <v>0.37</v>
+      </c>
+      <c r="F40" s="35">
+        <v>0.38</v>
+      </c>
+      <c r="G40" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="37">
+        <v>5700</v>
+      </c>
+      <c r="F41" s="37">
+        <v>5700</v>
+      </c>
+      <c r="G41" s="37">
+        <v>5100</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="35">
+        <v>170</v>
+      </c>
+      <c r="F42" s="35">
+        <v>170</v>
+      </c>
+      <c r="G42" s="35">
+        <v>155</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="37">
+        <v>1</v>
+      </c>
+      <c r="F43" s="37">
+        <v>1</v>
+      </c>
+      <c r="G43" s="37">
+        <v>1</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F44" s="35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G44" s="35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="37">
+        <v>750</v>
+      </c>
+      <c r="F45" s="37">
+        <v>480</v>
+      </c>
+      <c r="G45" s="37">
+        <v>340</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="35">
+        <v>12</v>
+      </c>
+      <c r="F46" s="35">
+        <v>10</v>
+      </c>
+      <c r="G46" s="35">
+        <v>10</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="F48" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="G48" s="35">
+        <v>0.39</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="37">
+        <v>1700</v>
+      </c>
+      <c r="F49" s="37">
+        <v>1700</v>
+      </c>
+      <c r="G49" s="37">
+        <v>1700</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="35">
+        <v>45</v>
+      </c>
+      <c r="F50" s="35">
+        <v>45</v>
+      </c>
+      <c r="G50" s="35">
+        <v>45</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="37">
+        <v>0.43</v>
+      </c>
+      <c r="F51" s="37">
+        <v>0.43</v>
+      </c>
+      <c r="G51" s="37">
+        <v>0.43</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="35">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="35">
+        <v>2000</v>
+      </c>
+      <c r="G52" s="35">
+        <v>2000</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="37">
+        <v>60</v>
+      </c>
+      <c r="F53" s="37">
+        <v>60</v>
+      </c>
+      <c r="G53" s="37">
+        <v>60</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="35">
+        <v>0.46</v>
+      </c>
+      <c r="F54" s="35">
+        <v>0.46</v>
+      </c>
+      <c r="G54" s="35">
+        <v>0.48</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="37">
+        <v>2200</v>
+      </c>
+      <c r="F55" s="37">
+        <v>2200</v>
+      </c>
+      <c r="G55" s="37">
+        <v>2200</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="35">
+        <v>65</v>
+      </c>
+      <c r="F56" s="35">
+        <v>65</v>
+      </c>
+      <c r="G56" s="35">
+        <v>65</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="37">
+        <v>1</v>
+      </c>
+      <c r="F57" s="37">
+        <v>1</v>
+      </c>
+      <c r="G57" s="37">
+        <v>1</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="35">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G58" s="35">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="37">
+        <v>3120</v>
+      </c>
+      <c r="F59" s="37">
+        <v>2280</v>
+      </c>
+      <c r="G59" s="37">
+        <v>1660</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="35">
+        <v>60</v>
+      </c>
+      <c r="F60" s="35">
+        <v>50</v>
+      </c>
+      <c r="G60" s="35">
+        <v>40</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="37">
+        <v>3</v>
+      </c>
+      <c r="F61" s="37">
+        <v>3</v>
+      </c>
+      <c r="G61" s="37">
+        <v>3</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="35">
+        <v>1</v>
+      </c>
+      <c r="F62" s="35">
+        <v>1</v>
+      </c>
+      <c r="G62" s="35">
+        <v>1</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F63" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G63" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="35">
+        <v>1630</v>
+      </c>
+      <c r="F64" s="35">
+        <v>1550</v>
+      </c>
+      <c r="G64" s="35">
+        <v>1490</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="37">
+        <v>42</v>
+      </c>
+      <c r="F65" s="37">
+        <v>40</v>
+      </c>
+      <c r="G65" s="37">
+        <v>38</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F66" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G66" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDF15E7-6FEE-4882-B48A-96B6FA9502E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A369E1D-260E-4EFD-AB88-8A076F249475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="415">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>elc_buildings,elc_industry,elc_transport</t>
-  </si>
-  <si>
-    <t>elc_demand</t>
   </si>
   <si>
     <t>~FI_Comm</t>
@@ -401,9 +398,6 @@
     <t>Car battery - 6kw/60Kwh - with V2G (optional)</t>
   </si>
   <si>
-    <t>EV_Battery</t>
-  </si>
-  <si>
     <t>elc_roadtransport</t>
   </si>
   <si>
@@ -428,6 +422,21 @@
     <t>~FI_T: USD21~FX~ACT_BND</t>
   </si>
   <si>
+    <t>ev_battery</t>
+  </si>
+  <si>
+    <t>e_demand</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>Demand sectors</t>
+  </si>
+  <si>
+    <t>generic fuel supply</t>
+  </si>
+  <si>
     <t>~fi_process</t>
   </si>
   <si>
@@ -653,18 +662,18 @@
     <t>solar resource -- CF class spv-ITA_13 -- cost class 1</t>
   </si>
   <si>
+    <t>e_spv-ITA_13_c2</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-ITA_13 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_spv-ITA_13_c3</t>
   </si>
   <si>
     <t>solar resource -- CF class spv-ITA_13 -- cost class 3</t>
   </si>
   <si>
-    <t>e_spv-ITA_13_c2</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-ITA_13 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_spv-ITA_13_c4</t>
   </si>
   <si>
@@ -707,18 +716,18 @@
     <t>wind resource -- CF class won-ITA_33 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_32_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_32 -- cost class 1</t>
+  </si>
+  <si>
     <t>e_won-ITA_32_c3</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_32 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_32_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_32 -- cost class 1</t>
-  </si>
-  <si>
     <t>e_won-ITA_32_c2</t>
   </si>
   <si>
@@ -749,18 +758,18 @@
     <t>wind resource -- CF class won-ITA_29 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_29_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_29 -- cost class 5</t>
+  </si>
+  <si>
     <t>e_won-ITA_29_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_29 -- cost class 4</t>
   </si>
   <si>
-    <t>e_won-ITA_29_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_29 -- cost class 5</t>
-  </si>
-  <si>
     <t>e_won-ITA_29_c3</t>
   </si>
   <si>
@@ -809,28 +818,28 @@
     <t>wind resource -- CF class won-ITA_26 -- cost class 2</t>
   </si>
   <si>
+    <t>e_won-ITA_25_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 1</t>
+  </si>
+  <si>
     <t>e_won-ITA_25_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-ITA_25_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 1</t>
+    <t>e_won-ITA_25_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
   </si>
   <si>
     <t>e_won-ITA_25_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_25 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-ITA_25_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
   </si>
   <si>
     <t>e_won-ITA_24_c2</t>
@@ -1716,7 +1725,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CB1E2D-16D1-7F5C-3E8D-2FEC70133023}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC712C4-CF13-DB91-0B99-E4553ED822A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1780,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA2F103-5300-E3E9-4AAD-9D6B32B94D3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC3C46C-CE66-32E7-CD3D-CC12421F70AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +1835,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749D1D58-13AF-C87E-7884-9F8B02BE9EB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F8CC5C-9F48-B168-11BB-11E1DC30AC41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1890,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D9B3EE-63E2-2708-AA79-3947C8DA3A5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C5C106-A9B9-C409-0B07-3AB60D4DEFF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C1C47-C7B1-48B4-9602-2B825216B37E}">
-  <dimension ref="B2:T18"/>
+  <dimension ref="B2:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2202,19 +2211,19 @@
     <col min="17" max="17" width="3.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="14.65" thickBot="1">
+    <row r="2" spans="2:22" ht="14.65" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:22">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +2258,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="1">
         <v>2022</v>
@@ -2257,8 +2266,14 @@
       <c r="Q3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:20">
+      <c r="R3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2291,7 +2306,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:22">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2326,14 +2341,16 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:22">
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -2345,7 +2362,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="str">
         <f>C6</f>
-        <v>elc_demand</v>
+        <v>e_demand</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
@@ -2362,18 +2379,20 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="T6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20">
+      <c r="V6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
       <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
@@ -2389,25 +2408,25 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1">
-        <f t="shared" ref="O7:O16" si="0">T7*3.6</f>
+        <f t="shared" ref="O7:O16" si="0">V7*3.6</f>
         <v>25.2</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="T7" s="1">
+      <c r="V7" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:22">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -2421,7 +2440,7 @@
       <c r="I8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2430,16 +2449,16 @@
         <v>7.2</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="T8" s="1">
+      <c r="V8" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:22">
       <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
         <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -2453,7 +2472,7 @@
       <c r="I9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2462,11 +2481,11 @@
         <v>18</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="T9" s="1">
+      <c r="V9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:22">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2478,7 +2497,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2487,11 +2506,11 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="T10">
+      <c r="V10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:22">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2503,7 +2522,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2512,11 +2531,11 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="T11">
+      <c r="V11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:22">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2528,7 +2547,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2537,11 +2556,11 @@
         <v>108</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="T12">
+      <c r="V12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:22">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2553,7 +2572,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2562,11 +2581,11 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="T13">
+      <c r="V13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:22">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2578,7 +2597,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2587,11 +2606,11 @@
         <v>36</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="T14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20">
+      <c r="V14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2603,7 +2622,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2612,11 +2631,11 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="T15">
+      <c r="V15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:22">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2628,7 +2647,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2637,11 +2656,11 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="T16">
+      <c r="V16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="10:17">
+    <row r="17" spans="10:19">
       <c r="J17" t="str">
         <f>C8</f>
         <v>Trd_electricity import</v>
@@ -2655,8 +2674,14 @@
       <c r="Q17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="10:17">
+      <c r="R17">
+        <v>1000</v>
+      </c>
+      <c r="S17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="10:19">
       <c r="J18" t="str">
         <f>C9</f>
         <v>Trd_electricity export</v>
@@ -2669,6 +2694,12 @@
       </c>
       <c r="Q18">
         <v>3</v>
+      </c>
+      <c r="R18">
+        <v>1000</v>
+      </c>
+      <c r="S18">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2732,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.05" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -2713,10 +2744,10 @@
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
@@ -2724,10 +2755,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>9</v>
@@ -2736,10 +2767,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J3" s="29" t="s">
         <v>2</v>
@@ -2748,13 +2779,13 @@
         <v>3</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2762,13 +2793,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>10</v>
@@ -2777,10 +2808,10 @@
         <v>14</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>19</v>
@@ -2796,13 +2827,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>10</v>
@@ -2811,10 +2842,10 @@
         <v>14</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>19</v>
@@ -2830,13 +2861,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>116</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>113</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>10</v>
@@ -2845,10 +2876,10 @@
         <v>14</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="30" t="s">
         <v>19</v>
@@ -2872,7 +2903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD6D8AA-F8A9-4BBE-94C7-C767CA3BCC03}">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
@@ -2900,7 +2933,7 @@
   <sheetData>
     <row r="2" spans="2:23">
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2912,42 +2945,42 @@
     </row>
     <row r="3" spans="2:23">
       <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="5" t="s">
@@ -2958,13 +2991,13 @@
     </row>
     <row r="5" spans="2:23">
       <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5" t="s">
@@ -2986,7 +3019,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -3009,10 +3042,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>11</v>
@@ -3022,16 +3055,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="N9" s="6">
         <f>J35</f>
@@ -3065,24 +3098,24 @@
         <v>3</v>
       </c>
       <c r="V9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" t="s">
         <v>60</v>
-      </c>
-      <c r="W9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:23">
       <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
@@ -3092,13 +3125,13 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>19</v>
@@ -3128,13 +3161,13 @@
     <row r="11" spans="2:23">
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>10</v>
@@ -3144,13 +3177,13 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>19</v>
@@ -3182,13 +3215,13 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="7" t="s">
@@ -3215,10 +3248,10 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -3256,10 +3289,10 @@
     </row>
     <row r="14" spans="2:23">
       <c r="I14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="4">
         <f>J44</f>
@@ -3292,10 +3325,10 @@
     </row>
     <row r="15" spans="2:23">
       <c r="I15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M15" t="s">
         <v>18</v>
@@ -3312,10 +3345,10 @@
     </row>
     <row r="16" spans="2:23">
       <c r="I16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N16" s="9">
         <v>31.536000000000001</v>
@@ -3329,10 +3362,10 @@
     </row>
     <row r="17" spans="9:23">
       <c r="I17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N17" s="4">
         <v>0.85</v>
@@ -3346,13 +3379,13 @@
     </row>
     <row r="18" spans="9:23">
       <c r="I18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>19</v>
@@ -3381,13 +3414,13 @@
     </row>
     <row r="19" spans="9:23">
       <c r="I19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" t="s">
         <v>68</v>
-      </c>
-      <c r="K19" t="s">
-        <v>69</v>
       </c>
       <c r="L19" t="s">
         <v>19</v>
@@ -3412,13 +3445,13 @@
     </row>
     <row r="20" spans="9:23">
       <c r="I20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -3435,10 +3468,10 @@
     </row>
     <row r="21" spans="9:23">
       <c r="I21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N21" s="4">
         <f>J49</f>
@@ -3471,10 +3504,10 @@
     </row>
     <row r="22" spans="9:23">
       <c r="I22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N22" s="4">
         <f>J53</f>
@@ -3507,10 +3540,10 @@
     </row>
     <row r="23" spans="9:23">
       <c r="I23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M23" t="s">
         <v>18</v>
@@ -3527,10 +3560,10 @@
     </row>
     <row r="24" spans="9:23">
       <c r="I24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N24" s="9">
         <v>31.536000000000001</v>
@@ -3544,10 +3577,10 @@
     </row>
     <row r="25" spans="9:23">
       <c r="I25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N25" s="4">
         <v>0.85</v>
@@ -3561,7 +3594,7 @@
     </row>
     <row r="31" spans="9:23" ht="15.75">
       <c r="I31" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -3573,7 +3606,7 @@
     </row>
     <row r="32" spans="9:23" ht="15.75">
       <c r="I32" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -3595,7 +3628,7 @@
     </row>
     <row r="34" spans="9:16" ht="15.75">
       <c r="I34" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -3631,7 +3664,7 @@
     </row>
     <row r="36" spans="9:16" ht="15.75">
       <c r="I36" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
@@ -3643,7 +3676,7 @@
     </row>
     <row r="37" spans="9:16" ht="15.75">
       <c r="I37" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
@@ -3655,7 +3688,7 @@
     </row>
     <row r="38" spans="9:16" ht="15.75">
       <c r="I38" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J38" s="16">
         <v>1363</v>
@@ -3681,7 +3714,7 @@
     </row>
     <row r="39" spans="9:16" ht="15.75">
       <c r="I39" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J39" s="16">
         <v>1363</v>
@@ -3707,7 +3740,7 @@
     </row>
     <row r="40" spans="9:16" ht="15.75">
       <c r="I40" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J40" s="16">
         <v>1363</v>
@@ -3733,7 +3766,7 @@
     </row>
     <row r="41" spans="9:16" ht="15.75">
       <c r="I41" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
@@ -3745,7 +3778,7 @@
     </row>
     <row r="42" spans="9:16" ht="15.75">
       <c r="I42" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J42" s="18">
         <v>34</v>
@@ -3771,7 +3804,7 @@
     </row>
     <row r="43" spans="9:16" ht="15.75">
       <c r="I43" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J43" s="18">
         <v>34</v>
@@ -3797,7 +3830,7 @@
     </row>
     <row r="44" spans="9:16" ht="15.75">
       <c r="I44" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J44" s="18">
         <v>34</v>
@@ -3823,7 +3856,7 @@
     </row>
     <row r="45" spans="9:16" ht="15.75">
       <c r="I45" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
@@ -3835,7 +3868,7 @@
     </row>
     <row r="46" spans="9:16" ht="15.75">
       <c r="I46" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
@@ -3847,7 +3880,7 @@
     </row>
     <row r="47" spans="9:16" ht="15.75">
       <c r="I47" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J47" s="16">
         <v>2470</v>
@@ -3873,7 +3906,7 @@
     </row>
     <row r="48" spans="9:16" ht="15.75">
       <c r="I48" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J48" s="16">
         <v>2470</v>
@@ -3899,7 +3932,7 @@
     </row>
     <row r="49" spans="9:16" ht="15.75">
       <c r="I49" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J49" s="16">
         <v>2470</v>
@@ -3925,7 +3958,7 @@
     </row>
     <row r="50" spans="9:16" ht="15.75">
       <c r="I50" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
@@ -3937,7 +3970,7 @@
     </row>
     <row r="51" spans="9:16" ht="15.75">
       <c r="I51" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J51" s="18">
         <v>62</v>
@@ -3963,7 +3996,7 @@
     </row>
     <row r="52" spans="9:16" ht="15.75">
       <c r="I52" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J52" s="18">
         <v>62</v>
@@ -3989,7 +4022,7 @@
     </row>
     <row r="53" spans="9:16" ht="15.75">
       <c r="I53" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J53" s="18">
         <v>62</v>
@@ -4025,7 +4058,7 @@
     </row>
     <row r="55" spans="9:16" ht="15.75">
       <c r="I55" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J55" s="11">
         <v>0.85</v>
@@ -4039,7 +4072,7 @@
     </row>
     <row r="56" spans="9:16" ht="15.75">
       <c r="I56" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
@@ -4051,7 +4084,7 @@
     </row>
     <row r="57" spans="9:16" ht="15.75">
       <c r="I57" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
@@ -4112,7 +4145,7 @@
   <dimension ref="B3:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4149,7 +4182,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -4182,16 +4215,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
         <v>89</v>
-      </c>
-      <c r="H4" t="s">
-        <v>90</v>
       </c>
       <c r="I4">
         <v>2030</v>
@@ -4200,22 +4233,22 @@
         <v>0</v>
       </c>
       <c r="K4" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="M4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" s="23" t="s">
+      <c r="P4" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="Q4" s="23"/>
       <c r="R4" s="23" t="s">
@@ -4228,30 +4261,30 @@
         <v>7</v>
       </c>
       <c r="U4" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="V4" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="W4" s="23" t="s">
         <v>11</v>
       </c>
       <c r="X4" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="Y4" s="23" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="5" spans="2:25">
-      <c r="B5" s="23" t="s">
-        <v>98</v>
+      <c r="B5" t="s">
+        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="23">
         <v>0.90249999999999997</v>
@@ -4274,14 +4307,14 @@
       </c>
       <c r="Q5" s="23"/>
       <c r="R5" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S5" s="23" t="str">
         <f>B5</f>
-        <v>EV_Battery</v>
+        <v>ev_battery</v>
       </c>
       <c r="T5" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U5" s="23" t="s">
         <v>21</v>
@@ -4298,7 +4331,7 @@
     <row r="6" spans="2:25">
       <c r="B6" s="23"/>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="24">
@@ -4321,10 +4354,10 @@
     <row r="7" spans="2:25">
       <c r="B7" s="23"/>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -4354,7 +4387,7 @@
         <v>AuxStoIN</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4384,7 +4417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBD5B3D-799E-4002-8504-3F575121DCEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0176623-11FA-4CEE-BDDF-06E90D4CB949}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4408,7 +4441,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="22.05" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -4420,62 +4453,62 @@
     </row>
     <row r="2" spans="1:16" ht="14.65" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="B3" s="29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>10</v>
@@ -4484,16 +4517,16 @@
         <v>21</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H4" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>128</v>
-      </c>
       <c r="L4" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M4" s="32">
         <v>0.57825000000000004</v>
@@ -4510,13 +4543,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>10</v>
@@ -4525,16 +4558,16 @@
         <v>21</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M5" s="33">
         <v>2.2499999999999998E-3</v>
@@ -4551,13 +4584,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>10</v>
@@ -4566,16 +4599,16 @@
         <v>21</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M6" s="32">
         <v>4.1909999999999998</v>
@@ -4592,13 +4625,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>10</v>
@@ -4607,16 +4640,16 @@
         <v>21</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M7" s="33">
         <v>3.3487499999999999</v>
@@ -4633,13 +4666,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="B8" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>10</v>
@@ -4648,16 +4681,16 @@
         <v>21</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M8" s="32">
         <v>0.72450000000000003</v>
@@ -4674,13 +4707,13 @@
     </row>
     <row r="9" spans="1:16">
       <c r="B9" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>10</v>
@@ -4689,16 +4722,16 @@
         <v>21</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M9" s="33">
         <v>15.40875</v>
@@ -4715,13 +4748,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="B10" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>10</v>
@@ -4730,16 +4763,16 @@
         <v>21</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M10" s="32">
         <v>15.874499999999999</v>
@@ -4756,13 +4789,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>10</v>
@@ -4771,16 +4804,16 @@
         <v>21</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M11" s="33">
         <v>14.19075</v>
@@ -4797,13 +4830,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="B12" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>10</v>
@@ -4812,16 +4845,16 @@
         <v>21</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M12" s="32">
         <v>14.415749999999999</v>
@@ -4838,13 +4871,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="B13" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>10</v>
@@ -4853,16 +4886,16 @@
         <v>21</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M13" s="33">
         <v>11.5905</v>
@@ -4879,13 +4912,13 @@
     </row>
     <row r="14" spans="1:16">
       <c r="B14" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>10</v>
@@ -4894,16 +4927,16 @@
         <v>21</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M14" s="32">
         <v>42.606000000000002</v>
@@ -4920,13 +4953,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>10</v>
@@ -4935,16 +4968,16 @@
         <v>21</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M15" s="33">
         <v>35.90325</v>
@@ -4961,13 +4994,13 @@
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>10</v>
@@ -4976,16 +5009,16 @@
         <v>21</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M16" s="32">
         <v>38.085000000000001</v>
@@ -5002,13 +5035,13 @@
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>10</v>
@@ -5017,16 +5050,16 @@
         <v>21</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M17" s="33">
         <v>40.344749999999998</v>
@@ -5043,13 +5076,13 @@
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>10</v>
@@ -5058,16 +5091,16 @@
         <v>21</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M18" s="32">
         <v>49.425750000000001</v>
@@ -5084,13 +5117,13 @@
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>10</v>
@@ -5099,16 +5132,16 @@
         <v>21</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M19" s="33">
         <v>58.869750000000003</v>
@@ -5125,13 +5158,13 @@
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>10</v>
@@ -5140,16 +5173,16 @@
         <v>21</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M20" s="32">
         <v>59.628749999999997</v>
@@ -5166,13 +5199,13 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>10</v>
@@ -5181,16 +5214,16 @@
         <v>21</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M21" s="33">
         <v>54.113250000000001</v>
@@ -5207,13 +5240,13 @@
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>10</v>
@@ -5222,16 +5255,16 @@
         <v>21</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M22" s="32">
         <v>56.13</v>
@@ -5248,13 +5281,13 @@
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>10</v>
@@ -5263,16 +5296,16 @@
         <v>21</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M23" s="33">
         <v>56.07</v>
@@ -5289,13 +5322,13 @@
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>10</v>
@@ -5304,16 +5337,16 @@
         <v>21</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M24" s="32">
         <v>0.99</v>
@@ -5330,13 +5363,13 @@
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>10</v>
@@ -5345,16 +5378,16 @@
         <v>21</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M25" s="33">
         <v>0.59325000000000006</v>
@@ -5371,13 +5404,13 @@
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>10</v>
@@ -5386,16 +5419,16 @@
         <v>21</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M26" s="32">
         <v>3.3555000000000001</v>
@@ -5412,13 +5445,13 @@
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>10</v>
@@ -5427,16 +5460,16 @@
         <v>21</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M27" s="33">
         <v>3.8580000000000001</v>
@@ -5453,13 +5486,13 @@
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>10</v>
@@ -5468,16 +5501,16 @@
         <v>21</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M28" s="32">
         <v>3.0285000000000002</v>
@@ -5494,13 +5527,13 @@
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>10</v>
@@ -5509,16 +5542,16 @@
         <v>21</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M29" s="33">
         <v>6.3E-2</v>
@@ -5535,13 +5568,13 @@
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>10</v>
@@ -5550,16 +5583,16 @@
         <v>21</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M30" s="32">
         <v>4.2750000000000003E-2</v>
@@ -5571,18 +5604,18 @@
         <v>64.217124244118722</v>
       </c>
       <c r="P30" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>10</v>
@@ -5591,16 +5624,16 @@
         <v>21</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M31" s="33">
         <v>4.2750000000000003E-2</v>
@@ -5612,18 +5645,18 @@
         <v>64.217124244118722</v>
       </c>
       <c r="P31" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>10</v>
@@ -5632,16 +5665,16 @@
         <v>21</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L32" s="30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M32" s="32">
         <v>4.2750000000000003E-2</v>
@@ -5666,7 +5699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBE7B01-01BC-424A-8D05-7B9FCD15ABB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96730EC-B64D-41ED-BC93-CB2221D1D69A}">
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5690,7 +5723,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="22.05" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -5702,62 +5735,62 @@
     </row>
     <row r="2" spans="1:16" ht="14.65" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="B3" s="29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>10</v>
@@ -5766,16 +5799,16 @@
         <v>21</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M4" s="32">
         <v>7.4249999999999997E-2</v>
@@ -5792,13 +5825,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>10</v>
@@ -5807,16 +5840,16 @@
         <v>21</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M5" s="33">
         <v>1.2E-2</v>
@@ -5833,13 +5866,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>10</v>
@@ -5848,16 +5881,16 @@
         <v>21</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M6" s="32">
         <v>1.7999999999999999E-2</v>
@@ -5874,13 +5907,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>10</v>
@@ -5889,39 +5922,39 @@
         <v>21</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M7" s="33">
-        <v>2.4990000000000001</v>
+        <v>1.5E-3</v>
       </c>
       <c r="N7" s="36">
         <v>0.32200000000000001</v>
       </c>
       <c r="O7" s="37">
-        <v>39.630069093581724</v>
+        <v>31.372355844942916</v>
       </c>
       <c r="P7" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="B8" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>10</v>
@@ -5930,39 +5963,39 @@
         <v>21</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M8" s="32">
-        <v>1.5E-3</v>
+        <v>2.4990000000000001</v>
       </c>
       <c r="N8" s="34">
         <v>0.32200000000000001</v>
       </c>
       <c r="O8" s="35">
-        <v>31.372355844942916</v>
+        <v>39.630069093581724</v>
       </c>
       <c r="P8" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="B9" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>10</v>
@@ -5971,16 +6004,16 @@
         <v>21</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M9" s="33">
         <v>3.5249999999999997E-2</v>
@@ -5997,13 +6030,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="B10" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>10</v>
@@ -6012,16 +6045,16 @@
         <v>21</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M10" s="32">
         <v>3.9337499999999999</v>
@@ -6038,13 +6071,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>10</v>
@@ -6053,16 +6086,16 @@
         <v>21</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M11" s="33">
         <v>5.5500000000000001E-2</v>
@@ -6079,13 +6112,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="B12" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>10</v>
@@ -6094,16 +6127,16 @@
         <v>21</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M12" s="32">
         <v>0.47775000000000001</v>
@@ -6120,13 +6153,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="B13" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>10</v>
@@ -6135,16 +6168,16 @@
         <v>21</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M13" s="33">
         <v>0.16125</v>
@@ -6161,13 +6194,13 @@
     </row>
     <row r="14" spans="1:16">
       <c r="B14" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>10</v>
@@ -6176,16 +6209,16 @@
         <v>21</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M14" s="32">
         <v>6.6360000000000001</v>
@@ -6197,18 +6230,18 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P14" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>10</v>
@@ -6217,16 +6250,16 @@
         <v>21</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M15" s="33">
         <v>6.6360000000000001</v>
@@ -6238,18 +6271,18 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P15" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>10</v>
@@ -6258,16 +6291,16 @@
         <v>21</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M16" s="32">
         <v>6.6360000000000001</v>
@@ -6284,13 +6317,13 @@
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>10</v>
@@ -6299,16 +6332,16 @@
         <v>21</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M17" s="33">
         <v>3.0907499999999999</v>
@@ -6325,13 +6358,13 @@
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>10</v>
@@ -6340,16 +6373,16 @@
         <v>21</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M18" s="32">
         <v>6.0000000000000001E-3</v>
@@ -6366,13 +6399,13 @@
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>10</v>
@@ -6381,16 +6414,16 @@
         <v>21</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M19" s="33">
         <v>1.3492500000000001</v>
@@ -6407,13 +6440,13 @@
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>10</v>
@@ -6422,16 +6455,16 @@
         <v>21</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M20" s="32">
         <v>6.4192499999999999</v>
@@ -6448,13 +6481,13 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>10</v>
@@ -6463,16 +6496,16 @@
         <v>21</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M21" s="33">
         <v>4.725E-2</v>
@@ -6489,13 +6522,13 @@
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>10</v>
@@ -6504,16 +6537,16 @@
         <v>21</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M22" s="32">
         <v>0.10575</v>
@@ -6530,13 +6563,13 @@
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>10</v>
@@ -6545,16 +6578,16 @@
         <v>21</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M23" s="33">
         <v>0.12</v>
@@ -6571,13 +6604,13 @@
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>10</v>
@@ -6586,16 +6619,16 @@
         <v>21</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M24" s="32">
         <v>6.5407500000000001</v>
@@ -6607,18 +6640,18 @@
         <v>39.368264706413946</v>
       </c>
       <c r="P24" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>10</v>
@@ -6627,16 +6660,16 @@
         <v>21</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M25" s="33">
         <v>6.5407500000000001</v>
@@ -6648,18 +6681,18 @@
         <v>39.368264706413946</v>
       </c>
       <c r="P25" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>10</v>
@@ -6668,39 +6701,39 @@
         <v>21</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M26" s="32">
-        <v>4.4999999999999997E-3</v>
+        <v>3.2032500000000002</v>
       </c>
       <c r="N26" s="34">
         <v>0.245</v>
       </c>
       <c r="O26" s="35">
-        <v>107.03467623779731</v>
+        <v>42.969340484621256</v>
       </c>
       <c r="P26" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>10</v>
@@ -6709,39 +6742,39 @@
         <v>21</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M27" s="33">
-        <v>3.2032500000000002</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="N27" s="36">
         <v>0.245</v>
       </c>
       <c r="O27" s="37">
-        <v>42.969340484621256</v>
+        <v>107.03467623779731</v>
       </c>
       <c r="P27" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>10</v>
@@ -6750,16 +6783,16 @@
         <v>21</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M28" s="32">
         <v>1.38975</v>
@@ -6776,13 +6809,13 @@
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>10</v>
@@ -6791,16 +6824,16 @@
         <v>21</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M29" s="33">
         <v>13.6965</v>
@@ -6817,13 +6850,13 @@
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>10</v>
@@ -6832,16 +6865,16 @@
         <v>21</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M30" s="32">
         <v>0.71250000000000002</v>
@@ -6858,13 +6891,13 @@
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>10</v>
@@ -6873,16 +6906,16 @@
         <v>21</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M31" s="33">
         <v>0.17774999999999999</v>
@@ -6899,13 +6932,13 @@
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>10</v>
@@ -6914,16 +6947,16 @@
         <v>21</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L32" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M32" s="32">
         <v>2.0790000000000002</v>
@@ -6940,13 +6973,13 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>10</v>
@@ -6955,16 +6988,16 @@
         <v>21</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K33" s="31" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M33" s="33">
         <v>20.207999999999998</v>
@@ -6981,13 +7014,13 @@
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>10</v>
@@ -6996,16 +7029,16 @@
         <v>21</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L34" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M34" s="32">
         <v>7.8765000000000001</v>
@@ -7022,13 +7055,13 @@
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>10</v>
@@ -7037,16 +7070,16 @@
         <v>21</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K35" s="31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M35" s="33">
         <v>25.736249999999998</v>
@@ -7063,13 +7096,13 @@
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>10</v>
@@ -7078,16 +7111,16 @@
         <v>21</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L36" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M36" s="32">
         <v>4.7512499999999998</v>
@@ -7104,13 +7137,13 @@
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>10</v>
@@ -7119,16 +7152,16 @@
         <v>21</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L37" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M37" s="33">
         <v>33.305999999999997</v>
@@ -7145,13 +7178,13 @@
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>10</v>
@@ -7160,16 +7193,16 @@
         <v>21</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L38" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M38" s="32">
         <v>4.1609999999999996</v>
@@ -7186,13 +7219,13 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>10</v>
@@ -7201,16 +7234,16 @@
         <v>21</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L39" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M39" s="33">
         <v>22.221</v>
@@ -7227,13 +7260,13 @@
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>10</v>
@@ -7242,16 +7275,16 @@
         <v>21</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K40" s="30" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L40" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M40" s="32">
         <v>14.1615</v>
@@ -7268,13 +7301,13 @@
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>10</v>
@@ -7283,16 +7316,16 @@
         <v>21</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M41" s="33">
         <v>19.6995</v>
@@ -7309,13 +7342,13 @@
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E42" s="30" t="s">
         <v>10</v>
@@ -7324,16 +7357,16 @@
         <v>21</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K42" s="30" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L42" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M42" s="32">
         <v>6.5677500000000002</v>
@@ -7350,13 +7383,13 @@
     </row>
     <row r="43" spans="2:16">
       <c r="B43" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>10</v>
@@ -7365,16 +7398,16 @@
         <v>21</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H43" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K43" s="31" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L43" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M43" s="33">
         <v>16.9575</v>
@@ -7391,13 +7424,13 @@
     </row>
     <row r="44" spans="2:16">
       <c r="B44" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>10</v>
@@ -7406,16 +7439,16 @@
         <v>21</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M44" s="32">
         <v>4.7212500000000004</v>
@@ -7432,13 +7465,13 @@
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>10</v>
@@ -7447,16 +7480,16 @@
         <v>21</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M45" s="33">
         <v>1.4670000000000001</v>
@@ -7473,13 +7506,13 @@
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E46" s="30" t="s">
         <v>10</v>
@@ -7488,16 +7521,16 @@
         <v>21</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K46" s="30" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M46" s="32">
         <v>20.505749999999999</v>
@@ -7514,13 +7547,13 @@
     </row>
     <row r="47" spans="2:16">
       <c r="B47" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>10</v>
@@ -7529,16 +7562,16 @@
         <v>21</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L47" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M47" s="33">
         <v>18.340499999999999</v>
@@ -7555,13 +7588,13 @@
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>10</v>
@@ -7570,16 +7603,16 @@
         <v>21</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L48" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M48" s="32">
         <v>27.731249999999999</v>
@@ -7596,13 +7629,13 @@
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>10</v>
@@ -7611,16 +7644,16 @@
         <v>21</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K49" s="31" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L49" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M49" s="33">
         <v>21.8565</v>
@@ -7637,13 +7670,13 @@
     </row>
     <row r="50" spans="2:16">
       <c r="B50" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>10</v>
@@ -7652,16 +7685,16 @@
         <v>21</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K50" s="30" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L50" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M50" s="32">
         <v>8.2927499999999998</v>
@@ -7678,13 +7711,13 @@
     </row>
     <row r="51" spans="2:16">
       <c r="B51" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>10</v>
@@ -7693,16 +7726,16 @@
         <v>21</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K51" s="31" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L51" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M51" s="33">
         <v>24.696750000000002</v>
@@ -7719,13 +7752,13 @@
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>10</v>
@@ -7734,16 +7767,16 @@
         <v>21</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K52" s="30" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M52" s="32">
         <v>22.791</v>
@@ -7760,13 +7793,13 @@
     </row>
     <row r="53" spans="2:16">
       <c r="B53" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>10</v>
@@ -7775,16 +7808,16 @@
         <v>21</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K53" s="31" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L53" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M53" s="33">
         <v>2.1705000000000001</v>
@@ -7801,13 +7834,13 @@
     </row>
     <row r="54" spans="2:16">
       <c r="B54" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>10</v>
@@ -7816,16 +7849,16 @@
         <v>21</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K54" s="30" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L54" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M54" s="32">
         <v>20.223749999999999</v>
@@ -7842,13 +7875,13 @@
     </row>
     <row r="55" spans="2:16">
       <c r="B55" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E55" s="31" t="s">
         <v>10</v>
@@ -7857,16 +7890,16 @@
         <v>21</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K55" s="31" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L55" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M55" s="33">
         <v>10.263</v>
@@ -7883,13 +7916,13 @@
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E56" s="30" t="s">
         <v>10</v>
@@ -7898,16 +7931,16 @@
         <v>21</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K56" s="30" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L56" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M56" s="32">
         <v>13.010999999999999</v>
@@ -7924,13 +7957,13 @@
     </row>
     <row r="57" spans="2:16">
       <c r="B57" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>10</v>
@@ -7939,16 +7972,16 @@
         <v>21</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M57" s="33">
         <v>7.9312500000000004</v>
@@ -7965,13 +7998,13 @@
     </row>
     <row r="58" spans="2:16">
       <c r="B58" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>10</v>
@@ -7980,16 +8013,16 @@
         <v>21</v>
       </c>
       <c r="G58" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K58" s="30" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L58" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M58" s="32">
         <v>13.25325</v>
@@ -8006,13 +8039,13 @@
     </row>
     <row r="59" spans="2:16">
       <c r="B59" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E59" s="31" t="s">
         <v>10</v>
@@ -8021,16 +8054,16 @@
         <v>21</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K59" s="31" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L59" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M59" s="33">
         <v>11.34075</v>
@@ -8047,13 +8080,13 @@
     </row>
     <row r="60" spans="2:16">
       <c r="B60" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>10</v>
@@ -8062,16 +8095,16 @@
         <v>21</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K60" s="30" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L60" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M60" s="32">
         <v>21.154499999999999</v>
@@ -8088,13 +8121,13 @@
     </row>
     <row r="61" spans="2:16">
       <c r="B61" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E61" s="31" t="s">
         <v>10</v>
@@ -8103,16 +8136,16 @@
         <v>21</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K61" s="31" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L61" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M61" s="33">
         <v>12.579000000000001</v>
@@ -8129,13 +8162,13 @@
     </row>
     <row r="62" spans="2:16">
       <c r="B62" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>10</v>
@@ -8144,16 +8177,16 @@
         <v>21</v>
       </c>
       <c r="G62" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K62" s="30" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L62" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M62" s="32">
         <v>22.513500000000001</v>
@@ -8170,13 +8203,13 @@
     </row>
     <row r="63" spans="2:16">
       <c r="B63" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E63" s="31" t="s">
         <v>10</v>
@@ -8185,16 +8218,16 @@
         <v>21</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K63" s="31" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L63" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M63" s="33">
         <v>13.02375</v>
@@ -8211,13 +8244,13 @@
     </row>
     <row r="64" spans="2:16">
       <c r="B64" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>10</v>
@@ -8226,16 +8259,16 @@
         <v>21</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K64" s="30" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L64" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M64" s="32">
         <v>10.7925</v>
@@ -8252,13 +8285,13 @@
     </row>
     <row r="65" spans="2:16">
       <c r="B65" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E65" s="31" t="s">
         <v>10</v>
@@ -8267,16 +8300,16 @@
         <v>21</v>
       </c>
       <c r="G65" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K65" s="31" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L65" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M65" s="33">
         <v>12.669</v>
@@ -8293,13 +8326,13 @@
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>10</v>
@@ -8308,16 +8341,16 @@
         <v>21</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K66" s="30" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L66" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M66" s="32">
         <v>32.690249999999999</v>
@@ -8334,13 +8367,13 @@
     </row>
     <row r="67" spans="2:16">
       <c r="B67" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E67" s="31" t="s">
         <v>10</v>
@@ -8349,16 +8382,16 @@
         <v>21</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H67" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K67" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L67" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M67" s="33">
         <v>5.7119999999999997</v>
@@ -8375,13 +8408,13 @@
     </row>
     <row r="68" spans="2:16">
       <c r="B68" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E68" s="30" t="s">
         <v>10</v>
@@ -8390,16 +8423,16 @@
         <v>21</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K68" s="30" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L68" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M68" s="32">
         <v>10.06875</v>
@@ -8416,13 +8449,13 @@
     </row>
     <row r="69" spans="2:16">
       <c r="B69" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E69" s="31" t="s">
         <v>10</v>
@@ -8431,16 +8464,16 @@
         <v>21</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H69" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K69" s="31" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L69" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M69" s="33">
         <v>28.60125</v>
@@ -8457,13 +8490,13 @@
     </row>
     <row r="70" spans="2:16">
       <c r="B70" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>10</v>
@@ -8472,16 +8505,16 @@
         <v>21</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K70" s="30" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L70" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M70" s="32">
         <v>4.3274999999999997</v>
@@ -8498,13 +8531,13 @@
     </row>
     <row r="71" spans="2:16">
       <c r="B71" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E71" s="31" t="s">
         <v>10</v>
@@ -8513,16 +8546,16 @@
         <v>21</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K71" s="31" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L71" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M71" s="33">
         <v>11.583</v>
@@ -8539,13 +8572,13 @@
     </row>
     <row r="72" spans="2:16">
       <c r="B72" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>10</v>
@@ -8554,16 +8587,16 @@
         <v>21</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K72" s="30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L72" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M72" s="32">
         <v>14.029500000000001</v>
@@ -8580,13 +8613,13 @@
     </row>
     <row r="73" spans="2:16">
       <c r="B73" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E73" s="31" t="s">
         <v>10</v>
@@ -8595,16 +8628,16 @@
         <v>21</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K73" s="31" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L73" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M73" s="33">
         <v>10.8345</v>
@@ -8621,13 +8654,13 @@
     </row>
     <row r="74" spans="2:16">
       <c r="B74" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>10</v>
@@ -8636,16 +8669,16 @@
         <v>21</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K74" s="30" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L74" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M74" s="32">
         <v>7.2930000000000001</v>
@@ -8662,13 +8695,13 @@
     </row>
     <row r="75" spans="2:16">
       <c r="B75" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E75" s="31" t="s">
         <v>10</v>
@@ -8677,16 +8710,16 @@
         <v>21</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H75" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K75" s="31" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L75" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M75" s="33">
         <v>7.45425</v>
@@ -8703,13 +8736,13 @@
     </row>
     <row r="76" spans="2:16">
       <c r="B76" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E76" s="30" t="s">
         <v>10</v>
@@ -8718,16 +8751,16 @@
         <v>21</v>
       </c>
       <c r="G76" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K76" s="30" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L76" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M76" s="32">
         <v>0.89775000000000005</v>
@@ -8744,13 +8777,13 @@
     </row>
     <row r="77" spans="2:16">
       <c r="B77" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E77" s="31" t="s">
         <v>10</v>
@@ -8759,16 +8792,16 @@
         <v>21</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H77" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K77" s="31" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L77" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M77" s="33">
         <v>3.4980000000000002</v>
@@ -8785,13 +8818,13 @@
     </row>
     <row r="78" spans="2:16">
       <c r="B78" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E78" s="30" t="s">
         <v>10</v>
@@ -8800,16 +8833,16 @@
         <v>21</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K78" s="30" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L78" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M78" s="32">
         <v>14.661</v>
@@ -8826,13 +8859,13 @@
     </row>
     <row r="79" spans="2:16">
       <c r="B79" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E79" s="31" t="s">
         <v>10</v>
@@ -8841,16 +8874,16 @@
         <v>21</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H79" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K79" s="31" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L79" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M79" s="33">
         <v>17.586749999999999</v>
@@ -8867,13 +8900,13 @@
     </row>
     <row r="80" spans="2:16">
       <c r="B80" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E80" s="30" t="s">
         <v>10</v>
@@ -8882,16 +8915,16 @@
         <v>21</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K80" s="30" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L80" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M80" s="32">
         <v>3.6150000000000002</v>
@@ -8908,13 +8941,13 @@
     </row>
     <row r="81" spans="2:16">
       <c r="B81" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E81" s="31" t="s">
         <v>10</v>
@@ -8923,16 +8956,16 @@
         <v>21</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K81" s="31" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L81" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M81" s="33">
         <v>7.8765000000000001</v>
@@ -8949,13 +8982,13 @@
     </row>
     <row r="82" spans="2:16">
       <c r="B82" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>10</v>
@@ -8964,16 +8997,16 @@
         <v>21</v>
       </c>
       <c r="G82" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K82" s="30" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L82" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M82" s="32">
         <v>9.98475</v>
@@ -8990,13 +9023,13 @@
     </row>
     <row r="83" spans="2:16">
       <c r="B83" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E83" s="31" t="s">
         <v>10</v>
@@ -9005,16 +9038,16 @@
         <v>21</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H83" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K83" s="31" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L83" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M83" s="33">
         <v>3.4394999999999998</v>
@@ -9031,13 +9064,13 @@
     </row>
     <row r="84" spans="2:16">
       <c r="B84" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>10</v>
@@ -9046,16 +9079,16 @@
         <v>21</v>
       </c>
       <c r="G84" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K84" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L84" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M84" s="32">
         <v>1.665</v>
@@ -9072,13 +9105,13 @@
     </row>
     <row r="85" spans="2:16">
       <c r="B85" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E85" s="31" t="s">
         <v>10</v>
@@ -9087,16 +9120,16 @@
         <v>21</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K85" s="31" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L85" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M85" s="33">
         <v>10.984500000000001</v>
@@ -9113,13 +9146,13 @@
     </row>
     <row r="86" spans="2:16">
       <c r="B86" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>10</v>
@@ -9128,16 +9161,16 @@
         <v>21</v>
       </c>
       <c r="G86" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K86" s="30" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L86" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M86" s="32">
         <v>3.2160000000000002</v>
@@ -9154,13 +9187,13 @@
     </row>
     <row r="87" spans="2:16">
       <c r="B87" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E87" s="31" t="s">
         <v>10</v>
@@ -9169,16 +9202,16 @@
         <v>21</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H87" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K87" s="31" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L87" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M87" s="33">
         <v>10.58325</v>
@@ -9195,13 +9228,13 @@
     </row>
     <row r="88" spans="2:16">
       <c r="B88" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E88" s="30" t="s">
         <v>10</v>
@@ -9210,16 +9243,16 @@
         <v>21</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K88" s="30" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L88" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M88" s="32">
         <v>6.1852499999999999</v>
@@ -9236,13 +9269,13 @@
     </row>
     <row r="89" spans="2:16">
       <c r="B89" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E89" s="31" t="s">
         <v>10</v>
@@ -9251,16 +9284,16 @@
         <v>21</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H89" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K89" s="31" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L89" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M89" s="33">
         <v>13.6395</v>
@@ -9277,13 +9310,13 @@
     </row>
     <row r="90" spans="2:16">
       <c r="B90" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E90" s="30" t="s">
         <v>10</v>
@@ -9292,16 +9325,16 @@
         <v>21</v>
       </c>
       <c r="G90" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K90" s="30" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L90" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M90" s="32">
         <v>14.3985</v>
@@ -9318,13 +9351,13 @@
     </row>
     <row r="91" spans="2:16">
       <c r="B91" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>10</v>
@@ -9333,16 +9366,16 @@
         <v>21</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H91" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K91" s="31" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L91" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M91" s="33">
         <v>2.6767500000000002</v>
@@ -9359,13 +9392,13 @@
     </row>
     <row r="92" spans="2:16">
       <c r="B92" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E92" s="30" t="s">
         <v>10</v>
@@ -9374,16 +9407,16 @@
         <v>21</v>
       </c>
       <c r="G92" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K92" s="30" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L92" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M92" s="32">
         <v>5.8964999999999996</v>
@@ -9400,13 +9433,13 @@
     </row>
     <row r="93" spans="2:16">
       <c r="B93" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E93" s="31" t="s">
         <v>10</v>
@@ -9415,16 +9448,16 @@
         <v>21</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H93" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K93" s="31" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L93" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M93" s="33">
         <v>0.03</v>
@@ -9441,13 +9474,13 @@
     </row>
     <row r="94" spans="2:16">
       <c r="B94" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E94" s="30" t="s">
         <v>10</v>
@@ -9456,16 +9489,16 @@
         <v>21</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K94" s="30" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L94" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M94" s="32">
         <v>0.43575000000000003</v>
@@ -9482,13 +9515,13 @@
     </row>
     <row r="95" spans="2:16">
       <c r="B95" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E95" s="31" t="s">
         <v>10</v>
@@ -9497,16 +9530,16 @@
         <v>21</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H95" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K95" s="31" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L95" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M95" s="33">
         <v>0.43575000000000003</v>
@@ -9523,13 +9556,13 @@
     </row>
     <row r="96" spans="2:16">
       <c r="B96" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E96" s="30" t="s">
         <v>10</v>
@@ -9538,16 +9571,16 @@
         <v>21</v>
       </c>
       <c r="G96" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K96" s="30" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L96" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M96" s="32">
         <v>7.5000000000000002E-4</v>
@@ -9564,13 +9597,13 @@
     </row>
     <row r="97" spans="2:16">
       <c r="B97" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E97" s="31" t="s">
         <v>10</v>
@@ -9579,16 +9612,16 @@
         <v>21</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H97" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K97" s="31" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L97" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M97" s="33">
         <v>2.1000000000000001E-2</v>
@@ -9605,13 +9638,13 @@
     </row>
     <row r="98" spans="2:16">
       <c r="B98" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>10</v>
@@ -9620,16 +9653,16 @@
         <v>21</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K98" s="30" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L98" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M98" s="32">
         <v>5.1749999999999997E-2</v>
@@ -9646,13 +9679,13 @@
     </row>
     <row r="99" spans="2:16">
       <c r="B99" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E99" s="31" t="s">
         <v>10</v>
@@ -9661,16 +9694,16 @@
         <v>21</v>
       </c>
       <c r="G99" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H99" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K99" s="31" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L99" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M99" s="33">
         <v>5.1749999999999997E-2</v>
@@ -9695,7 +9728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A6DFD6-0928-458F-89A1-5F6D45A6FEA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C681A1-1C75-476F-A3B8-2D2680C6C1FA}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9715,7 +9748,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="22.05" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -9727,21 +9760,21 @@
     </row>
     <row r="2" spans="1:17" ht="14.65" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="B3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E3" s="29">
         <v>2023</v>
@@ -9753,36 +9786,36 @@
         <v>2050</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="B4" s="30" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>19</v>
@@ -9797,13 +9830,13 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="30" t="s">
@@ -9813,18 +9846,18 @@
         <v>21</v>
       </c>
       <c r="P4" s="30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="31" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>19</v>
@@ -9839,13 +9872,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M5" s="31"/>
       <c r="N5" s="31" t="s">
@@ -9855,18 +9888,18 @@
         <v>21</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="30" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>19</v>
@@ -9881,13 +9914,13 @@
         <v>5100</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30" t="s">
@@ -9897,18 +9930,18 @@
         <v>21</v>
       </c>
       <c r="P6" s="30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="31" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>19</v>
@@ -9923,13 +9956,13 @@
         <v>175</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M7" s="31"/>
       <c r="N7" s="31" t="s">
@@ -9939,18 +9972,18 @@
         <v>21</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="B8" s="30" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>19</v>
@@ -9965,13 +9998,13 @@
         <v>3</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M8" s="30"/>
       <c r="N8" s="30" t="s">
@@ -9981,18 +10014,18 @@
         <v>21</v>
       </c>
       <c r="P8" s="30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q8" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" s="31" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>19</v>
@@ -10007,13 +10040,13 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M9" s="31"/>
       <c r="N9" s="31" t="s">
@@ -10023,18 +10056,18 @@
         <v>21</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="30" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>19</v>
@@ -10049,13 +10082,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="30" t="s">
@@ -10065,18 +10098,18 @@
         <v>21</v>
       </c>
       <c r="P10" s="30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="31" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>19</v>
@@ -10091,13 +10124,13 @@
         <v>2300</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="31" t="s">
@@ -10107,18 +10140,18 @@
         <v>21</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="30" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>19</v>
@@ -10133,13 +10166,13 @@
         <v>80</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12" s="30" t="s">
@@ -10149,18 +10182,18 @@
         <v>21</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="31" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>19</v>
@@ -10175,13 +10208,13 @@
         <v>3</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M13" s="31"/>
       <c r="N13" s="31" t="s">
@@ -10191,18 +10224,18 @@
         <v>21</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="30" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>19</v>
@@ -10217,13 +10250,13 @@
         <v>0.61</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M14" s="30"/>
       <c r="N14" s="30" t="s">
@@ -10233,18 +10266,18 @@
         <v>21</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q14" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="31" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>19</v>
@@ -10259,13 +10292,13 @@
         <v>1000</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M15" s="31"/>
       <c r="N15" s="31" t="s">
@@ -10275,18 +10308,18 @@
         <v>21</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="B16" s="30" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>19</v>
@@ -10301,13 +10334,13 @@
         <v>25</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M16" s="30"/>
       <c r="N16" s="30" t="s">
@@ -10317,18 +10350,18 @@
         <v>21</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="31" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>19</v>
@@ -10343,13 +10376,13 @@
         <v>0.54</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M17" s="31"/>
       <c r="N17" s="31" t="s">
@@ -10359,18 +10392,18 @@
         <v>21</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="30" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>19</v>
@@ -10385,13 +10418,13 @@
         <v>2400</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="30" t="s">
@@ -10401,18 +10434,18 @@
         <v>21</v>
       </c>
       <c r="P18" s="30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q18" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="31" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>19</v>
@@ -10427,13 +10460,13 @@
         <v>60</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M19" s="31"/>
       <c r="N19" s="31" t="s">
@@ -10443,18 +10476,18 @@
         <v>21</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="30" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>19</v>
@@ -10469,13 +10502,13 @@
         <v>0.39</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="30" t="s">
@@ -10485,18 +10518,18 @@
         <v>21</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="31" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>19</v>
@@ -10511,15 +10544,15 @@
         <v>4350</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="30" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>19</v>
@@ -10534,15 +10567,15 @@
         <v>130</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="31" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>19</v>
@@ -10557,15 +10590,15 @@
         <v>0.42</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="30" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>19</v>
@@ -10580,15 +10613,15 @@
         <v>500</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="31" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>19</v>
@@ -10603,15 +10636,15 @@
         <v>20</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="30" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>19</v>
@@ -10626,15 +10659,15 @@
         <v>1</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="31" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>19</v>
@@ -10649,15 +10682,15 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="30" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>19</v>
@@ -10672,15 +10705,15 @@
         <v>2650</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="31" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>19</v>
@@ -10695,15 +10728,15 @@
         <v>65</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="30" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>19</v>
@@ -10718,15 +10751,15 @@
         <v>4</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="31" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>19</v>
@@ -10741,15 +10774,15 @@
         <v>0.5</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="30" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>19</v>
@@ -10764,15 +10797,15 @@
         <v>2300</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="31" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>19</v>
@@ -10787,15 +10820,15 @@
         <v>80</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="30" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>19</v>
@@ -10810,15 +10843,15 @@
         <v>0.43</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="31" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>19</v>
@@ -10833,15 +10866,15 @@
         <v>5100</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="30" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>19</v>
@@ -10856,15 +10889,15 @@
         <v>180</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="31" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>19</v>
@@ -10879,15 +10912,15 @@
         <v>0.33</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="30" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>19</v>
@@ -10902,15 +10935,15 @@
         <v>4500</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="31" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>19</v>
@@ -10925,15 +10958,15 @@
         <v>160</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="30" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>19</v>
@@ -10948,15 +10981,15 @@
         <v>0.39</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="31" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>19</v>
@@ -10971,15 +11004,15 @@
         <v>5100</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="30" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>19</v>
@@ -10994,15 +11027,15 @@
         <v>155</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="31" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>19</v>
@@ -11017,15 +11050,15 @@
         <v>1</v>
       </c>
       <c r="H43" s="31" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="30" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>19</v>
@@ -11040,15 +11073,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="31" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>19</v>
@@ -11063,15 +11096,15 @@
         <v>340</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="30" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>19</v>
@@ -11086,15 +11119,15 @@
         <v>10</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="31" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>19</v>
@@ -11109,15 +11142,15 @@
         <v>1.5</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="30" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>19</v>
@@ -11132,15 +11165,15 @@
         <v>0.39</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="31" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>19</v>
@@ -11155,15 +11188,15 @@
         <v>1700</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="30" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>19</v>
@@ -11178,15 +11211,15 @@
         <v>45</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="31" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="31" t="s">
         <v>19</v>
@@ -11201,15 +11234,15 @@
         <v>0.43</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="30" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="30" t="s">
         <v>19</v>
@@ -11224,15 +11257,15 @@
         <v>2000</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="31" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="31" t="s">
         <v>19</v>
@@ -11247,15 +11280,15 @@
         <v>60</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="30" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>19</v>
@@ -11270,15 +11303,15 @@
         <v>0.48</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="31" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" s="31" t="s">
         <v>19</v>
@@ -11293,15 +11326,15 @@
         <v>2200</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="30" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>19</v>
@@ -11316,15 +11349,15 @@
         <v>65</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="31" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>19</v>
@@ -11339,15 +11372,15 @@
         <v>1</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="30" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="30" t="s">
         <v>19</v>
@@ -11362,15 +11395,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="31" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>19</v>
@@ -11385,15 +11418,15 @@
         <v>1660</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="30" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="30" t="s">
         <v>19</v>
@@ -11408,15 +11441,15 @@
         <v>40</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="31" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" s="31" t="s">
         <v>19</v>
@@ -11431,15 +11464,15 @@
         <v>3</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="30" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" s="30" t="s">
         <v>19</v>
@@ -11454,15 +11487,15 @@
         <v>1</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="31" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" s="31" t="s">
         <v>19</v>
@@ -11477,15 +11510,15 @@
         <v>0.3</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="30" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>19</v>
@@ -11500,15 +11533,15 @@
         <v>1490</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="31" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" s="31" t="s">
         <v>19</v>
@@ -11523,15 +11556,15 @@
         <v>38</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="30" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>19</v>
@@ -11546,7 +11579,7 @@
         <v>1.5</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A369E1D-260E-4EFD-AB88-8A076F249475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1B5380E-97F3-431F-8A7D-6A807897D3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,18 +668,18 @@
     <t>solar resource -- CF class spv-ITA_13 -- cost class 2</t>
   </si>
   <si>
+    <t>e_spv-ITA_13_c4</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-ITA_13 -- cost class 4</t>
+  </si>
+  <si>
     <t>e_spv-ITA_13_c3</t>
   </si>
   <si>
     <t>solar resource -- CF class spv-ITA_13 -- cost class 3</t>
   </si>
   <si>
-    <t>e_spv-ITA_13_c4</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-ITA_13 -- cost class 4</t>
-  </si>
-  <si>
     <t>comm-out</t>
   </si>
   <si>
@@ -758,18 +758,18 @@
     <t>wind resource -- CF class won-ITA_29 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_29_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_29 -- cost class 4</t>
+  </si>
+  <si>
     <t>e_won-ITA_29_c5</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_29 -- cost class 5</t>
   </si>
   <si>
-    <t>e_won-ITA_29_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_29 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-ITA_29_c3</t>
   </si>
   <si>
@@ -830,18 +830,18 @@
     <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
   </si>
   <si>
+    <t>e_won-ITA_25_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 4</t>
+  </si>
+  <si>
     <t>e_won-ITA_25_c3</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_25_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-ITA_24_c2</t>
   </si>
   <si>
@@ -1232,6 +1232,12 @@
     <t>wind resource -- CF class won-ITA_12 -- cost class 2</t>
   </si>
   <si>
+    <t>e_won-ITA_11_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_11 -- cost class 5</t>
+  </si>
+  <si>
     <t>e_won-ITA_11_c2</t>
   </si>
   <si>
@@ -1242,12 +1248,6 @@
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_11 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-ITA_11_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_11 -- cost class 5</t>
   </si>
   <si>
     <t>e_won-ITA_11_c1</t>
@@ -1725,7 +1725,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC712C4-CF13-DB91-0B99-E4553ED822A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA219894-5F51-84CA-8798-7101AF512E0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1780,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC3C46C-CE66-32E7-CD3D-CC12421F70AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9236A34-BB6B-C4E6-32F2-A8F78F142BFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1835,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F8CC5C-9F48-B168-11BB-11E1DC30AC41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842A56E0-C5AC-DA45-FF94-6AEF5BF5BE4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1890,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C5C106-A9B9-C409-0B07-3AB60D4DEFF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529E9AEE-EFD6-BCA1-B325-F4566AB16CD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4417,7 +4417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0176623-11FA-4CEE-BDDF-06E90D4CB949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEFD477-397C-424E-9F12-52F9E5F062DA}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5645,7 +5645,7 @@
         <v>64.217124244118722</v>
       </c>
       <c r="P31" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -5686,7 +5686,7 @@
         <v>64.217124244118722</v>
       </c>
       <c r="P32" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5699,7 +5699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96730EC-B64D-41ED-BC93-CB2221D1D69A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A24EA-1F0E-436A-975E-683F36A13B5E}">
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6230,7 +6230,7 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P14" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6271,7 +6271,7 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P15" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6713,16 +6713,16 @@
         <v>389</v>
       </c>
       <c r="M26" s="32">
-        <v>3.2032500000000002</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="N26" s="34">
         <v>0.245</v>
       </c>
       <c r="O26" s="35">
-        <v>42.969340484621256</v>
+        <v>107.03467623779731</v>
       </c>
       <c r="P26" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -6754,16 +6754,16 @@
         <v>389</v>
       </c>
       <c r="M27" s="33">
-        <v>4.4999999999999997E-3</v>
+        <v>3.2032500000000002</v>
       </c>
       <c r="N27" s="36">
         <v>0.245</v>
       </c>
       <c r="O27" s="37">
-        <v>107.03467623779731</v>
+        <v>42.969340484621256</v>
       </c>
       <c r="P27" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -9460,16 +9460,16 @@
         <v>389</v>
       </c>
       <c r="M93" s="33">
-        <v>0.03</v>
+        <v>0.43575000000000003</v>
       </c>
       <c r="N93" s="36">
         <v>0.113</v>
       </c>
       <c r="O93" s="37">
-        <v>94.983314628615091</v>
+        <v>120.30091898433189</v>
       </c>
       <c r="P93" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="2:16">
@@ -9501,16 +9501,16 @@
         <v>389</v>
       </c>
       <c r="M94" s="32">
-        <v>0.43575000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="N94" s="34">
         <v>0.113</v>
       </c>
       <c r="O94" s="35">
-        <v>120.30091898433189</v>
+        <v>94.983314628615091</v>
       </c>
       <c r="P94" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="2:16">
@@ -9551,7 +9551,7 @@
         <v>120.30091898433189</v>
       </c>
       <c r="P95" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="2:16">
@@ -9728,7 +9728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C681A1-1C75-476F-A3B8-2D2680C6C1FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC927238-405E-4772-BB16-F677370D6841}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1B5380E-97F3-431F-8A7D-6A807897D3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E1A696-8A70-4673-9F63-40F8281F3304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="401">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -542,18 +542,18 @@
     <t>solar resource -- CF class spv-ITA_17 -- cost class 1</t>
   </si>
   <si>
+    <t>e_spv-ITA_17_c2</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-ITA_17 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_spv-ITA_17_c3</t>
   </si>
   <si>
     <t>solar resource -- CF class spv-ITA_17 -- cost class 3</t>
   </si>
   <si>
-    <t>e_spv-ITA_17_c2</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-ITA_17 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_spv-ITA_17_c4</t>
   </si>
   <si>
@@ -608,34 +608,46 @@
     <t>solar resource -- CF class spv-ITA_15 -- cost class 4</t>
   </si>
   <si>
+    <t>e_spv-ITA_15_c2</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-ITA_15 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_spv-ITA_15_c5</t>
   </si>
   <si>
     <t>solar resource -- CF class spv-ITA_15 -- cost class 5</t>
   </si>
   <si>
-    <t>e_spv-ITA_15_c2</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-ITA_15 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_spv-ITA_15_c3</t>
   </si>
   <si>
     <t>solar resource -- CF class spv-ITA_15 -- cost class 3</t>
   </si>
   <si>
+    <t>e_spv-ITA_14_c2</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-ITA_14 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_spv-ITA_14_c5</t>
   </si>
   <si>
     <t>solar resource -- CF class spv-ITA_14 -- cost class 5</t>
   </si>
   <si>
-    <t>e_spv-ITA_14_c2</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-ITA_14 -- cost class 2</t>
+    <t>e_spv-ITA_14_c1</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-ITA_14 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_spv-ITA_14_c3</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-ITA_14 -- cost class 3</t>
   </si>
   <si>
     <t>e_spv-ITA_14_c4</t>
@@ -644,18 +656,6 @@
     <t>solar resource -- CF class spv-ITA_14 -- cost class 4</t>
   </si>
   <si>
-    <t>e_spv-ITA_14_c1</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-ITA_14 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_spv-ITA_14_c3</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-ITA_14 -- cost class 3</t>
-  </si>
-  <si>
     <t>e_spv-ITA_13_c1</t>
   </si>
   <si>
@@ -668,18 +668,6 @@
     <t>solar resource -- CF class spv-ITA_13 -- cost class 2</t>
   </si>
   <si>
-    <t>e_spv-ITA_13_c4</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-ITA_13 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_spv-ITA_13_c3</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-ITA_13 -- cost class 3</t>
-  </si>
-  <si>
     <t>comm-out</t>
   </si>
   <si>
@@ -758,18 +746,6 @@
     <t>wind resource -- CF class won-ITA_29 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-ITA_29_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_29 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-ITA_29_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_29 -- cost class 5</t>
-  </si>
-  <si>
     <t>e_won-ITA_29_c3</t>
   </si>
   <si>
@@ -824,48 +800,42 @@
     <t>wind resource -- CF class won-ITA_25 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_25_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-ITA_25_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-ITA_25_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-ITA_25_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
-  </si>
-  <si>
     <t>e_won-ITA_24_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_24 -- cost class 2</t>
   </si>
   <si>
+    <t>e_won-ITA_24_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_24 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_won-ITA_24_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_24 -- cost class 5</t>
+  </si>
+  <si>
     <t>e_won-ITA_24_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_24 -- cost class 4</t>
   </si>
   <si>
-    <t>e_won-ITA_24_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_24 -- cost class 5</t>
-  </si>
-  <si>
-    <t>e_won-ITA_24_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_24 -- cost class 3</t>
-  </si>
-  <si>
     <t>e_won-ITA_24_c1</t>
   </si>
   <si>
@@ -908,24 +878,24 @@
     <t>wind resource -- CF class won-ITA_22 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_22_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_22 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_won-ITA_22_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_22 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-ITA_22_c3</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_22 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_22_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_22 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-ITA_22_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_22 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-ITA_22_c5</t>
   </si>
   <si>
@@ -938,18 +908,18 @@
     <t>wind resource -- CF class won-ITA_21 -- cost class 2</t>
   </si>
   <si>
+    <t>e_won-ITA_21_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_21 -- cost class 5</t>
+  </si>
+  <si>
     <t>e_won-ITA_21_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_21 -- cost class 4</t>
   </si>
   <si>
-    <t>e_won-ITA_21_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_21 -- cost class 5</t>
-  </si>
-  <si>
     <t>e_won-ITA_21_c1</t>
   </si>
   <si>
@@ -962,36 +932,36 @@
     <t>wind resource -- CF class won-ITA_21 -- cost class 3</t>
   </si>
   <si>
+    <t>e_won-ITA_20_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_20 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-ITA_20_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_20 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_won-ITA_20_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_20 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_won-ITA_20_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_20 -- cost class 5</t>
+  </si>
+  <si>
     <t>e_won-ITA_20_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_20 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-ITA_20_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_20 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-ITA_20_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_20 -- cost class 5</t>
-  </si>
-  <si>
-    <t>e_won-ITA_20_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_20 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-ITA_20_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_20 -- cost class 1</t>
-  </si>
-  <si>
     <t>e_won-ITA_19_c5</t>
   </si>
   <si>
@@ -1004,6 +974,12 @@
     <t>wind resource -- CF class won-ITA_19 -- cost class 3</t>
   </si>
   <si>
+    <t>e_won-ITA_19_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_19 -- cost class 4</t>
+  </si>
+  <si>
     <t>e_won-ITA_19_c1</t>
   </si>
   <si>
@@ -1016,60 +992,54 @@
     <t>wind resource -- CF class won-ITA_19 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-ITA_19_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_19 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-ITA_18_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_18 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_18_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_18 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-ITA_18_c5</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_18 -- cost class 5</t>
   </si>
   <si>
+    <t>e_won-ITA_18_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_18 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-ITA_18_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_18 -- cost class 4</t>
   </si>
   <si>
-    <t>e_won-ITA_18_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_18 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-ITA_18_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_18 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-ITA_17_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_17 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_17_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_17 -- cost class 4</t>
+  </si>
+  <si>
     <t>e_won-ITA_17_c3</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_17 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_17_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_17 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-ITA_17_c2</t>
   </si>
   <si>
@@ -1088,30 +1058,30 @@
     <t>wind resource -- CF class won-ITA_16 -- cost class 4</t>
   </si>
   <si>
+    <t>e_won-ITA_16_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_16 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-ITA_16_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_16 -- cost class 5</t>
+  </si>
+  <si>
+    <t>e_won-ITA_16_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_16 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-ITA_16_c3</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_16 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_16_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_16 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_won-ITA_16_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_16 -- cost class 5</t>
-  </si>
-  <si>
-    <t>e_won-ITA_16_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_16 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-ITA_15_c3</t>
   </si>
   <si>
@@ -1148,58 +1118,82 @@
     <t>wind resource -- CF class won-ITA_14 -- cost class 2</t>
   </si>
   <si>
+    <t>e_won-ITA_14_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_14 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_won-ITA_14_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_14 -- cost class 5</t>
+  </si>
+  <si>
     <t>e_won-ITA_14_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_14 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-ITA_14_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_14 -- cost class 5</t>
-  </si>
-  <si>
-    <t>e_won-ITA_14_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_14 -- cost class 3</t>
-  </si>
-  <si>
     <t>e_won-ITA_14_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_14 -- cost class 4</t>
   </si>
   <si>
+    <t>e_won-ITA_13_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_13 -- cost class 4</t>
+  </si>
+  <si>
     <t>e_won-ITA_13_c5</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_13 -- cost class 5</t>
   </si>
   <si>
-    <t>e_won-ITA_13_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_13 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-ITA_13_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_13 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_13_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_13 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-ITA_13_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_13 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-ITA_13_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_13 -- cost class 3</t>
+    <t>e_won-ITA_12_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_12 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_won-ITA_12_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_12 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-ITA_12_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_12 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-ITA_12_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_12 -- cost class 3</t>
   </si>
   <si>
     <t>e_won-ITA_12_c5</t>
@@ -1208,34 +1202,10 @@
     <t>wind resource -- CF class won-ITA_12 -- cost class 5</t>
   </si>
   <si>
-    <t>e_won-ITA_12_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_12 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-ITA_12_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_12 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_won-ITA_12_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_12 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-ITA_12_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_12 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-ITA_11_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_11 -- cost class 5</t>
+    <t>e_won-ITA_11_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_11 -- cost class 4</t>
   </si>
   <si>
     <t>e_won-ITA_11_c2</t>
@@ -1244,12 +1214,6 @@
     <t>wind resource -- CF class won-ITA_11 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-ITA_11_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_11 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-ITA_11_c1</t>
   </si>
   <si>
@@ -1266,12 +1230,6 @@
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_10 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_won-ITA_10_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_10 -- cost class 2</t>
   </si>
   <si>
     <t>elc_won-ITA</t>
@@ -1725,7 +1683,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA219894-5F51-84CA-8798-7101AF512E0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671C1EF8-6495-CE20-6BA2-765148750C85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1738,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9236A34-BB6B-C4E6-32F2-A8F78F142BFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F41B15-648C-619D-2D64-6547AEDBC138}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1793,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842A56E0-C5AC-DA45-FF94-6AEF5BF5BE4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5B99E3-53B6-0CC3-B0B1-663654CF1835}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1848,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529E9AEE-EFD6-BCA1-B325-F4566AB16CD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30EB46E5-9734-4933-3D11-CC97D37C738C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4417,8 +4375,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEFD477-397C-424E-9F12-52F9E5F062DA}">
-  <dimension ref="A1:P32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D41F70-5B2F-4EBA-B8E8-4C5397E2AA55}">
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -4485,19 +4443,19 @@
         <v>111</v>
       </c>
       <c r="L3" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="P3" s="29" t="s">
         <v>191</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4526,7 +4484,7 @@
         <v>131</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M4" s="32">
         <v>0.57825000000000004</v>
@@ -4567,7 +4525,7 @@
         <v>135</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M5" s="33">
         <v>2.2499999999999998E-3</v>
@@ -4608,7 +4566,7 @@
         <v>137</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M6" s="32">
         <v>4.1909999999999998</v>
@@ -4649,7 +4607,7 @@
         <v>139</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M7" s="33">
         <v>3.3487499999999999</v>
@@ -4690,7 +4648,7 @@
         <v>141</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M8" s="32">
         <v>0.72450000000000003</v>
@@ -4731,7 +4689,7 @@
         <v>143</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M9" s="33">
         <v>15.40875</v>
@@ -4772,19 +4730,19 @@
         <v>145</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M10" s="32">
-        <v>15.874499999999999</v>
+        <v>13.272</v>
       </c>
       <c r="N10" s="34">
-        <v>0.1675609940470566</v>
+        <v>0.16767455922242316</v>
       </c>
       <c r="O10" s="35">
-        <v>49.775414973533202</v>
+        <v>48.801819955204785</v>
       </c>
       <c r="P10" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4813,19 +4771,19 @@
         <v>147</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M11" s="33">
-        <v>14.19075</v>
+        <v>15.810750000000001</v>
       </c>
       <c r="N11" s="36">
-        <v>0.16750140056022411</v>
+        <v>0.16756325601252314</v>
       </c>
       <c r="O11" s="37">
-        <v>48.80207351082948</v>
+        <v>49.774587274955124</v>
       </c>
       <c r="P11" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4854,16 +4812,16 @@
         <v>149</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M12" s="32">
-        <v>14.415749999999999</v>
+        <v>13.398</v>
       </c>
       <c r="N12" s="34">
-        <v>0.16746891420841792</v>
+        <v>0.16750453425884465</v>
       </c>
       <c r="O12" s="35">
-        <v>51.150910470979809</v>
+        <v>51.163978462600788</v>
       </c>
       <c r="P12" s="32">
         <v>4</v>
@@ -4895,7 +4853,7 @@
         <v>151</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M13" s="33">
         <v>11.5905</v>
@@ -4936,16 +4894,16 @@
         <v>153</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M14" s="32">
-        <v>42.606000000000002</v>
+        <v>19.053000000000001</v>
       </c>
       <c r="N14" s="34">
-        <v>0.16191717715814677</v>
+        <v>0.16298145961265947</v>
       </c>
       <c r="O14" s="35">
-        <v>49.662332818847219</v>
+        <v>49.207519440875082</v>
       </c>
       <c r="P14" s="32">
         <v>1</v>
@@ -4977,16 +4935,16 @@
         <v>155</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M15" s="33">
-        <v>35.90325</v>
+        <v>25.60275</v>
       </c>
       <c r="N15" s="36">
-        <v>0.16094361931022957</v>
+        <v>0.16129472419954888</v>
       </c>
       <c r="O15" s="37">
-        <v>50.481659651929988</v>
+        <v>50.356837212265724</v>
       </c>
       <c r="P15" s="33">
         <v>2</v>
@@ -5018,16 +4976,16 @@
         <v>157</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M16" s="32">
-        <v>38.085000000000001</v>
+        <v>27.225000000000001</v>
       </c>
       <c r="N16" s="34">
-        <v>0.16091008270972829</v>
+        <v>0.16098468319559231</v>
       </c>
       <c r="O16" s="35">
-        <v>52.59475995005652</v>
+        <v>52.527679420292273</v>
       </c>
       <c r="P16" s="32">
         <v>4</v>
@@ -5059,16 +5017,16 @@
         <v>159</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M17" s="33">
-        <v>40.344749999999998</v>
+        <v>21.945</v>
       </c>
       <c r="N17" s="36">
-        <v>0.15856918186381133</v>
+        <v>0.15833410799726588</v>
       </c>
       <c r="O17" s="37">
-        <v>54.094349994213204</v>
+        <v>54.228474026248399</v>
       </c>
       <c r="P17" s="33">
         <v>5</v>
@@ -5100,16 +5058,16 @@
         <v>161</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M18" s="32">
-        <v>49.425750000000001</v>
+        <v>25.108499999999999</v>
       </c>
       <c r="N18" s="34">
-        <v>0.15854817074095995</v>
+        <v>0.15776489037576916</v>
       </c>
       <c r="O18" s="35">
-        <v>51.454568517315515</v>
+        <v>51.395632556928497</v>
       </c>
       <c r="P18" s="32">
         <v>3</v>
@@ -5141,16 +5099,16 @@
         <v>163</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M19" s="33">
-        <v>58.869750000000003</v>
+        <v>32.15325</v>
       </c>
       <c r="N19" s="36">
-        <v>0.15058107092352183</v>
+        <v>0.15098784726271838</v>
       </c>
       <c r="O19" s="37">
-        <v>53.430213641539495</v>
+        <v>53.131074878134285</v>
       </c>
       <c r="P19" s="33">
         <v>1</v>
@@ -5182,16 +5140,16 @@
         <v>165</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M20" s="32">
-        <v>59.628749999999997</v>
+        <v>31.185749999999999</v>
       </c>
       <c r="N20" s="34">
-        <v>0.14951269731463429</v>
+        <v>0.1497020033188235</v>
       </c>
       <c r="O20" s="35">
-        <v>56.960369168556902</v>
+        <v>56.942423913694988</v>
       </c>
       <c r="P20" s="32">
         <v>4</v>
@@ -5223,19 +5181,19 @@
         <v>167</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M21" s="33">
-        <v>54.113250000000001</v>
+        <v>24.225750000000001</v>
       </c>
       <c r="N21" s="36">
-        <v>0.14929237294008396</v>
+        <v>0.14949952013869541</v>
       </c>
       <c r="O21" s="37">
-        <v>57.935676704141287</v>
+        <v>54.740794979776702</v>
       </c>
       <c r="P21" s="33">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:16">
@@ -5264,19 +5222,19 @@
         <v>169</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M22" s="32">
-        <v>56.13</v>
+        <v>23.736000000000001</v>
       </c>
       <c r="N22" s="34">
-        <v>0.14922824692677711</v>
+        <v>0.14934352881698684</v>
       </c>
       <c r="O22" s="35">
-        <v>55.372729330353643</v>
+        <v>57.960385102855476</v>
       </c>
       <c r="P22" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:16">
@@ -5305,16 +5263,16 @@
         <v>171</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M23" s="33">
-        <v>56.07</v>
+        <v>41.71275</v>
       </c>
       <c r="N23" s="36">
-        <v>0.14775382557517383</v>
+        <v>0.14821667835374072</v>
       </c>
       <c r="O23" s="37">
-        <v>56.024242426705946</v>
+        <v>55.951494208040629</v>
       </c>
       <c r="P23" s="33">
         <v>3</v>
@@ -5346,19 +5304,19 @@
         <v>173</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M24" s="32">
-        <v>0.99</v>
+        <v>0.33674999999999999</v>
       </c>
       <c r="N24" s="34">
-        <v>0.14495151515151516</v>
+        <v>0.14469933184855233</v>
       </c>
       <c r="O24" s="35">
-        <v>60.289578297091431</v>
+        <v>55.269006398052674</v>
       </c>
       <c r="P24" s="32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -5387,19 +5345,19 @@
         <v>175</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M25" s="33">
-        <v>0.59325000000000006</v>
+        <v>2.9849999999999999</v>
       </c>
       <c r="N25" s="36">
-        <v>0.14465865992414667</v>
+        <v>0.14415778894472359</v>
       </c>
       <c r="O25" s="37">
-        <v>55.228445596741828</v>
+        <v>59.605761057652188</v>
       </c>
       <c r="P25" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:16">
@@ -5428,19 +5386,19 @@
         <v>177</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M26" s="32">
-        <v>3.3555000000000001</v>
+        <v>3.4365000000000001</v>
       </c>
       <c r="N26" s="34">
-        <v>0.1437894501564595</v>
+        <v>0.14314229594063727</v>
       </c>
       <c r="O26" s="35">
-        <v>59.575374653214283</v>
+        <v>54.829073847704706</v>
       </c>
       <c r="P26" s="32">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -5469,19 +5427,19 @@
         <v>179</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M27" s="33">
-        <v>3.8580000000000001</v>
+        <v>1.7535000000000001</v>
       </c>
       <c r="N27" s="36">
-        <v>0.1432360031104199</v>
+        <v>0.14199743370402051</v>
       </c>
       <c r="O27" s="37">
-        <v>54.810643902418022</v>
+        <v>58.302057332461267</v>
       </c>
       <c r="P27" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -5510,19 +5468,19 @@
         <v>181</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M28" s="32">
-        <v>3.0285000000000002</v>
+        <v>0.41325000000000001</v>
       </c>
       <c r="N28" s="34">
-        <v>0.14192570579494798</v>
+        <v>0.1403956442831216</v>
       </c>
       <c r="O28" s="35">
-        <v>58.247086347435939</v>
+        <v>59.311974103312757</v>
       </c>
       <c r="P28" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:16">
@@ -5551,7 +5509,7 @@
         <v>183</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M29" s="33">
         <v>6.3E-2</v>
@@ -5592,7 +5550,7 @@
         <v>185</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M30" s="32">
         <v>4.2750000000000003E-2</v>
@@ -5605,88 +5563,6 @@
       </c>
       <c r="P30" s="32">
         <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K31" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="L31" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="M31" s="33">
-        <v>4.2750000000000003E-2</v>
-      </c>
-      <c r="N31" s="36">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="O31" s="37">
-        <v>64.217124244118722</v>
-      </c>
-      <c r="P31" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K32" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="L32" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="M32" s="32">
-        <v>4.2750000000000003E-2</v>
-      </c>
-      <c r="N32" s="34">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="O32" s="35">
-        <v>64.217124244118722</v>
-      </c>
-      <c r="P32" s="32">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5699,8 +5575,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A24EA-1F0E-436A-975E-683F36A13B5E}">
-  <dimension ref="A1:P99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7853C85-4A50-45A3-B43E-3313502CF504}">
+  <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -5767,19 +5643,19 @@
         <v>111</v>
       </c>
       <c r="L3" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="P3" s="29" t="s">
         <v>191</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5787,10 +5663,10 @@
         <v>130</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>10</v>
@@ -5805,10 +5681,10 @@
         <v>134</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M4" s="32">
         <v>7.4249999999999997E-2</v>
@@ -5828,10 +5704,10 @@
         <v>130</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>10</v>
@@ -5846,10 +5722,10 @@
         <v>134</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M5" s="33">
         <v>1.2E-2</v>
@@ -5869,10 +5745,10 @@
         <v>130</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>10</v>
@@ -5887,10 +5763,10 @@
         <v>134</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M6" s="32">
         <v>1.7999999999999999E-2</v>
@@ -5910,10 +5786,10 @@
         <v>130</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>10</v>
@@ -5928,10 +5804,10 @@
         <v>134</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M7" s="33">
         <v>1.5E-3</v>
@@ -5951,10 +5827,10 @@
         <v>130</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>10</v>
@@ -5969,10 +5845,10 @@
         <v>134</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M8" s="32">
         <v>2.4990000000000001</v>
@@ -5992,10 +5868,10 @@
         <v>130</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>10</v>
@@ -6010,10 +5886,10 @@
         <v>134</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M9" s="33">
         <v>3.5249999999999997E-2</v>
@@ -6033,10 +5909,10 @@
         <v>130</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>10</v>
@@ -6051,10 +5927,10 @@
         <v>134</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M10" s="32">
         <v>3.9337499999999999</v>
@@ -6074,10 +5950,10 @@
         <v>130</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>10</v>
@@ -6092,10 +5968,10 @@
         <v>134</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M11" s="33">
         <v>5.5500000000000001E-2</v>
@@ -6115,10 +5991,10 @@
         <v>130</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>10</v>
@@ -6133,10 +6009,10 @@
         <v>134</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M12" s="32">
         <v>0.47775000000000001</v>
@@ -6156,10 +6032,10 @@
         <v>130</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>10</v>
@@ -6174,10 +6050,10 @@
         <v>134</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M13" s="33">
         <v>0.16125</v>
@@ -6197,10 +6073,10 @@
         <v>130</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>10</v>
@@ -6215,10 +6091,10 @@
         <v>134</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M14" s="32">
         <v>6.6360000000000001</v>
@@ -6230,7 +6106,7 @@
         <v>61.739678606582956</v>
       </c>
       <c r="P14" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6238,10 +6114,10 @@
         <v>130</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>10</v>
@@ -6256,22 +6132,22 @@
         <v>134</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M15" s="33">
-        <v>6.6360000000000001</v>
+        <v>3.0907499999999999</v>
       </c>
       <c r="N15" s="36">
-        <v>0.28799999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O15" s="37">
-        <v>61.739678606582956</v>
+        <v>31.268771835114638</v>
       </c>
       <c r="P15" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6279,10 +6155,10 @@
         <v>130</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>10</v>
@@ -6297,22 +6173,22 @@
         <v>134</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M16" s="32">
-        <v>6.6360000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N16" s="34">
-        <v>0.28799999999999998</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="O16" s="35">
-        <v>61.739678606582956</v>
+        <v>64.875152559254332</v>
       </c>
       <c r="P16" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -6320,10 +6196,10 @@
         <v>130</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>10</v>
@@ -6338,19 +6214,19 @@
         <v>134</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M17" s="33">
-        <v>3.0907499999999999</v>
+        <v>1.3492500000000001</v>
       </c>
       <c r="N17" s="36">
-        <v>0.28000000000000003</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="O17" s="37">
-        <v>31.268771835114638</v>
+        <v>47.890257785583884</v>
       </c>
       <c r="P17" s="33">
         <v>1</v>
@@ -6361,10 +6237,10 @@
         <v>130</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>10</v>
@@ -6379,19 +6255,19 @@
         <v>134</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M18" s="32">
-        <v>6.0000000000000001E-3</v>
+        <v>6.4192499999999999</v>
       </c>
       <c r="N18" s="34">
-        <v>0.27800000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="O18" s="35">
-        <v>64.875152559254332</v>
+        <v>76.835572500917451</v>
       </c>
       <c r="P18" s="32">
         <v>2</v>
@@ -6402,10 +6278,10 @@
         <v>130</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>10</v>
@@ -6420,22 +6296,22 @@
         <v>134</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M19" s="33">
-        <v>1.3492500000000001</v>
+        <v>4.725E-2</v>
       </c>
       <c r="N19" s="36">
-        <v>0.26900000000000002</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="O19" s="37">
-        <v>47.890257785583884</v>
+        <v>74.16643374801636</v>
       </c>
       <c r="P19" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -6443,10 +6319,10 @@
         <v>130</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>10</v>
@@ -6461,22 +6337,22 @@
         <v>134</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M20" s="32">
-        <v>6.4192499999999999</v>
+        <v>0.10575</v>
       </c>
       <c r="N20" s="34">
-        <v>0.26500000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="O20" s="35">
-        <v>76.835572500917451</v>
+        <v>35.451476972620632</v>
       </c>
       <c r="P20" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:16">
@@ -6484,10 +6360,10 @@
         <v>130</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>10</v>
@@ -6502,22 +6378,22 @@
         <v>134</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M21" s="33">
-        <v>4.725E-2</v>
+        <v>0.12</v>
       </c>
       <c r="N21" s="36">
-        <v>0.26400000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="O21" s="37">
-        <v>74.16643374801636</v>
+        <v>62.984563671908091</v>
       </c>
       <c r="P21" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:16">
@@ -6525,10 +6401,10 @@
         <v>130</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>10</v>
@@ -6543,19 +6419,19 @@
         <v>134</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M22" s="32">
-        <v>0.10575</v>
+        <v>6.5407500000000001</v>
       </c>
       <c r="N22" s="34">
-        <v>0.26200000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="O22" s="35">
-        <v>35.451476972620632</v>
+        <v>39.368264706413946</v>
       </c>
       <c r="P22" s="32">
         <v>1</v>
@@ -6566,10 +6442,10 @@
         <v>130</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>10</v>
@@ -6584,22 +6460,22 @@
         <v>134</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M23" s="33">
-        <v>0.12</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="N23" s="36">
-        <v>0.255</v>
+        <v>0.245</v>
       </c>
       <c r="O23" s="37">
-        <v>62.984563671908091</v>
+        <v>107.03467623779731</v>
       </c>
       <c r="P23" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -6607,10 +6483,10 @@
         <v>130</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>10</v>
@@ -6625,22 +6501,22 @@
         <v>134</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M24" s="32">
-        <v>6.5407500000000001</v>
+        <v>3.2032500000000002</v>
       </c>
       <c r="N24" s="34">
-        <v>0.254</v>
+        <v>0.245</v>
       </c>
       <c r="O24" s="35">
-        <v>39.368264706413946</v>
+        <v>42.969340484621256</v>
       </c>
       <c r="P24" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -6648,10 +6524,10 @@
         <v>130</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>10</v>
@@ -6666,19 +6542,19 @@
         <v>134</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M25" s="33">
-        <v>6.5407500000000001</v>
+        <v>1.43025</v>
       </c>
       <c r="N25" s="36">
-        <v>0.254</v>
+        <v>0.24277975878342947</v>
       </c>
       <c r="O25" s="37">
-        <v>39.368264706413946</v>
+        <v>54.11966023443145</v>
       </c>
       <c r="P25" s="33">
         <v>2</v>
@@ -6689,10 +6565,10 @@
         <v>130</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>10</v>
@@ -6707,22 +6583,22 @@
         <v>134</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M26" s="32">
-        <v>4.4999999999999997E-3</v>
+        <v>6.9734999999999996</v>
       </c>
       <c r="N26" s="34">
-        <v>0.245</v>
+        <v>0.2419820391482039</v>
       </c>
       <c r="O26" s="35">
-        <v>107.03467623779731</v>
+        <v>75.281993641810459</v>
       </c>
       <c r="P26" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -6730,10 +6606,10 @@
         <v>130</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>10</v>
@@ -6748,22 +6624,22 @@
         <v>134</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M27" s="33">
-        <v>3.2032500000000002</v>
+        <v>0.68774999999999997</v>
       </c>
       <c r="N27" s="36">
-        <v>0.245</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="O27" s="37">
-        <v>42.969340484621256</v>
+        <v>145.34302865948322</v>
       </c>
       <c r="P27" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -6771,10 +6647,10 @@
         <v>130</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>10</v>
@@ -6789,22 +6665,22 @@
         <v>134</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M28" s="32">
-        <v>1.38975</v>
+        <v>2.4750000000000001E-2</v>
       </c>
       <c r="N28" s="34">
-        <v>0.24294819212088506</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="O28" s="35">
-        <v>53.735146345980226</v>
+        <v>81.184427846831937</v>
       </c>
       <c r="P28" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:16">
@@ -6812,10 +6688,10 @@
         <v>130</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>10</v>
@@ -6830,22 +6706,22 @@
         <v>134</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M29" s="33">
-        <v>13.6965</v>
+        <v>1.0515000000000001</v>
       </c>
       <c r="N29" s="36">
-        <v>0.24199999999999999</v>
+        <v>0.23798858773181167</v>
       </c>
       <c r="O29" s="37">
-        <v>75.422943399089874</v>
+        <v>37.028011048102137</v>
       </c>
       <c r="P29" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -6853,10 +6729,10 @@
         <v>130</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>10</v>
@@ -6871,22 +6747,22 @@
         <v>134</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M30" s="32">
-        <v>0.71250000000000002</v>
+        <v>14.266500000000001</v>
       </c>
       <c r="N30" s="34">
-        <v>0.24093052631578946</v>
+        <v>0.23255577752076548</v>
       </c>
       <c r="O30" s="35">
-        <v>143.11436147335954</v>
+        <v>47.121953987423957</v>
       </c>
       <c r="P30" s="32">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -6894,10 +6770,10 @@
         <v>130</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>10</v>
@@ -6912,22 +6788,22 @@
         <v>134</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M31" s="33">
-        <v>0.17774999999999999</v>
+        <v>7.1317500000000003</v>
       </c>
       <c r="N31" s="36">
-        <v>0.23981856540084387</v>
+        <v>0.22831843516668421</v>
       </c>
       <c r="O31" s="37">
-        <v>66.489649100006474</v>
+        <v>147.09212011404048</v>
       </c>
       <c r="P31" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -6935,10 +6811,10 @@
         <v>130</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>10</v>
@@ -6953,22 +6829,22 @@
         <v>134</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L32" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M32" s="32">
-        <v>2.0790000000000002</v>
+        <v>14.15925</v>
       </c>
       <c r="N32" s="34">
-        <v>0.23799999999999999</v>
+        <v>0.22829297102600776</v>
       </c>
       <c r="O32" s="35">
-        <v>36.850845054228792</v>
+        <v>106.37981209708187</v>
       </c>
       <c r="P32" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:16">
@@ -6976,10 +6852,10 @@
         <v>130</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>10</v>
@@ -6994,22 +6870,22 @@
         <v>134</v>
       </c>
       <c r="K33" s="31" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M33" s="33">
-        <v>20.207999999999998</v>
+        <v>4.6987500000000004</v>
       </c>
       <c r="N33" s="36">
-        <v>0.23239236935866986</v>
+        <v>0.22722250598563448</v>
       </c>
       <c r="O33" s="37">
-        <v>49.699026466959957</v>
+        <v>59.492801496464352</v>
       </c>
       <c r="P33" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:16">
@@ -7017,10 +6893,10 @@
         <v>130</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>10</v>
@@ -7035,22 +6911,22 @@
         <v>134</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L34" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M34" s="32">
-        <v>7.8765000000000001</v>
+        <v>13.143750000000001</v>
       </c>
       <c r="N34" s="34">
-        <v>0.22885564654351556</v>
+        <v>0.22697460770328104</v>
       </c>
       <c r="O34" s="35">
-        <v>149.43617037634314</v>
+        <v>80.247494412597746</v>
       </c>
       <c r="P34" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:16">
@@ -7058,10 +6934,10 @@
         <v>130</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>10</v>
@@ -7076,22 +6952,22 @@
         <v>134</v>
       </c>
       <c r="K35" s="31" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M35" s="33">
-        <v>25.736249999999998</v>
+        <v>4.0229999999999997</v>
       </c>
       <c r="N35" s="36">
-        <v>0.22771135072125895</v>
+        <v>0.22048303504847128</v>
       </c>
       <c r="O35" s="37">
-        <v>122.96671414140771</v>
+        <v>46.943800883917952</v>
       </c>
       <c r="P35" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:16">
@@ -7099,10 +6975,10 @@
         <v>130</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>10</v>
@@ -7117,22 +6993,22 @@
         <v>134</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L36" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M36" s="32">
-        <v>4.7512499999999998</v>
+        <v>12.59925</v>
       </c>
       <c r="N36" s="34">
-        <v>0.22724214680347277</v>
+        <v>0.22040377403416872</v>
       </c>
       <c r="O36" s="35">
-        <v>59.639559061974893</v>
+        <v>115.40806025527077</v>
       </c>
       <c r="P36" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:16">
@@ -7140,10 +7016,10 @@
         <v>130</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>10</v>
@@ -7158,22 +7034,22 @@
         <v>134</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L37" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M37" s="33">
-        <v>33.305999999999997</v>
+        <v>4.1159999999999997</v>
       </c>
       <c r="N37" s="36">
-        <v>0.22698200774635202</v>
+        <v>0.21984056122448978</v>
       </c>
       <c r="O37" s="37">
-        <v>81.48341197842548</v>
+        <v>67.640374844241734</v>
       </c>
       <c r="P37" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:16">
@@ -7181,10 +7057,10 @@
         <v>130</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>10</v>
@@ -7199,22 +7075,22 @@
         <v>134</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L38" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M38" s="32">
-        <v>4.1609999999999996</v>
+        <v>16.160250000000001</v>
       </c>
       <c r="N38" s="34">
-        <v>0.22030118961788031</v>
+        <v>0.21872288485636052</v>
       </c>
       <c r="O38" s="35">
-        <v>47.341535425491124</v>
+        <v>87.27700919859528</v>
       </c>
       <c r="P38" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:16">
@@ -7222,10 +7098,10 @@
         <v>130</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>10</v>
@@ -7240,22 +7116,22 @@
         <v>134</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L39" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M39" s="33">
-        <v>22.221</v>
+        <v>6.5677500000000002</v>
       </c>
       <c r="N39" s="36">
-        <v>0.22007800054002971</v>
+        <v>0.21604990293479501</v>
       </c>
       <c r="O39" s="37">
-        <v>92.747374331917612</v>
+        <v>140.0537757801911</v>
       </c>
       <c r="P39" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:16">
@@ -7263,10 +7139,10 @@
         <v>130</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>10</v>
@@ -7281,19 +7157,19 @@
         <v>134</v>
       </c>
       <c r="K40" s="30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L40" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M40" s="32">
-        <v>14.1615</v>
+        <v>10.96125</v>
       </c>
       <c r="N40" s="34">
-        <v>0.21938910073085477</v>
+        <v>0.2126353061922682</v>
       </c>
       <c r="O40" s="35">
-        <v>78.58032116603718</v>
+        <v>78.612961601084834</v>
       </c>
       <c r="P40" s="32">
         <v>2</v>
@@ -7304,10 +7180,10 @@
         <v>130</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>10</v>
@@ -7322,22 +7198,22 @@
         <v>134</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M41" s="33">
-        <v>19.6995</v>
+        <v>1.1212500000000001</v>
       </c>
       <c r="N41" s="36">
-        <v>0.21719538566968707</v>
+        <v>0.21</v>
       </c>
       <c r="O41" s="37">
-        <v>132.69380227758126</v>
+        <v>198.9760293218836</v>
       </c>
       <c r="P41" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:16">
@@ -7345,10 +7221,10 @@
         <v>130</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E42" s="30" t="s">
         <v>10</v>
@@ -7363,22 +7239,22 @@
         <v>134</v>
       </c>
       <c r="K42" s="30" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L42" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M42" s="32">
-        <v>6.5677500000000002</v>
+        <v>4.4939999999999998</v>
       </c>
       <c r="N42" s="34">
-        <v>0.21604990293479501</v>
+        <v>0.20943307743658207</v>
       </c>
       <c r="O42" s="35">
-        <v>140.0537757801911</v>
+        <v>141.86839355130726</v>
       </c>
       <c r="P42" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:16">
@@ -7386,10 +7262,10 @@
         <v>130</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>10</v>
@@ -7404,22 +7280,22 @@
         <v>134</v>
       </c>
       <c r="K43" s="31" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L43" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M43" s="33">
-        <v>16.9575</v>
+        <v>13.74075</v>
       </c>
       <c r="N43" s="36">
-        <v>0.21241065900044226</v>
+        <v>0.20906233284209377</v>
       </c>
       <c r="O43" s="37">
-        <v>77.717564622641405</v>
+        <v>66.86078180345622</v>
       </c>
       <c r="P43" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:16">
@@ -7427,10 +7303,10 @@
         <v>130</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>10</v>
@@ -7445,22 +7321,22 @@
         <v>134</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M44" s="32">
-        <v>4.7212500000000004</v>
+        <v>13.49925</v>
       </c>
       <c r="N44" s="34">
-        <v>0.20997092930897535</v>
+        <v>0.20849219401077837</v>
       </c>
       <c r="O44" s="35">
-        <v>141.04587817007166</v>
+        <v>116.56422974892625</v>
       </c>
       <c r="P44" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:16">
@@ -7468,10 +7344,10 @@
         <v>130</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>10</v>
@@ -7486,22 +7362,22 @@
         <v>134</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M45" s="33">
-        <v>1.4670000000000001</v>
+        <v>9.3104999999999993</v>
       </c>
       <c r="N45" s="36">
-        <v>0.2095286298568507</v>
+        <v>0.20258772353794102</v>
       </c>
       <c r="O45" s="37">
-        <v>190.56990105113542</v>
+        <v>74.49942970955108</v>
       </c>
       <c r="P45" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:16">
@@ -7509,10 +7385,10 @@
         <v>130</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E46" s="30" t="s">
         <v>10</v>
@@ -7527,22 +7403,22 @@
         <v>134</v>
       </c>
       <c r="K46" s="30" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M46" s="32">
-        <v>20.505749999999999</v>
+        <v>18.922499999999999</v>
       </c>
       <c r="N46" s="34">
-        <v>0.20904176877217365</v>
+        <v>0.20080602457391994</v>
       </c>
       <c r="O46" s="35">
-        <v>67.00609976075576</v>
+        <v>114.757967891554</v>
       </c>
       <c r="P46" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:16">
@@ -7550,10 +7426,10 @@
         <v>130</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>10</v>
@@ -7568,22 +7444,22 @@
         <v>134</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L47" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M47" s="33">
-        <v>18.340499999999999</v>
+        <v>11.166</v>
       </c>
       <c r="N47" s="36">
-        <v>0.20757037703443199</v>
+        <v>0.20041342020419128</v>
       </c>
       <c r="O47" s="37">
-        <v>120.63192331289389</v>
+        <v>142.79879355736506</v>
       </c>
       <c r="P47" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:16">
@@ -7591,10 +7467,10 @@
         <v>130</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>10</v>
@@ -7609,22 +7485,22 @@
         <v>134</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L48" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M48" s="32">
-        <v>27.731249999999999</v>
+        <v>5.0242500000000003</v>
       </c>
       <c r="N48" s="34">
-        <v>0.20137473968897907</v>
+        <v>0.20004194655918794</v>
       </c>
       <c r="O48" s="35">
-        <v>104.46796586021337</v>
+        <v>162.52362883116984</v>
       </c>
       <c r="P48" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:16">
@@ -7632,10 +7508,10 @@
         <v>130</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>10</v>
@@ -7650,22 +7526,22 @@
         <v>134</v>
       </c>
       <c r="K49" s="31" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L49" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M49" s="33">
-        <v>21.8565</v>
+        <v>19.183499999999999</v>
       </c>
       <c r="N49" s="36">
-        <v>0.20070032942145358</v>
+        <v>0.19950950035186488</v>
       </c>
       <c r="O49" s="37">
-        <v>146.44735599398879</v>
+        <v>92.831730530368091</v>
       </c>
       <c r="P49" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="2:16">
@@ -7673,10 +7549,10 @@
         <v>130</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>10</v>
@@ -7691,19 +7567,19 @@
         <v>134</v>
       </c>
       <c r="K50" s="30" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L50" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M50" s="32">
-        <v>8.2927499999999998</v>
+        <v>1.3815</v>
       </c>
       <c r="N50" s="34">
-        <v>0.20026254861173917</v>
+        <v>0.19050814332247556</v>
       </c>
       <c r="O50" s="35">
-        <v>163.42749640141074</v>
+        <v>244.20013809956609</v>
       </c>
       <c r="P50" s="32">
         <v>5</v>
@@ -7714,10 +7590,10 @@
         <v>130</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>10</v>
@@ -7732,19 +7608,19 @@
         <v>134</v>
       </c>
       <c r="K51" s="31" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L51" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M51" s="33">
-        <v>24.696750000000002</v>
+        <v>10.70025</v>
       </c>
       <c r="N51" s="36">
-        <v>0.19991615293510279</v>
+        <v>0.19039903273288009</v>
       </c>
       <c r="O51" s="37">
-        <v>117.30257835792968</v>
+        <v>165.91277989462142</v>
       </c>
       <c r="P51" s="33">
         <v>3</v>
@@ -7755,10 +7631,10 @@
         <v>130</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>10</v>
@@ -7773,22 +7649,22 @@
         <v>134</v>
       </c>
       <c r="K52" s="30" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M52" s="32">
-        <v>22.791</v>
+        <v>5.57775</v>
       </c>
       <c r="N52" s="34">
-        <v>0.1992826773726471</v>
+        <v>0.1902855990318677</v>
       </c>
       <c r="O52" s="35">
-        <v>78.341625805736925</v>
+        <v>180.82521651983217</v>
       </c>
       <c r="P52" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="2:16">
@@ -7796,10 +7672,10 @@
         <v>130</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>10</v>
@@ -7814,22 +7690,22 @@
         <v>134</v>
       </c>
       <c r="K53" s="31" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L53" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M53" s="33">
-        <v>2.1705000000000001</v>
+        <v>5.4322499999999998</v>
       </c>
       <c r="N53" s="36">
-        <v>0.1914139599170698</v>
+        <v>0.19010202954576833</v>
       </c>
       <c r="O53" s="37">
-        <v>230.76908277925514</v>
+        <v>68.698990077773232</v>
       </c>
       <c r="P53" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:16">
@@ -7837,10 +7713,10 @@
         <v>130</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>10</v>
@@ -7855,22 +7731,22 @@
         <v>134</v>
       </c>
       <c r="K54" s="30" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L54" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M54" s="32">
-        <v>20.223749999999999</v>
+        <v>10.436249999999999</v>
       </c>
       <c r="N54" s="34">
-        <v>0.19071318375672169</v>
+        <v>0.18925641394178944</v>
       </c>
       <c r="O54" s="35">
-        <v>165.38772429079248</v>
+        <v>116.30580894587081</v>
       </c>
       <c r="P54" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="2:16">
@@ -7878,10 +7754,10 @@
         <v>130</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E55" s="31" t="s">
         <v>10</v>
@@ -7896,19 +7772,19 @@
         <v>134</v>
       </c>
       <c r="K55" s="31" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L55" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M55" s="33">
-        <v>10.263</v>
+        <v>7.2285000000000004</v>
       </c>
       <c r="N55" s="36">
-        <v>0.1895833089739842</v>
+        <v>0.18303050425399459</v>
       </c>
       <c r="O55" s="37">
-        <v>74.706382875402369</v>
+        <v>80.727588530583546</v>
       </c>
       <c r="P55" s="33">
         <v>1</v>
@@ -7919,10 +7795,10 @@
         <v>130</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E56" s="30" t="s">
         <v>10</v>
@@ -7937,22 +7813,22 @@
         <v>134</v>
       </c>
       <c r="K56" s="30" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L56" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M56" s="32">
-        <v>13.010999999999999</v>
+        <v>14.81475</v>
       </c>
       <c r="N56" s="34">
-        <v>0.18900778187687339</v>
+        <v>0.17959054320862652</v>
       </c>
       <c r="O56" s="35">
-        <v>121.07914601407619</v>
+        <v>117.54232991410211</v>
       </c>
       <c r="P56" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="2:16">
@@ -7960,10 +7836,10 @@
         <v>130</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>10</v>
@@ -7978,22 +7854,22 @@
         <v>134</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M57" s="33">
-        <v>7.9312500000000004</v>
+        <v>8.6504999999999992</v>
       </c>
       <c r="N57" s="36">
-        <v>0.18871716312056738</v>
+        <v>0.17932911392405063</v>
       </c>
       <c r="O57" s="37">
-        <v>179.07779548764159</v>
+        <v>168.66799442092517</v>
       </c>
       <c r="P57" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:16">
@@ -8001,10 +7877,10 @@
         <v>130</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>10</v>
@@ -8019,22 +7895,22 @@
         <v>134</v>
       </c>
       <c r="K58" s="30" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L58" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M58" s="32">
-        <v>13.25325</v>
+        <v>10.244999999999999</v>
       </c>
       <c r="N58" s="34">
-        <v>0.18027791296474446</v>
+        <v>0.17693389458272327</v>
       </c>
       <c r="O58" s="35">
-        <v>92.39375366301114</v>
+        <v>108.87508463448283</v>
       </c>
       <c r="P58" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="2:16">
@@ -8042,10 +7918,10 @@
         <v>130</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E59" s="31" t="s">
         <v>10</v>
@@ -8060,22 +7936,22 @@
         <v>134</v>
       </c>
       <c r="K59" s="31" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L59" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M59" s="33">
-        <v>11.34075</v>
+        <v>2.8424999999999998</v>
       </c>
       <c r="N59" s="36">
-        <v>0.17925104159777791</v>
+        <v>0.17571530343007913</v>
       </c>
       <c r="O59" s="37">
-        <v>171.97367849532097</v>
+        <v>141.8230403681535</v>
       </c>
       <c r="P59" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="2:16">
@@ -8083,10 +7959,10 @@
         <v>130</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>10</v>
@@ -8101,22 +7977,22 @@
         <v>134</v>
       </c>
       <c r="K60" s="30" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L60" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M60" s="32">
-        <v>21.154499999999999</v>
+        <v>8.0542499999999997</v>
       </c>
       <c r="N60" s="34">
-        <v>0.17900404169325676</v>
+        <v>0.17330086600242109</v>
       </c>
       <c r="O60" s="35">
-        <v>163.48886366352724</v>
+        <v>104.56413981314816</v>
       </c>
       <c r="P60" s="32">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:16">
@@ -8124,10 +8000,10 @@
         <v>130</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E61" s="31" t="s">
         <v>10</v>
@@ -8142,22 +8018,22 @@
         <v>134</v>
       </c>
       <c r="K61" s="31" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L61" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M61" s="33">
-        <v>12.579000000000001</v>
+        <v>7.2457500000000001</v>
       </c>
       <c r="N61" s="36">
-        <v>0.17851389220128785</v>
+        <v>0.17072332056722908</v>
       </c>
       <c r="O61" s="37">
-        <v>134.56184715464769</v>
+        <v>164.25095524426214</v>
       </c>
       <c r="P61" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:16">
@@ -8165,10 +8041,10 @@
         <v>130</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>10</v>
@@ -8183,22 +8059,22 @@
         <v>134</v>
       </c>
       <c r="K62" s="30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L62" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M62" s="32">
-        <v>22.513500000000001</v>
+        <v>8.0205000000000002</v>
       </c>
       <c r="N62" s="34">
-        <v>0.17784602571790259</v>
+        <v>0.17033083972320928</v>
       </c>
       <c r="O62" s="35">
-        <v>114.72053393901447</v>
+        <v>140.97587066494569</v>
       </c>
       <c r="P62" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="2:16">
@@ -8206,10 +8082,10 @@
         <v>130</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E63" s="31" t="s">
         <v>10</v>
@@ -8224,22 +8100,22 @@
         <v>134</v>
       </c>
       <c r="K63" s="31" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L63" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M63" s="33">
-        <v>13.02375</v>
+        <v>22.806000000000001</v>
       </c>
       <c r="N63" s="36">
-        <v>0.1731369997120645</v>
+        <v>0.17022961062878192</v>
       </c>
       <c r="O63" s="37">
-        <v>106.34993670014798</v>
+        <v>124.39808818058728</v>
       </c>
       <c r="P63" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="2:16">
@@ -8247,10 +8123,10 @@
         <v>130</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>10</v>
@@ -8265,22 +8141,22 @@
         <v>134</v>
       </c>
       <c r="K64" s="30" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L64" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M64" s="32">
-        <v>10.7925</v>
+        <v>3.9359999999999999</v>
       </c>
       <c r="N64" s="34">
-        <v>0.17144308547602502</v>
+        <v>0.16833536585365852</v>
       </c>
       <c r="O64" s="35">
-        <v>150.06038613635585</v>
+        <v>178.76452844232512</v>
       </c>
       <c r="P64" s="32">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="2:16">
@@ -8288,10 +8164,10 @@
         <v>130</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E65" s="31" t="s">
         <v>10</v>
@@ -8306,19 +8182,19 @@
         <v>134</v>
       </c>
       <c r="K65" s="31" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L65" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M65" s="33">
-        <v>12.669</v>
+        <v>17.130749999999999</v>
       </c>
       <c r="N65" s="36">
-        <v>0.17107174994080038</v>
+        <v>0.16118545597828465</v>
       </c>
       <c r="O65" s="37">
-        <v>163.59853016376465</v>
+        <v>130.36322464701814</v>
       </c>
       <c r="P65" s="33">
         <v>4</v>
@@ -8329,10 +8205,10 @@
         <v>130</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>10</v>
@@ -8347,22 +8223,22 @@
         <v>134</v>
       </c>
       <c r="K66" s="30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L66" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M66" s="32">
-        <v>32.690249999999999</v>
+        <v>0.88949999999999996</v>
       </c>
       <c r="N66" s="34">
-        <v>0.17066402826530849</v>
+        <v>0.16109443507588533</v>
       </c>
       <c r="O66" s="35">
-        <v>126.20014986447458</v>
+        <v>71.08105676013443</v>
       </c>
       <c r="P66" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:16">
@@ -8370,10 +8246,10 @@
         <v>130</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E67" s="31" t="s">
         <v>10</v>
@@ -8388,19 +8264,19 @@
         <v>134</v>
       </c>
       <c r="K67" s="31" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L67" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M67" s="33">
-        <v>5.7119999999999997</v>
+        <v>8.1059999999999999</v>
       </c>
       <c r="N67" s="36">
-        <v>0.1678610819327731</v>
+        <v>0.16083771280532941</v>
       </c>
       <c r="O67" s="37">
-        <v>177.96653955559626</v>
+        <v>179.79402336416436</v>
       </c>
       <c r="P67" s="33">
         <v>5</v>
@@ -8411,10 +8287,10 @@
         <v>130</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E68" s="30" t="s">
         <v>10</v>
@@ -8429,22 +8305,22 @@
         <v>134</v>
       </c>
       <c r="K68" s="30" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L68" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M68" s="32">
-        <v>10.06875</v>
+        <v>4.5434999999999999</v>
       </c>
       <c r="N68" s="34">
-        <v>0.16273519553072624</v>
+        <v>0.15897457906899967</v>
       </c>
       <c r="O68" s="35">
-        <v>165.59176573517476</v>
+        <v>82.323094319872453</v>
       </c>
       <c r="P68" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="2:16">
@@ -8452,10 +8328,10 @@
         <v>130</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E69" s="31" t="s">
         <v>10</v>
@@ -8470,19 +8346,19 @@
         <v>134</v>
       </c>
       <c r="K69" s="31" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L69" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M69" s="33">
-        <v>28.60125</v>
+        <v>7.2082499999999996</v>
       </c>
       <c r="N69" s="36">
-        <v>0.16191317687164022</v>
+        <v>0.1584988034543752</v>
       </c>
       <c r="O69" s="37">
-        <v>136.53765247043336</v>
+        <v>103.83820569035807</v>
       </c>
       <c r="P69" s="33">
         <v>3</v>
@@ -8493,10 +8369,10 @@
         <v>130</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>10</v>
@@ -8511,22 +8387,22 @@
         <v>134</v>
       </c>
       <c r="K70" s="30" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L70" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M70" s="32">
-        <v>4.3274999999999997</v>
+        <v>4.7054999999999998</v>
       </c>
       <c r="N70" s="34">
-        <v>0.15914835355285964</v>
+        <v>0.15100000000000002</v>
       </c>
       <c r="O70" s="35">
-        <v>77.646263327431939</v>
+        <v>152.33035897573743</v>
       </c>
       <c r="P70" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="2:16">
@@ -8534,10 +8410,10 @@
         <v>130</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E71" s="31" t="s">
         <v>10</v>
@@ -8552,19 +8428,19 @@
         <v>134</v>
       </c>
       <c r="K71" s="31" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L71" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M71" s="33">
-        <v>11.583</v>
+        <v>4.0342500000000001</v>
       </c>
       <c r="N71" s="36">
-        <v>0.15892074592074593</v>
+        <v>0.1498077709611452</v>
       </c>
       <c r="O71" s="37">
-        <v>193.57864225154509</v>
+        <v>204.16843448203005</v>
       </c>
       <c r="P71" s="33">
         <v>5</v>
@@ -8575,10 +8451,10 @@
         <v>130</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>10</v>
@@ -8593,22 +8469,22 @@
         <v>134</v>
       </c>
       <c r="K72" s="30" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L72" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M72" s="32">
-        <v>14.029500000000001</v>
+        <v>6.5475000000000003</v>
       </c>
       <c r="N72" s="34">
-        <v>0.15841387790013897</v>
+        <v>0.14958453608247421</v>
       </c>
       <c r="O72" s="35">
-        <v>103.57370997515113</v>
+        <v>161.52373404303972</v>
       </c>
       <c r="P72" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="2:16">
@@ -8616,10 +8492,10 @@
         <v>130</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E73" s="31" t="s">
         <v>10</v>
@@ -8634,22 +8510,22 @@
         <v>134</v>
       </c>
       <c r="K73" s="31" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L73" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M73" s="33">
-        <v>10.8345</v>
+        <v>0.57450000000000001</v>
       </c>
       <c r="N73" s="36">
-        <v>0.15029911394157552</v>
+        <v>0.14745039164490861</v>
       </c>
       <c r="O73" s="37">
-        <v>155.77592205217445</v>
+        <v>144.02239071529868</v>
       </c>
       <c r="P73" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="2:16">
@@ -8657,10 +8533,10 @@
         <v>130</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>10</v>
@@ -8675,22 +8551,22 @@
         <v>134</v>
       </c>
       <c r="K74" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L74" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M74" s="32">
-        <v>7.2930000000000001</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="N74" s="34">
-        <v>0.14989366515837105</v>
+        <v>0.14718803418803417</v>
       </c>
       <c r="O74" s="35">
-        <v>207.33180915619644</v>
+        <v>118.67284375087442</v>
       </c>
       <c r="P74" s="32">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:16">
@@ -8698,10 +8574,10 @@
         <v>130</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E75" s="31" t="s">
         <v>10</v>
@@ -8716,22 +8592,22 @@
         <v>134</v>
       </c>
       <c r="K75" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L75" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M75" s="33">
-        <v>7.45425</v>
+        <v>12.28575</v>
       </c>
       <c r="N75" s="36">
-        <v>0.14927014790220342</v>
+        <v>0.14247249862645747</v>
       </c>
       <c r="O75" s="37">
-        <v>162.96841148775385</v>
+        <v>92.024144247709557</v>
       </c>
       <c r="P75" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="2:16">
@@ -8739,10 +8615,10 @@
         <v>130</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E76" s="30" t="s">
         <v>10</v>
@@ -8757,22 +8633,22 @@
         <v>134</v>
       </c>
       <c r="K76" s="30" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L76" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M76" s="32">
-        <v>0.89775000000000005</v>
+        <v>5.3407499999999999</v>
       </c>
       <c r="N76" s="34">
-        <v>0.14916040100250627</v>
+        <v>0.14062743996629687</v>
       </c>
       <c r="O76" s="35">
-        <v>142.62809705928407</v>
+        <v>107.96644423307403</v>
       </c>
       <c r="P76" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="2:16">
@@ -8780,10 +8656,10 @@
         <v>130</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E77" s="31" t="s">
         <v>10</v>
@@ -8798,22 +8674,22 @@
         <v>134</v>
       </c>
       <c r="K77" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L77" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M77" s="33">
-        <v>3.4980000000000002</v>
+        <v>1.8075000000000001</v>
       </c>
       <c r="N77" s="36">
-        <v>0.14600257289879931</v>
+        <v>0.1406161825726141</v>
       </c>
       <c r="O77" s="37">
-        <v>114.3648802231976</v>
+        <v>150.06395784066896</v>
       </c>
       <c r="P77" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="2:16">
@@ -8821,10 +8697,10 @@
         <v>130</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E78" s="30" t="s">
         <v>10</v>
@@ -8839,22 +8715,22 @@
         <v>134</v>
       </c>
       <c r="K78" s="30" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L78" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M78" s="32">
-        <v>14.661</v>
+        <v>11.186999999999999</v>
       </c>
       <c r="N78" s="34">
-        <v>0.14230049109883364</v>
+        <v>0.14056053901850363</v>
       </c>
       <c r="O78" s="35">
-        <v>93.755796876652227</v>
+        <v>76.100164622080385</v>
       </c>
       <c r="P78" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:16">
@@ -8862,10 +8738,10 @@
         <v>130</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E79" s="31" t="s">
         <v>10</v>
@@ -8880,22 +8756,22 @@
         <v>134</v>
       </c>
       <c r="K79" s="31" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L79" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M79" s="33">
-        <v>17.586749999999999</v>
+        <v>8.3324999999999996</v>
       </c>
       <c r="N79" s="36">
-        <v>0.14098532986481299</v>
+        <v>0.14027398739873989</v>
       </c>
       <c r="O79" s="37">
-        <v>75.575891758635905</v>
+        <v>125.39890912333249</v>
       </c>
       <c r="P79" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="2:16">
@@ -8903,10 +8779,10 @@
         <v>130</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E80" s="30" t="s">
         <v>10</v>
@@ -8921,22 +8797,22 @@
         <v>134</v>
       </c>
       <c r="K80" s="30" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L80" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M80" s="32">
-        <v>3.6150000000000002</v>
+        <v>1.488</v>
       </c>
       <c r="N80" s="34">
-        <v>0.1406161825726141</v>
+        <v>0.13168245967741934</v>
       </c>
       <c r="O80" s="35">
-        <v>150.06395784066896</v>
+        <v>126.14890064628226</v>
       </c>
       <c r="P80" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="2:16">
@@ -8944,10 +8820,10 @@
         <v>130</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E81" s="31" t="s">
         <v>10</v>
@@ -8962,22 +8838,22 @@
         <v>134</v>
       </c>
       <c r="K81" s="31" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L81" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M81" s="33">
-        <v>7.8765000000000001</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="N81" s="36">
-        <v>0.13997676633022282</v>
+        <v>0.13113530927835051</v>
       </c>
       <c r="O81" s="37">
-        <v>114.37033773201291</v>
+        <v>166.73733349098976</v>
       </c>
       <c r="P81" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="2:16">
@@ -8985,10 +8861,10 @@
         <v>130</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>10</v>
@@ -9003,22 +8879,22 @@
         <v>134</v>
       </c>
       <c r="K82" s="30" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L82" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M82" s="32">
-        <v>9.98475</v>
+        <v>7.0350000000000001</v>
       </c>
       <c r="N82" s="34">
-        <v>0.13989769398332458</v>
+        <v>0.13010810234541578</v>
       </c>
       <c r="O82" s="35">
-        <v>124.79513999555358</v>
+        <v>76.164680286099511</v>
       </c>
       <c r="P82" s="32">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="2:16">
@@ -9026,10 +8902,10 @@
         <v>130</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E83" s="31" t="s">
         <v>10</v>
@@ -9044,22 +8920,22 @@
         <v>134</v>
       </c>
       <c r="K83" s="31" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L83" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M83" s="33">
-        <v>3.4394999999999998</v>
+        <v>6.4702500000000001</v>
       </c>
       <c r="N83" s="36">
-        <v>0.13109158307893592</v>
+        <v>0.12971183493682625</v>
       </c>
       <c r="O83" s="37">
-        <v>165.82548811362554</v>
+        <v>113.23270671416341</v>
       </c>
       <c r="P83" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="2:16">
@@ -9067,10 +8943,10 @@
         <v>130</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>10</v>
@@ -9085,22 +8961,22 @@
         <v>134</v>
       </c>
       <c r="K84" s="30" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L84" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M84" s="32">
-        <v>1.665</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="N84" s="34">
-        <v>0.13086216216216218</v>
+        <v>0.12844504310344829</v>
       </c>
       <c r="O84" s="35">
-        <v>143.23470901773169</v>
+        <v>97.494106041881849</v>
       </c>
       <c r="P84" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="2:16">
@@ -9108,10 +8984,10 @@
         <v>130</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E85" s="31" t="s">
         <v>10</v>
@@ -9126,22 +9002,22 @@
         <v>134</v>
       </c>
       <c r="K85" s="31" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L85" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M85" s="33">
-        <v>10.984500000000001</v>
+        <v>6.1792499999999997</v>
       </c>
       <c r="N85" s="36">
-        <v>0.13060385088078658</v>
+        <v>0.124</v>
       </c>
       <c r="O85" s="37">
-        <v>77.378523369526789</v>
+        <v>83.558151571520739</v>
       </c>
       <c r="P85" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="2:16">
@@ -9149,10 +9025,10 @@
         <v>130</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>10</v>
@@ -9167,22 +9043,22 @@
         <v>134</v>
       </c>
       <c r="K86" s="30" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L86" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M86" s="32">
-        <v>3.2160000000000002</v>
+        <v>7.1992500000000001</v>
       </c>
       <c r="N86" s="34">
-        <v>0.13053194962686568</v>
+        <v>0.12313657672674237</v>
       </c>
       <c r="O86" s="35">
-        <v>105.0046965629307</v>
+        <v>70.969352182338113</v>
       </c>
       <c r="P86" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:16">
@@ -9190,10 +9066,10 @@
         <v>130</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E87" s="31" t="s">
         <v>10</v>
@@ -9208,22 +9084,22 @@
         <v>134</v>
       </c>
       <c r="K87" s="31" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L87" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M87" s="33">
-        <v>10.58325</v>
+        <v>2.9482499999999998</v>
       </c>
       <c r="N87" s="36">
-        <v>0.12928119906455959</v>
+        <v>0.12221851946069703</v>
       </c>
       <c r="O87" s="37">
-        <v>113.66522507289309</v>
+        <v>74.426975961881794</v>
       </c>
       <c r="P87" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="2:16">
@@ -9231,10 +9107,10 @@
         <v>130</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E88" s="30" t="s">
         <v>10</v>
@@ -9249,22 +9125,22 @@
         <v>134</v>
       </c>
       <c r="K88" s="30" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L88" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M88" s="32">
-        <v>6.1852499999999999</v>
+        <v>2.05125</v>
       </c>
       <c r="N88" s="34">
-        <v>0.12399223960227962</v>
+        <v>0.12198391224862888</v>
       </c>
       <c r="O88" s="35">
-        <v>83.601895224043659</v>
+        <v>80.395683622216524</v>
       </c>
       <c r="P88" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="2:16">
@@ -9272,10 +9148,10 @@
         <v>130</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E89" s="31" t="s">
         <v>10</v>
@@ -9290,22 +9166,22 @@
         <v>134</v>
       </c>
       <c r="K89" s="31" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L89" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M89" s="33">
-        <v>13.6395</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N89" s="36">
-        <v>0.12370042890135269</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="O89" s="37">
-        <v>83.001478948208913</v>
+        <v>128.65238936606571</v>
       </c>
       <c r="P89" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="2:16">
@@ -9313,10 +9189,10 @@
         <v>130</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E90" s="30" t="s">
         <v>10</v>
@@ -9331,22 +9207,22 @@
         <v>134</v>
       </c>
       <c r="K90" s="30" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L90" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M90" s="32">
-        <v>14.3985</v>
+        <v>0.43575000000000003</v>
       </c>
       <c r="N90" s="34">
-        <v>0.12313657672674237</v>
+        <v>0.113</v>
       </c>
       <c r="O90" s="35">
-        <v>70.969352182338113</v>
+        <v>120.30091898433189</v>
       </c>
       <c r="P90" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="2:16">
@@ -9354,10 +9230,10 @@
         <v>130</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>10</v>
@@ -9372,22 +9248,22 @@
         <v>134</v>
       </c>
       <c r="K91" s="31" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L91" s="31" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M91" s="33">
-        <v>2.6767500000000002</v>
+        <v>0.03</v>
       </c>
       <c r="N91" s="36">
-        <v>0.12296917904174839</v>
+        <v>0.113</v>
       </c>
       <c r="O91" s="37">
-        <v>74.623869308565816</v>
+        <v>94.983314628615091</v>
       </c>
       <c r="P91" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="2:16">
@@ -9395,10 +9271,10 @@
         <v>130</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E92" s="30" t="s">
         <v>10</v>
@@ -9413,22 +9289,22 @@
         <v>134</v>
       </c>
       <c r="K92" s="30" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L92" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M92" s="32">
-        <v>5.8964999999999996</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="N92" s="34">
-        <v>0.12221851946069703</v>
+        <v>0.108</v>
       </c>
       <c r="O92" s="35">
-        <v>74.426975961881794</v>
+        <v>79.09770314447556</v>
       </c>
       <c r="P92" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="2:16">
@@ -9436,40 +9312,40 @@
         <v>130</v>
       </c>
       <c r="C93" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H93" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="K93" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="L93" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="D93" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H93" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K93" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="L93" s="31" t="s">
-        <v>389</v>
-      </c>
       <c r="M93" s="33">
-        <v>0.43575000000000003</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="N93" s="36">
-        <v>0.113</v>
+        <v>0.10799999999999998</v>
       </c>
       <c r="O93" s="37">
-        <v>120.30091898433189</v>
+        <v>100.69479933322324</v>
       </c>
       <c r="P93" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="2:16">
@@ -9477,10 +9353,10 @@
         <v>130</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E94" s="30" t="s">
         <v>10</v>
@@ -9495,227 +9371,22 @@
         <v>134</v>
       </c>
       <c r="K94" s="30" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L94" s="30" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M94" s="32">
-        <v>0.03</v>
+        <v>5.1749999999999997E-2</v>
       </c>
       <c r="N94" s="34">
-        <v>0.113</v>
+        <v>0.104</v>
       </c>
       <c r="O94" s="35">
-        <v>94.983314628615091</v>
+        <v>74.16840218346799</v>
       </c>
       <c r="P94" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16">
-      <c r="B95" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="E95" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H95" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K95" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="L95" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="M95" s="33">
-        <v>0.43575000000000003</v>
-      </c>
-      <c r="N95" s="36">
-        <v>0.113</v>
-      </c>
-      <c r="O95" s="37">
-        <v>120.30091898433189</v>
-      </c>
-      <c r="P95" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16">
-      <c r="B96" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="H96" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K96" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="L96" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="M96" s="32">
-        <v>7.5000000000000002E-4</v>
-      </c>
-      <c r="N96" s="34">
-        <v>0.108</v>
-      </c>
-      <c r="O96" s="35">
-        <v>79.09770314447556</v>
-      </c>
-      <c r="P96" s="32">
         <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:16">
-      <c r="B97" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C97" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="D97" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="E97" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H97" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K97" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="L97" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="M97" s="33">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="N97" s="36">
-        <v>0.10799999999999998</v>
-      </c>
-      <c r="O97" s="37">
-        <v>100.69479933322324</v>
-      </c>
-      <c r="P97" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:16">
-      <c r="B98" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C98" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="H98" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K98" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="L98" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="M98" s="32">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="N98" s="34">
-        <v>0.104</v>
-      </c>
-      <c r="O98" s="35">
-        <v>74.16840218346799</v>
-      </c>
-      <c r="P98" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:16">
-      <c r="B99" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="D99" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="E99" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H99" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K99" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="L99" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="M99" s="33">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="N99" s="36">
-        <v>0.104</v>
-      </c>
-      <c r="O99" s="37">
-        <v>74.16840218346799</v>
-      </c>
-      <c r="P99" s="33">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9728,7 +9399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC927238-405E-4772-BB16-F677370D6841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E7E126-ECAC-4909-8C2B-AA2D5AAB1AD2}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9771,10 +9442,10 @@
         <v>111</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E3" s="29">
         <v>2023</v>
@@ -9812,7 +9483,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="B4" s="30" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>33</v>
@@ -9830,13 +9501,13 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>130</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="30" t="s">
@@ -9846,15 +9517,15 @@
         <v>21</v>
       </c>
       <c r="P4" s="30" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="30" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="31" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>33</v>
@@ -9872,13 +9543,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>130</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="M5" s="31"/>
       <c r="N5" s="31" t="s">
@@ -9888,15 +9559,15 @@
         <v>21</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="30" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>33</v>
@@ -9914,13 +9585,13 @@
         <v>5100</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="K6" s="30" t="s">
         <v>130</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30" t="s">
@@ -9930,15 +9601,15 @@
         <v>21</v>
       </c>
       <c r="P6" s="30" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="31" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>33</v>
@@ -9956,13 +9627,13 @@
         <v>175</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>130</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="M7" s="31"/>
       <c r="N7" s="31" t="s">
@@ -9972,15 +9643,15 @@
         <v>21</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="B8" s="30" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>33</v>
@@ -9998,13 +9669,13 @@
         <v>3</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="K8" s="30" t="s">
         <v>130</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="M8" s="30"/>
       <c r="N8" s="30" t="s">
@@ -10014,15 +9685,15 @@
         <v>21</v>
       </c>
       <c r="P8" s="30" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q8" s="30" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" s="31" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>33</v>
@@ -10040,13 +9711,13 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>130</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="M9" s="31"/>
       <c r="N9" s="31" t="s">
@@ -10056,15 +9727,15 @@
         <v>21</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="30" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>33</v>
@@ -10082,13 +9753,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="K10" s="30" t="s">
         <v>130</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="30" t="s">
@@ -10098,15 +9769,15 @@
         <v>21</v>
       </c>
       <c r="P10" s="30" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="31" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>33</v>
@@ -10124,13 +9795,13 @@
         <v>2300</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>130</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="31" t="s">
@@ -10140,15 +9811,15 @@
         <v>21</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="30" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>33</v>
@@ -10166,13 +9837,13 @@
         <v>80</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>130</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12" s="30" t="s">
@@ -10182,15 +9853,15 @@
         <v>21</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q12" s="30" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="31" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>33</v>
@@ -10208,13 +9879,13 @@
         <v>3</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="K13" s="31" t="s">
         <v>130</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="M13" s="31"/>
       <c r="N13" s="31" t="s">
@@ -10224,15 +9895,15 @@
         <v>21</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="30" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>35</v>
@@ -10250,13 +9921,13 @@
         <v>0.61</v>
       </c>
       <c r="H14" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="30" t="s">
         <v>392</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>406</v>
       </c>
       <c r="M14" s="30"/>
       <c r="N14" s="30" t="s">
@@ -10266,15 +9937,15 @@
         <v>21</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="30" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="31" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>35</v>
@@ -10292,13 +9963,13 @@
         <v>1000</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>130</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="M15" s="31"/>
       <c r="N15" s="31" t="s">
@@ -10308,15 +9979,15 @@
         <v>21</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="B16" s="30" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>35</v>
@@ -10334,13 +10005,13 @@
         <v>25</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>130</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="M16" s="30"/>
       <c r="N16" s="30" t="s">
@@ -10350,15 +10021,15 @@
         <v>21</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="30" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="31" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>35</v>
@@ -10376,13 +10047,13 @@
         <v>0.54</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="K17" s="31" t="s">
         <v>130</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="M17" s="31"/>
       <c r="N17" s="31" t="s">
@@ -10392,15 +10063,15 @@
         <v>21</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="30" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>35</v>
@@ -10418,13 +10089,13 @@
         <v>2400</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="K18" s="30" t="s">
         <v>130</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="30" t="s">
@@ -10434,15 +10105,15 @@
         <v>21</v>
       </c>
       <c r="P18" s="30" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="30" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="31" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>35</v>
@@ -10460,13 +10131,13 @@
         <v>60</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>130</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="M19" s="31"/>
       <c r="N19" s="31" t="s">
@@ -10476,15 +10147,15 @@
         <v>21</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="30" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>34</v>
@@ -10502,13 +10173,13 @@
         <v>0.39</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="K20" s="30" t="s">
         <v>130</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="30" t="s">
@@ -10518,15 +10189,15 @@
         <v>21</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="31" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>34</v>
@@ -10544,12 +10215,12 @@
         <v>4350</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="30" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>34</v>
@@ -10567,12 +10238,12 @@
         <v>130</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="31" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>35</v>
@@ -10590,12 +10261,12 @@
         <v>0.42</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="30" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>35</v>
@@ -10613,12 +10284,12 @@
         <v>500</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="31" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>35</v>
@@ -10636,12 +10307,12 @@
         <v>20</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="30" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>29</v>
@@ -10659,12 +10330,12 @@
         <v>1</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="31" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>29</v>
@@ -10682,12 +10353,12 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="30" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>29</v>
@@ -10705,12 +10376,12 @@
         <v>2650</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="31" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>29</v>
@@ -10728,12 +10399,12 @@
         <v>65</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="30" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>29</v>
@@ -10751,12 +10422,12 @@
         <v>4</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="31" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>35</v>
@@ -10774,12 +10445,12 @@
         <v>0.5</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="30" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>35</v>
@@ -10797,12 +10468,12 @@
         <v>2300</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="31" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>35</v>
@@ -10820,12 +10491,12 @@
         <v>80</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="30" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>34</v>
@@ -10843,12 +10514,12 @@
         <v>0.43</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="31" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C35" s="31" t="s">
         <v>34</v>
@@ -10866,12 +10537,12 @@
         <v>5100</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="30" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>34</v>
@@ -10889,12 +10560,12 @@
         <v>180</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="31" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>38</v>
@@ -10912,12 +10583,12 @@
         <v>0.33</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="30" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>38</v>
@@ -10935,12 +10606,12 @@
         <v>4500</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="31" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>38</v>
@@ -10958,12 +10629,12 @@
         <v>160</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="30" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>34</v>
@@ -10981,12 +10652,12 @@
         <v>0.39</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="31" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C41" s="31" t="s">
         <v>34</v>
@@ -11004,12 +10675,12 @@
         <v>5100</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="30" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>34</v>
@@ -11027,12 +10698,12 @@
         <v>155</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="31" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>27</v>
@@ -11050,12 +10721,12 @@
         <v>1</v>
       </c>
       <c r="H43" s="31" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="30" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>27</v>
@@ -11073,12 +10744,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="31" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>27</v>
@@ -11096,12 +10767,12 @@
         <v>340</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="30" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>27</v>
@@ -11119,12 +10790,12 @@
         <v>10</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="31" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>27</v>
@@ -11142,12 +10813,12 @@
         <v>1.5</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="30" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>34</v>
@@ -11165,12 +10836,12 @@
         <v>0.39</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="31" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>34</v>
@@ -11188,12 +10859,12 @@
         <v>1700</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="30" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>34</v>
@@ -11211,12 +10882,12 @@
         <v>45</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="31" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>34</v>
@@ -11234,12 +10905,12 @@
         <v>0.43</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="30" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>34</v>
@@ -11257,12 +10928,12 @@
         <v>2000</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="31" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C53" s="31" t="s">
         <v>34</v>
@@ -11280,12 +10951,12 @@
         <v>60</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="30" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>34</v>
@@ -11303,12 +10974,12 @@
         <v>0.48</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="31" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C55" s="31" t="s">
         <v>34</v>
@@ -11326,12 +10997,12 @@
         <v>2200</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="30" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>34</v>
@@ -11349,12 +11020,12 @@
         <v>65</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="31" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>28</v>
@@ -11372,12 +11043,12 @@
         <v>1</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="30" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C58" s="30" t="s">
         <v>28</v>
@@ -11395,12 +11066,12 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="31" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>28</v>
@@ -11418,12 +11089,12 @@
         <v>1660</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="30" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C60" s="30" t="s">
         <v>28</v>
@@ -11441,12 +11112,12 @@
         <v>40</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="31" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C61" s="31" t="s">
         <v>28</v>
@@ -11464,12 +11135,12 @@
         <v>3</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="30" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C62" s="30" t="s">
         <v>28</v>
@@ -11487,12 +11158,12 @@
         <v>1</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="31" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>28</v>
@@ -11510,12 +11181,12 @@
         <v>0.3</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="30" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>28</v>
@@ -11533,12 +11204,12 @@
         <v>1490</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="31" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>28</v>
@@ -11556,12 +11227,12 @@
         <v>38</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="30" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C66" s="30" t="s">
         <v>28</v>
@@ -11579,7 +11250,7 @@
         <v>1.5</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E1A696-8A70-4673-9F63-40F8281F3304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EBFDF6-6B55-4C0F-AE9B-EC0273498BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -800,18 +800,18 @@
     <t>wind resource -- CF class won-ITA_25 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_25_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-ITA_25_c3</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_25_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-ITA_24_c2</t>
   </si>
   <si>
@@ -1202,16 +1202,16 @@
     <t>wind resource -- CF class won-ITA_12 -- cost class 5</t>
   </si>
   <si>
+    <t>e_won-ITA_11_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_11 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-ITA_11_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_11 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-ITA_11_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_11 -- cost class 2</t>
   </si>
   <si>
     <t>e_won-ITA_11_c1</t>
@@ -1683,7 +1683,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671C1EF8-6495-CE20-6BA2-765148750C85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD1B580-D43F-CDAD-3C3D-DFF7EC31DA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1738,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F41B15-648C-619D-2D64-6547AEDBC138}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B31F36-A157-F23F-E783-9BDCF41E8009}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1793,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5B99E3-53B6-0CC3-B0B1-663654CF1835}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE95AB8-6011-14BA-57B7-033EADA655BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,7 +1848,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30EB46E5-9734-4933-3D11-CC97D37C738C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A585E7E-926A-1594-365B-6583FABA39D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4375,7 +4375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D41F70-5B2F-4EBA-B8E8-4C5397E2AA55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802BA7CF-D993-4732-9124-DB2146E619A2}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5575,7 +5575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7853C85-4A50-45A3-B43E-3313502CF504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A5BEE8-EDAA-4510-A8A6-8E06FBF19C4A}">
   <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6466,16 +6466,16 @@
         <v>375</v>
       </c>
       <c r="M23" s="33">
-        <v>4.4999999999999997E-3</v>
+        <v>3.2032500000000002</v>
       </c>
       <c r="N23" s="36">
         <v>0.245</v>
       </c>
       <c r="O23" s="37">
-        <v>107.03467623779731</v>
+        <v>42.969340484621256</v>
       </c>
       <c r="P23" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -6507,16 +6507,16 @@
         <v>375</v>
       </c>
       <c r="M24" s="32">
-        <v>3.2032500000000002</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="N24" s="34">
         <v>0.245</v>
       </c>
       <c r="O24" s="35">
-        <v>42.969340484621256</v>
+        <v>107.03467623779731</v>
       </c>
       <c r="P24" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -9213,16 +9213,16 @@
         <v>375</v>
       </c>
       <c r="M90" s="32">
-        <v>0.43575000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="N90" s="34">
         <v>0.113</v>
       </c>
       <c r="O90" s="35">
-        <v>120.30091898433189</v>
+        <v>94.983314628615091</v>
       </c>
       <c r="P90" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="2:16">
@@ -9254,16 +9254,16 @@
         <v>375</v>
       </c>
       <c r="M91" s="33">
-        <v>0.03</v>
+        <v>0.43575000000000003</v>
       </c>
       <c r="N91" s="36">
         <v>0.113</v>
       </c>
       <c r="O91" s="37">
-        <v>94.983314628615091</v>
+        <v>120.30091898433189</v>
       </c>
       <c r="P91" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="2:16">
@@ -9399,7 +9399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E7E126-ECAC-4909-8C2B-AA2D5AAB1AD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FDA8AF-2CE0-4D52-BB27-8088B569E548}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA89C3BF-C808-4516-A51F-B181884C9D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD156EC3-D3F9-4DDA-9DE7-F3D552A4D2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -949,18 +949,18 @@
     <t>wind resource -- CF class won-ITA_25 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_25_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-ITA_25_c3</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_25_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-ITA_24_c2</t>
   </si>
   <si>
@@ -1351,16 +1351,16 @@
     <t>wind resource -- CF class won-ITA_12 -- cost class 5</t>
   </si>
   <si>
+    <t>e_won-ITA_11_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_11 -- cost class 4</t>
+  </si>
+  <si>
     <t>e_won-ITA_11_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_11 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-ITA_11_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_11 -- cost class 4</t>
   </si>
   <si>
     <t>e_won-ITA_11_c1</t>
@@ -2497,7 +2497,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC459EE0-2A90-1DD8-91F2-1C330AB0FD1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7566876-DF54-6042-4980-126A563BB9A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2552,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23041752-4BD2-8116-4876-59A54C64B1A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251245A0-B98A-3B5C-D33F-8A77E072245A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2607,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FE34BE-4ED3-DCCB-64CC-0D6E93FD22F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0612A73-9121-3AAA-23CB-68C734AFF738}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2662,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9CCAEE-168B-B4D5-47F0-C19C70F6F5E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F49161E-2F2E-E097-ED8F-E3D766AB2864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6592,7 +6592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768DEBFD-919F-40EA-8E4C-49A3450457D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11442DC-4C52-4A63-BA82-F5A1000AA215}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7792,7 +7792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A91FF39-022D-4CEE-AE0A-70AC6B519573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8896AC-B5E9-49E0-80D2-A0C817A9C078}">
   <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8683,16 +8683,16 @@
         <v>417</v>
       </c>
       <c r="M23" s="159">
-        <v>4.4999999999999997E-3</v>
+        <v>3.2032500000000002</v>
       </c>
       <c r="N23" s="162">
         <v>0.245</v>
       </c>
       <c r="O23" s="163">
-        <v>107.03467623779731</v>
+        <v>42.969340484621256</v>
       </c>
       <c r="P23" s="159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -8724,16 +8724,16 @@
         <v>417</v>
       </c>
       <c r="M24" s="158">
-        <v>3.2032500000000002</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="N24" s="160">
         <v>0.245</v>
       </c>
       <c r="O24" s="161">
-        <v>42.969340484621256</v>
+        <v>107.03467623779731</v>
       </c>
       <c r="P24" s="158">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -11430,16 +11430,16 @@
         <v>417</v>
       </c>
       <c r="M90" s="158">
-        <v>0.03</v>
+        <v>0.43575000000000003</v>
       </c>
       <c r="N90" s="160">
         <v>0.113</v>
       </c>
       <c r="O90" s="161">
-        <v>94.983314628615091</v>
+        <v>120.30091898433189</v>
       </c>
       <c r="P90" s="158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="2:16">
@@ -11471,16 +11471,16 @@
         <v>417</v>
       </c>
       <c r="M91" s="159">
-        <v>0.43575000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="N91" s="162">
         <v>0.113</v>
       </c>
       <c r="O91" s="163">
-        <v>120.30091898433189</v>
+        <v>94.983314628615091</v>
       </c>
       <c r="P91" s="159">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="2:16">
@@ -11616,7 +11616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B24C1A-3B68-4220-852B-3FC4379CA807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30803247-FBA9-480A-83D8-332DC8D2EC0B}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD156EC3-D3F9-4DDA-9DE7-F3D552A4D2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B154686-6FFE-4D4B-BC81-CEFB6225E4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1351,16 +1351,16 @@
     <t>wind resource -- CF class won-ITA_12 -- cost class 5</t>
   </si>
   <si>
+    <t>e_won-ITA_11_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_11 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-ITA_11_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_11 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-ITA_11_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_11 -- cost class 2</t>
   </si>
   <si>
     <t>e_won-ITA_11_c1</t>
@@ -2497,7 +2497,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7566876-DF54-6042-4980-126A563BB9A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C7D49D-5F2C-042F-93AC-B2AEEFA0F6F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2552,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251245A0-B98A-3B5C-D33F-8A77E072245A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0FBF04-7A8D-516B-E7C4-F557F6857409}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2607,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0612A73-9121-3AAA-23CB-68C734AFF738}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E147F068-388C-1801-3A46-F0787A9DD024}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2662,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F49161E-2F2E-E097-ED8F-E3D766AB2864}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A21777-3E92-7911-92B1-5D65FF82135A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6592,7 +6592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11442DC-4C52-4A63-BA82-F5A1000AA215}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E7AFB4-6DC7-4E29-A846-2B9B38F1CB6F}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7792,7 +7792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8896AC-B5E9-49E0-80D2-A0C817A9C078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086C9CC9-DD47-408D-A42C-541955053A30}">
   <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11430,16 +11430,16 @@
         <v>417</v>
       </c>
       <c r="M90" s="158">
-        <v>0.43575000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="N90" s="160">
         <v>0.113</v>
       </c>
       <c r="O90" s="161">
-        <v>120.30091898433189</v>
+        <v>94.983314628615091</v>
       </c>
       <c r="P90" s="158">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="2:16">
@@ -11471,16 +11471,16 @@
         <v>417</v>
       </c>
       <c r="M91" s="159">
-        <v>0.03</v>
+        <v>0.43575000000000003</v>
       </c>
       <c r="N91" s="162">
         <v>0.113</v>
       </c>
       <c r="O91" s="163">
-        <v>94.983314628615091</v>
+        <v>120.30091898433189</v>
       </c>
       <c r="P91" s="159">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="2:16">
@@ -11616,7 +11616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30803247-FBA9-480A-83D8-332DC8D2EC0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B7C7F0-C638-48A6-8473-7D8FB11CA13F}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B154686-6FFE-4D4B-BC81-CEFB6225E4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64040C98-5EDF-4590-AF47-CEC899E615DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -949,16 +949,16 @@
     <t>wind resource -- CF class won-ITA_25 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_25_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-ITA_25_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-ITA_25_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
   </si>
   <si>
     <t>e_won-ITA_24_c2</t>
@@ -2497,7 +2497,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C7D49D-5F2C-042F-93AC-B2AEEFA0F6F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83B01AA-23EE-6A8B-3ABB-46E694692E1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2552,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0FBF04-7A8D-516B-E7C4-F557F6857409}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFC317D-6011-6538-476F-001ABF5127D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2607,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E147F068-388C-1801-3A46-F0787A9DD024}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EE8D1A-D28E-5C53-4A23-47E1FCB8F05F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2662,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A21777-3E92-7911-92B1-5D65FF82135A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790C8EE5-2BD2-80CF-5750-E635515941D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6592,7 +6592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E7AFB4-6DC7-4E29-A846-2B9B38F1CB6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18EF494-444E-4D8F-A08B-33C06AC41FD5}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7792,7 +7792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086C9CC9-DD47-408D-A42C-541955053A30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001456A7-802A-4C09-B559-D81A2D213E24}">
   <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8683,16 +8683,16 @@
         <v>417</v>
       </c>
       <c r="M23" s="159">
-        <v>3.2032500000000002</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="N23" s="162">
         <v>0.245</v>
       </c>
       <c r="O23" s="163">
-        <v>42.969340484621256</v>
+        <v>107.03467623779731</v>
       </c>
       <c r="P23" s="159">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -8724,16 +8724,16 @@
         <v>417</v>
       </c>
       <c r="M24" s="158">
-        <v>4.4999999999999997E-3</v>
+        <v>3.2032500000000002</v>
       </c>
       <c r="N24" s="160">
         <v>0.245</v>
       </c>
       <c r="O24" s="161">
-        <v>107.03467623779731</v>
+        <v>42.969340484621256</v>
       </c>
       <c r="P24" s="158">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -11616,7 +11616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B7C7F0-C638-48A6-8473-7D8FB11CA13F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE6CC60-2AD4-41B0-B23B-6461F0773832}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64040C98-5EDF-4590-AF47-CEC899E615DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEECC3E-FEA1-44ED-ABA2-593FB37B8697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2497,7 +2497,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83B01AA-23EE-6A8B-3ABB-46E694692E1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791D730A-1AFF-B72F-932E-9C56196BD7A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2552,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFC317D-6011-6538-476F-001ABF5127D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4BB63EA-6B09-19B0-326B-C2B9CCBDC233}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2607,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EE8D1A-D28E-5C53-4A23-47E1FCB8F05F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBEE083-546F-F37B-1E34-673057299BCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2662,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790C8EE5-2BD2-80CF-5750-E635515941D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D999A44C-53BD-1826-0EB6-B599E9CA541A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6592,7 +6592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18EF494-444E-4D8F-A08B-33C06AC41FD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598FCB13-47FA-4D27-8998-0EA50BC9919C}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7792,7 +7792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001456A7-802A-4C09-B559-D81A2D213E24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF0CCA4-C630-4546-9800-1429B5DCB125}">
   <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11616,7 +11616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE6CC60-2AD4-41B0-B23B-6461F0773832}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887FE71D-0738-40F1-80EE-94667F3AF701}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEECC3E-FEA1-44ED-ABA2-593FB37B8697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2A43EF-874B-41B7-A221-D40BE1715CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1351,16 +1351,16 @@
     <t>wind resource -- CF class won-ITA_12 -- cost class 5</t>
   </si>
   <si>
+    <t>e_won-ITA_11_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_11 -- cost class 4</t>
+  </si>
+  <si>
     <t>e_won-ITA_11_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_11 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-ITA_11_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_11 -- cost class 4</t>
   </si>
   <si>
     <t>e_won-ITA_11_c1</t>
@@ -2497,7 +2497,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791D730A-1AFF-B72F-932E-9C56196BD7A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8914948-6DA8-DBE1-6C18-E5F916692B36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2552,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4BB63EA-6B09-19B0-326B-C2B9CCBDC233}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B02A1C-0A26-6DEB-9D06-6D2845BCA531}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2607,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBEE083-546F-F37B-1E34-673057299BCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BE713B-6747-D56E-EE41-65E535542A9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2662,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D999A44C-53BD-1826-0EB6-B599E9CA541A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335F76D5-70BD-991E-E1FC-26AA87CC5238}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6592,7 +6592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598FCB13-47FA-4D27-8998-0EA50BC9919C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C697C6-B4A2-4A0D-A719-6AF91BC6F17F}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7792,7 +7792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF0CCA4-C630-4546-9800-1429B5DCB125}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58B8F73-51DC-4C17-B220-AFAD6FB666F9}">
   <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11430,16 +11430,16 @@
         <v>417</v>
       </c>
       <c r="M90" s="158">
-        <v>0.03</v>
+        <v>0.43575000000000003</v>
       </c>
       <c r="N90" s="160">
         <v>0.113</v>
       </c>
       <c r="O90" s="161">
-        <v>94.983314628615091</v>
+        <v>120.30091898433189</v>
       </c>
       <c r="P90" s="158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="2:16">
@@ -11471,16 +11471,16 @@
         <v>417</v>
       </c>
       <c r="M91" s="159">
-        <v>0.43575000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="N91" s="162">
         <v>0.113</v>
       </c>
       <c r="O91" s="163">
-        <v>120.30091898433189</v>
+        <v>94.983314628615091</v>
       </c>
       <c r="P91" s="159">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="2:16">
@@ -11616,7 +11616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887FE71D-0738-40F1-80EE-94667F3AF701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEABAD5-4E44-4A45-9F71-87703170EE12}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2A43EF-874B-41B7-A221-D40BE1715CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE5DFC5-65BC-45DC-AF4C-64EA90304840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -949,18 +949,18 @@
     <t>wind resource -- CF class won-ITA_25 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_25_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-ITA_25_c3</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-ITA_25_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-ITA_24_c2</t>
   </si>
   <si>
@@ -1351,16 +1351,16 @@
     <t>wind resource -- CF class won-ITA_12 -- cost class 5</t>
   </si>
   <si>
+    <t>e_won-ITA_11_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_11 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-ITA_11_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_11 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-ITA_11_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_11 -- cost class 2</t>
   </si>
   <si>
     <t>e_won-ITA_11_c1</t>
@@ -2497,7 +2497,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8914948-6DA8-DBE1-6C18-E5F916692B36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE97D37-D8B8-2D73-B21A-CE57ECB0E5A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2552,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B02A1C-0A26-6DEB-9D06-6D2845BCA531}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B5BC4A-0A05-D494-A2CA-BE82E5AE6BD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2607,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BE713B-6747-D56E-EE41-65E535542A9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FD31C5-FAE9-3AA5-67CA-BE11F1FBC934}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2662,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335F76D5-70BD-991E-E1FC-26AA87CC5238}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689A4E60-DC83-0DD5-7A0A-35FC9E90C0D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6592,7 +6592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C697C6-B4A2-4A0D-A719-6AF91BC6F17F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6115380-A2E0-40D6-94E2-F5EF4D006D63}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7792,7 +7792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58B8F73-51DC-4C17-B220-AFAD6FB666F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330BA2FF-B0B0-4F22-9C62-A9BD1A83EE07}">
   <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8683,16 +8683,16 @@
         <v>417</v>
       </c>
       <c r="M23" s="159">
-        <v>4.4999999999999997E-3</v>
+        <v>3.2032500000000002</v>
       </c>
       <c r="N23" s="162">
         <v>0.245</v>
       </c>
       <c r="O23" s="163">
-        <v>107.03467623779731</v>
+        <v>42.969340484621256</v>
       </c>
       <c r="P23" s="159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -8724,16 +8724,16 @@
         <v>417</v>
       </c>
       <c r="M24" s="158">
-        <v>3.2032500000000002</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="N24" s="160">
         <v>0.245</v>
       </c>
       <c r="O24" s="161">
-        <v>42.969340484621256</v>
+        <v>107.03467623779731</v>
       </c>
       <c r="P24" s="158">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -11430,16 +11430,16 @@
         <v>417</v>
       </c>
       <c r="M90" s="158">
-        <v>0.43575000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="N90" s="160">
         <v>0.113</v>
       </c>
       <c r="O90" s="161">
-        <v>120.30091898433189</v>
+        <v>94.983314628615091</v>
       </c>
       <c r="P90" s="158">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="2:16">
@@ -11471,16 +11471,16 @@
         <v>417</v>
       </c>
       <c r="M91" s="159">
-        <v>0.03</v>
+        <v>0.43575000000000003</v>
       </c>
       <c r="N91" s="162">
         <v>0.113</v>
       </c>
       <c r="O91" s="163">
-        <v>94.983314628615091</v>
+        <v>120.30091898433189</v>
       </c>
       <c r="P91" s="159">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="2:16">
@@ -11616,7 +11616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEABAD5-4E44-4A45-9F71-87703170EE12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB19AA4-CF2A-4DC0-812B-01C6605AFDE1}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE5DFC5-65BC-45DC-AF4C-64EA90304840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEF1CD09-A796-47DC-80C1-1BC0A5716BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,18 +853,18 @@
     <t>wind resource -- CF class won-ITA_33 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_32_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_32 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-ITA_32_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_32 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-ITA_32_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_32 -- cost class 3</t>
-  </si>
-  <si>
     <t>e_won-ITA_32_c2</t>
   </si>
   <si>
@@ -949,16 +949,16 @@
     <t>wind resource -- CF class won-ITA_25 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-ITA_25_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-ITA_25_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-ITA_25 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-ITA_25_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-ITA_25 -- cost class 3</t>
   </si>
   <si>
     <t>e_won-ITA_24_c2</t>
@@ -2497,7 +2497,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE97D37-D8B8-2D73-B21A-CE57ECB0E5A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343B99DC-92EC-5942-D7B6-3C8834D0F22B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2552,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B5BC4A-0A05-D494-A2CA-BE82E5AE6BD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F079502C-41D6-AECC-F54C-4133F22B0092}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2607,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FD31C5-FAE9-3AA5-67CA-BE11F1FBC934}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C36D4AC-D9C7-1E32-8FC5-454C25144A9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2662,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689A4E60-DC83-0DD5-7A0A-35FC9E90C0D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD90FBE-5965-7B01-D736-4BFE51E56865}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6592,7 +6592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6115380-A2E0-40D6-94E2-F5EF4D006D63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC352F26-178F-4075-8BA1-2F87C8DA8BD4}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7792,7 +7792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330BA2FF-B0B0-4F22-9C62-A9BD1A83EE07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AFA001-AC6F-481A-B3D2-E1DC644315DB}">
   <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8027,16 +8027,16 @@
         <v>417</v>
       </c>
       <c r="M7" s="159">
-        <v>1.5E-3</v>
+        <v>2.4990000000000001</v>
       </c>
       <c r="N7" s="162">
         <v>0.32200000000000001</v>
       </c>
       <c r="O7" s="163">
-        <v>31.372355844942916</v>
+        <v>39.630069093581724</v>
       </c>
       <c r="P7" s="159">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -8068,16 +8068,16 @@
         <v>417</v>
       </c>
       <c r="M8" s="158">
-        <v>2.4990000000000001</v>
+        <v>1.5E-3</v>
       </c>
       <c r="N8" s="160">
         <v>0.32200000000000001</v>
       </c>
       <c r="O8" s="161">
-        <v>39.630069093581724</v>
+        <v>31.372355844942916</v>
       </c>
       <c r="P8" s="158">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -8683,16 +8683,16 @@
         <v>417</v>
       </c>
       <c r="M23" s="159">
-        <v>3.2032500000000002</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="N23" s="162">
         <v>0.245</v>
       </c>
       <c r="O23" s="163">
-        <v>42.969340484621256</v>
+        <v>107.03467623779731</v>
       </c>
       <c r="P23" s="159">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -8724,16 +8724,16 @@
         <v>417</v>
       </c>
       <c r="M24" s="158">
-        <v>4.4999999999999997E-3</v>
+        <v>3.2032500000000002</v>
       </c>
       <c r="N24" s="160">
         <v>0.245</v>
       </c>
       <c r="O24" s="161">
-        <v>107.03467623779731</v>
+        <v>42.969340484621256</v>
       </c>
       <c r="P24" s="158">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -11616,7 +11616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB19AA4-CF2A-4DC0-812B-01C6605AFDE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D85FE3-ED5B-4E67-8A11-F04F46332348}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F0ED6EC-F821-4A6B-BAB4-7774DEB5914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76DF49F8-83EF-44ED-8951-6697D24C2F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3952,7 +3952,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6150EF95-77F2-7DDD-FFBE-CC45544176B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAE4E9B-A37A-47A1-C476-E797AD1C62DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4007,7 +4007,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E32F63-C856-C92E-88AE-CC3DF6C319C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602D22E6-4BE3-1531-2912-459836BCFEF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4062,7 +4062,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689DDD02-5DE4-ED56-247E-5DFAA27453CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C595D5A-86AA-3CDD-2EC3-FF3262591753}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4117,7 +4117,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE312F3-6976-62EE-31B4-664E50B07B12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D155B3D7-A144-C012-5DA2-A69BF00F75F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8047,7 +8047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB656918-0691-4454-A826-FD3F75D20659}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEA6CEC-E1B7-4466-8E75-AE2FE8D4B3A1}">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9655,7 +9655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174C6C44-C8B6-4A0E-B85A-98AF2779E6EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5205E0B-184A-482F-8E30-092E8C4E3BDB}">
   <dimension ref="A1:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21638,7 +21638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686A12DB-4AB6-4D3D-8C34-106C8F94FC2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADC47A-2535-4E66-8B7B-1BCB754E5D95}">
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A6D3FCB-01BB-4D80-85F1-86382E1495DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DFD4E9A-CA48-42B5-B2E5-2EC93F2755F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667280C2-4562-40F1-901D-1670CB46EB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580E1426-AE54-4CD1-AB3E-69F1DB116AC2}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A2773D-9538-409C-B6CD-E80C57E35AC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CDC65C-CE69-469F-9060-38D18A48D88F}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E966BE4-4674-46E0-9403-C04B9F949B88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9AFDD2-2822-4D8E-BD9B-51A145A42D1F}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DFD4E9A-CA48-42B5-B2E5-2EC93F2755F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB910579-E4B0-4F16-A42B-32FA95AB15BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580E1426-AE54-4CD1-AB3E-69F1DB116AC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CCBB58-834E-4625-8262-80F4A8086253}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CDC65C-CE69-469F-9060-38D18A48D88F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A31881-D7DA-4CD5-855A-6BA01A12CB2A}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9AFDD2-2822-4D8E-BD9B-51A145A42D1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C1DA18-05B8-4C3B-A809-10F75B17A82F}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB910579-E4B0-4F16-A42B-32FA95AB15BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E94C2B2E-B5BE-4AC5-B279-7EA46C66F38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CCBB58-834E-4625-8262-80F4A8086253}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA089E8-0974-4FD3-82E2-C9F9E8AF33C3}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A31881-D7DA-4CD5-855A-6BA01A12CB2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB034FE-C973-418A-A628-96C81107A442}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C1DA18-05B8-4C3B-A809-10F75B17A82F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713A52EA-E54B-4B5F-917E-81FFA5A85F52}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E94C2B2E-B5BE-4AC5-B279-7EA46C66F38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87BF04F5-5EF2-407F-9993-BBE19711481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA089E8-0974-4FD3-82E2-C9F9E8AF33C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46CAF89-CCCF-4ED6-88F4-0D2534CED8F7}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB034FE-C973-418A-A628-96C81107A442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA17F8-A8E7-4817-BF12-7778AB1A92F3}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713A52EA-E54B-4B5F-917E-81FFA5A85F52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D0DFA0-8917-4B6C-A211-F8E1DFDC96B8}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87BF04F5-5EF2-407F-9993-BBE19711481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8724FC4-C658-4344-B87D-7CDC7CF7205E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46CAF89-CCCF-4ED6-88F4-0D2534CED8F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31304136-2D6A-4946-9919-63FD28B1FA64}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA17F8-A8E7-4817-BF12-7778AB1A92F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6236C74F-0A7A-4935-8891-E8E213DA4EE0}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D0DFA0-8917-4B6C-A211-F8E1DFDC96B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA78A12-931D-4CC5-A104-770670C8DBEE}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8724FC4-C658-4344-B87D-7CDC7CF7205E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43E55711-04A4-4E2D-9AB9-B49F157396C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31304136-2D6A-4946-9919-63FD28B1FA64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841137D9-1D1D-4BA6-ADC5-D92D481231B9}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6236C74F-0A7A-4935-8891-E8E213DA4EE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4856C1F5-6CB1-443E-88B4-CB0B28096582}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA78A12-931D-4CC5-A104-770670C8DBEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC59E72A-7C3D-4371-B9FB-739748C2CA0B}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43E55711-04A4-4E2D-9AB9-B49F157396C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35796A25-453D-4A2A-80AC-C8C62EE8DC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841137D9-1D1D-4BA6-ADC5-D92D481231B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C01EC95-A9E2-4004-8325-E1FA92F26F27}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4856C1F5-6CB1-443E-88B4-CB0B28096582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC344A3-ED6C-43EC-9F91-A1D6B878F192}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC59E72A-7C3D-4371-B9FB-739748C2CA0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C118148-2165-4E90-A0BB-BF7D0D445FA5}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35796A25-453D-4A2A-80AC-C8C62EE8DC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E2B3BD-2BC7-4A1D-A368-A670CAE50920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C01EC95-A9E2-4004-8325-E1FA92F26F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D470F-9226-4B4C-A1FE-C89ADA6276B9}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC344A3-ED6C-43EC-9F91-A1D6B878F192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB9B944-B843-47FB-B10F-0EFAC1FA98EF}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C118148-2165-4E90-A0BB-BF7D0D445FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B6D465-6C4D-4FF0-B0BD-84840EBB9F2A}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E2B3BD-2BC7-4A1D-A368-A670CAE50920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE333B9E-05F0-480C-96BC-17573FCADA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D470F-9226-4B4C-A1FE-C89ADA6276B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E982BD4-36E7-42B4-99B7-24479EB5EE9A}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB9B944-B843-47FB-B10F-0EFAC1FA98EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C65985C-437D-47FA-8958-728A606131B9}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B6D465-6C4D-4FF0-B0BD-84840EBB9F2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6C0F27-06B3-45F0-8FC1-B3A0AFE8D3B2}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE333B9E-05F0-480C-96BC-17573FCADA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90C4DEBF-129D-4F22-BD33-193DC1704B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E982BD4-36E7-42B4-99B7-24479EB5EE9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53F28E0-335F-4B25-9BFD-6A933144C4D7}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C65985C-437D-47FA-8958-728A606131B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5554B4BB-06C0-4275-B4A4-BF8967DC69C1}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6C0F27-06B3-45F0-8FC1-B3A0AFE8D3B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06DDB56-C20E-481D-A2F3-971B4A66BB0E}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90C4DEBF-129D-4F22-BD33-193DC1704B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC8817C-5B4C-466A-A632-55B1C251C0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53F28E0-335F-4B25-9BFD-6A933144C4D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1350BBD5-6B88-4B0E-AAF0-3C5B9E3B195B}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5554B4BB-06C0-4275-B4A4-BF8967DC69C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0687CB1-1E6D-4E63-96AA-0B430D243EA9}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06DDB56-C20E-481D-A2F3-971B4A66BB0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F633EAD9-E050-46F5-BACF-57AC3891F70F}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC8817C-5B4C-466A-A632-55B1C251C0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15AB0699-9A8E-4C46-9B01-54A1065E9936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1350BBD5-6B88-4B0E-AAF0-3C5B9E3B195B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107FACF6-8FC2-44DB-95CE-1F2CD36B234E}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0687CB1-1E6D-4E63-96AA-0B430D243EA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C429FB-DB37-4F55-9DB7-F8264C5DFDBE}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F633EAD9-E050-46F5-BACF-57AC3891F70F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4765403F-416A-4FB5-9EF7-4C9440A3C8D6}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15AB0699-9A8E-4C46-9B01-54A1065E9936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1906982C-D2D5-4477-9058-54B164E36E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107FACF6-8FC2-44DB-95CE-1F2CD36B234E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A8CDC2-E512-4E3D-9029-3C222BB391B1}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C429FB-DB37-4F55-9DB7-F8264C5DFDBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1240F954-0A0F-4CA1-89D0-E24EA54C18F7}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4765403F-416A-4FB5-9EF7-4C9440A3C8D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04AA423-DAB6-457D-AC0F-D3FFD8CCFF2C}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1906982C-D2D5-4477-9058-54B164E36E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2AEAC2B-9780-464B-8FB7-6060165128CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A8CDC2-E512-4E3D-9029-3C222BB391B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71CD372-089D-44DF-B0FF-2EFC2CE77222}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1240F954-0A0F-4CA1-89D0-E24EA54C18F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FDC788-B6AD-4420-8CAE-D9C851A8276D}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04AA423-DAB6-457D-AC0F-D3FFD8CCFF2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE934A7-A758-46F0-BC96-A7BCA31812D5}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2AEAC2B-9780-464B-8FB7-6060165128CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B2E224-3616-4907-BFD5-F70C91665CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71CD372-089D-44DF-B0FF-2EFC2CE77222}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5918423-4C18-4641-80FE-921CD20D3D48}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FDC788-B6AD-4420-8CAE-D9C851A8276D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DDA68-F156-4914-B2BA-28B753FB33AC}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE934A7-A758-46F0-BC96-A7BCA31812D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C9F2F7-5CF2-4173-9861-62C091761134}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B2E224-3616-4907-BFD5-F70C91665CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27AC6CDF-4040-45BB-BA28-972EAF48DEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5918423-4C18-4641-80FE-921CD20D3D48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C320662-A8D8-40B7-9431-D381078FB62C}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DDA68-F156-4914-B2BA-28B753FB33AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2605C97C-12CB-4B2F-B437-D3B5B4E81D9F}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C9F2F7-5CF2-4173-9861-62C091761134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B897419-AFFA-4987-9611-3C969F7D2BB5}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27AC6CDF-4040-45BB-BA28-972EAF48DEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1144DE-E5DC-4C88-A86B-DA43183F1F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C320662-A8D8-40B7-9431-D381078FB62C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F39672-ECAD-44ED-BDE2-5C8F35AA48D9}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2605C97C-12CB-4B2F-B437-D3B5B4E81D9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC18CD5F-F624-48EE-A2EA-DDB4B3DC93F5}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B897419-AFFA-4987-9611-3C969F7D2BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A790278-B9BC-4235-9DC8-693A3A4F544A}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1144DE-E5DC-4C88-A86B-DA43183F1F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91A98A4F-B84D-447D-B79C-76D0E17B9F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F39672-ECAD-44ED-BDE2-5C8F35AA48D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B20549D-DD23-49D6-AAB8-7CC5416F93CB}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC18CD5F-F624-48EE-A2EA-DDB4B3DC93F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4B724A-8F5D-47EE-BC75-DD476A44AA75}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A790278-B9BC-4235-9DC8-693A3A4F544A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FBB252-7370-48BB-84A6-45653163A06E}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91A98A4F-B84D-447D-B79C-76D0E17B9F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F24286B-8892-426E-8DBD-C74B5034F5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B20549D-DD23-49D6-AAB8-7CC5416F93CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4ED87D-9907-4D08-A919-62BD72FF63D8}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4B724A-8F5D-47EE-BC75-DD476A44AA75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0302B809-1746-409B-A1F0-1939FF2AF72C}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FBB252-7370-48BB-84A6-45653163A06E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DCE692-C7B8-4D1F-9205-AC31A37B9437}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F24286B-8892-426E-8DBD-C74B5034F5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D127597D-AEE5-48F8-992B-CCFC3E29B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4ED87D-9907-4D08-A919-62BD72FF63D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A25FDF9-D0D6-40E5-B953-B5A0C2AEE983}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0302B809-1746-409B-A1F0-1939FF2AF72C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB1D0E1-C1A3-40A4-98D2-61FE1CCA4F57}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21253,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DCE692-C7B8-4D1F-9205-AC31A37B9437}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B2BEAF-D4D3-4A04-9458-607599A2DECA}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB875E52-FFD7-4C03-B8D1-C63636DF7DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{556B2C9C-F4BF-4FB5-951F-18D6B112F73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7821,7 +7821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5028C30C-716B-4AA9-AB6E-106C4C3F10F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CC1B3A-407D-4200-AF83-DAC09D3FB267}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9400,7 +9400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA7BC07-7D11-45F3-B6D9-77624A68B26B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673E4E50-F863-4ACD-83A3-72829355FB14}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21345,7 +21345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA999B3F-42F3-4130-BC9C-332BAFF60A17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1C5D26-BBB0-4016-87A3-8E7A4C5D4067}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A37F064-4E6E-42E4-B289-EA56E231C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{316A63CD-5BB8-45AB-A1EB-DF51D3B57A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4237,7 +4237,7 @@
   <dimension ref="B2:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4492,17 +4492,17 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O16" si="0">V8*3.6</f>
-        <v>25.2</v>
+        <f t="shared" ref="O8:O12" si="0">V8*3.6</f>
+        <v>7.2</v>
       </c>
       <c r="P8" s="1"/>
       <c r="V8" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:22">
@@ -4524,17 +4524,17 @@
       <c r="I9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1">
         <f t="shared" si="0"/>
-        <v>7.2</v>
+        <v>18</v>
       </c>
       <c r="P9" s="1"/>
       <c r="V9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:22">
@@ -4558,17 +4558,17 @@
       <c r="I10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>V10*3.6</f>
+        <v>36</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="V10" s="1">
-        <v>5</v>
+      <c r="V10">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:22">
@@ -4590,19 +4590,23 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
+      <c r="J11" s="1" t="str">
+        <f>C11</f>
+        <v>renewable</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
-        <f>V11*3.6</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>0.36000000000000004</v>
       </c>
       <c r="P11" s="1"/>
       <c r="V11">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="2:22">
@@ -4624,13 +4628,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="str">
-        <f>C11</f>
-        <v>renewable</v>
-      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4662,19 +4662,18 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.36000000000000004</v>
+        <f>V13*3.6</f>
+        <v>25.2</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="V13">
-        <v>0.1</v>
+      <c r="V13" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -4707,7 +4706,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1">
-        <f t="shared" si="0"/>
+        <f>V14*3.6</f>
         <v>0.36000000000000004</v>
       </c>
       <c r="P14" s="1"/>
@@ -4745,7 +4744,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1">
-        <f t="shared" si="0"/>
+        <f>V15*3.6</f>
         <v>0.36000000000000004</v>
       </c>
       <c r="P15" s="1"/>
@@ -4773,7 +4772,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1">
-        <f t="shared" si="0"/>
+        <f>V16*3.6</f>
         <v>0.36000000000000004</v>
       </c>
       <c r="P16" s="1"/>
@@ -7822,7 +7821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC3BBE0-5709-471C-BC4A-DAD9D43A03FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03B6C33-E5DF-4B19-B5F4-65915581BD2F}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9401,7 +9400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22B3964-6737-4A06-8AAD-EF48E9C125FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BC4CB4-B9E2-4F8F-9630-E0A57BBF9485}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21346,7 +21345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBBFC9B-2319-47B8-94E4-CA4CDF914F92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A957D316-92E3-4831-B54D-8E1A905DB344}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{316A63CD-5BB8-45AB-A1EB-DF51D3B57A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00696181-156F-4E35-8C76-B98DF356D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7821,7 +7821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03B6C33-E5DF-4B19-B5F4-65915581BD2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FBDA63-F171-4334-BB2D-48813A9A9438}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9400,7 +9400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BC4CB4-B9E2-4F8F-9630-E0A57BBF9485}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76495FB6-9600-49BC-833E-B326C84D235E}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21345,7 +21345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A957D316-92E3-4831-B54D-8E1A905DB344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05930C8-7DED-43A1-A340-678D8C73A2BC}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00696181-156F-4E35-8C76-B98DF356D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25542E7D-EC9D-4017-B105-7F3B8F3F40BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7821,7 +7821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FBDA63-F171-4334-BB2D-48813A9A9438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04725BE-7B5C-4F46-AF69-4AE1A2B906DB}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9400,7 +9400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76495FB6-9600-49BC-833E-B326C84D235E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42C30D2-3138-40FD-A17A-F60E4D234546}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21345,7 +21345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05930C8-7DED-43A1-A340-678D8C73A2BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7B9505-FD1D-4AD2-A81D-A45CC7791222}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25542E7D-EC9D-4017-B105-7F3B8F3F40BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A345BD1-B128-46A9-891E-250E73B37D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7821,7 +7821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04725BE-7B5C-4F46-AF69-4AE1A2B906DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65313FA-AADA-40BA-A0B1-E65E9ACD9580}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9400,7 +9400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42C30D2-3138-40FD-A17A-F60E4D234546}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619D80F3-48EB-4A8E-83D1-48E90D62ECDF}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21345,7 +21345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7B9505-FD1D-4AD2-A81D-A45CC7791222}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A20DC1D-DA63-47A9-B9E5-8F1879993D0C}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A345BD1-B128-46A9-891E-250E73B37D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBF4121D-35A9-4BE3-8BE5-F054108E62BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7821,7 +7821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65313FA-AADA-40BA-A0B1-E65E9ACD9580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD2F010-27A7-4504-8FF9-FC88A6707454}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9400,7 +9400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619D80F3-48EB-4A8E-83D1-48E90D62ECDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3AC430-CD52-487D-BABB-1C0C798AF8AF}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21345,7 +21345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A20DC1D-DA63-47A9-B9E5-8F1879993D0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FDDD8C-200B-4F5B-BA34-9652C48578BB}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBF4121D-35A9-4BE3-8BE5-F054108E62BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B56C0E-95A7-41C1-97C3-1BF2975F87E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7821,7 +7821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD2F010-27A7-4504-8FF9-FC88A6707454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CC50F9-7DF4-438A-8AF6-027E9DA1ADB6}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9400,7 +9400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3AC430-CD52-487D-BABB-1C0C798AF8AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57037DC-B9EF-4DA3-A1DE-C06F66BA84CA}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21345,7 +21345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FDDD8C-200B-4F5B-BA34-9652C48578BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C7180-75C0-4977-A4EF-CAA335AC9F33}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B56C0E-95A7-41C1-97C3-1BF2975F87E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC493FE8-ADA1-498B-9641-F98BE24C6BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7821,7 +7821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CC50F9-7DF4-438A-8AF6-027E9DA1ADB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6068149F-B299-4753-A993-20299A779693}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9400,7 +9400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57037DC-B9EF-4DA3-A1DE-C06F66BA84CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7BFD1-36F0-4F2D-B70E-827707DA4A7F}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21345,7 +21345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C7180-75C0-4977-A4EF-CAA335AC9F33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC16FD52-78AA-41E5-BC55-4D1076743466}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC493FE8-ADA1-498B-9641-F98BE24C6BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB88024-74E1-4B0A-9CF3-DCC9207A9700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7821,7 +7821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6068149F-B299-4753-A993-20299A779693}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E31B60-A1CB-47CF-8F62-85C0ACE00FA4}">
   <dimension ref="B9:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9400,7 +9400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7BFD1-36F0-4F2D-B70E-827707DA4A7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37C61EE-7671-4DD5-BD96-3FD230808879}">
   <dimension ref="B9:AB172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21345,7 +21345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC16FD52-78AA-41E5-BC55-4D1076743466}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5370C7-E6FC-4244-8C98-F6522C7AA545}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
